--- a/df_retrain/datos_test.xlsx
+++ b/df_retrain/datos_test.xlsx
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>diferentes países distinta medida riesgos inherentes mortalidad materna muerte mujer embarazo parto semanas posteriores parto indicador importante salud mujer naciones unidas establecieron meta odm reducir tasa mortalidad materna mmr tres cuartas partes lograr acceso universal salud reproductiva muestra claramente diferencias ricos pobres rurales urbanos gran mayoría muertes ocurren entornos escasos recursos mayoría prevenibles oms</t>
+          <t>Pero en diferentes países y en distinta medida, también tienen riesgos inherentes. La mortalidad materna - la muerte de una mujer durante el embarazo, el parto o en las semanas posteriores al parto - es un indicador importante de la salud y el estado de la mujer. Las Naciones Unidas establecieron una meta de los ODM de reducir la tasa de mortalidad materna (MMR) en tres cuartas partes entre 1990 y 2015 y lograr el acceso universal a la salud reproductiva para 2015. Muestra claramente las diferencias entre ricos y pobres, rurales y urbanos, con la gran la mayoría de las muertes ocurren en entornos de escasos recursos y la mayoría son prevenibles (OMS, 2011a).</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>hogares quintil ingresos bajos sólo completado educación terciaria mientras hogares quintil ingresos altos hecho lituania realiza seguimiento poblaciones clave respecta participación logros educación terciaria objetivos políticos</t>
+          <t>Entre los hogares del quintil de ingresos más bajos, sólo el 16% ha completado la educación terciaria, mientras que entre los hogares del quintil de ingresos más altos lo ha hecho el 80%. Lituania no realiza un seguimiento de las poblaciones clave en lo que respecta a la participación y los logros en la educación terciaria. No tiene objetivos políticos.</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>elasticidad gasto salud pib evolución precios tecnología sanitaria factor determinante importante crecimiento gasto sanitario maisonneuve oliveira martins muestran países ocde explican alrededor variación gasto público salud década finales década países briics</t>
+          <t>La elasticidad del gasto en salud al PIB es de 0,8. La evolución de los precios y la tecnología sanitaria es un factor determinante importante del crecimiento del gasto sanitario. De la Maisonneuve y Oliveira Martins (2013) muestran que para los países de la OCDE explican alrededor del 50 % de la variación del gasto público en salud desde la década de 1990 hasta finales de la década de 2000 y el 40 % para los países BRIICS.</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>realizando esfuerzos integrales aumentar atractivo efp incluidos cambios gobernanza escuelas efp fortalecerán participación comunidad colaboración empresarial mejoras fuerza laboral capacitación vocacional través educación profesional continua inversiones gran escala red nacional centros capacitación práctica sectorial proporcionar instalaciones última generación formación profesional información mejorada resultados mercado laboral través nuevo sistema información recursos humanos esfuerzos aclarar base legal aprendizajes proporcionar subsidios empleadores empleadores puedan crear oportunidades aprendizaje evidencia preliminar sugiere pocos avances aumentar atractivo efp estudiantes empleadores implementar sistema seguimiento recursos humanos recientemente autorizado utilizarlo proporcionar evidencia beneficios vet futuros estudiantes aumentar capacidad escolar incentivos formación aprendices aclarar alcance incentivos empleadores creación contratos aprendizaje</t>
+          <t>Se están realizando esfuerzos integrales para aumentar el atractivo de la EFP, incluidos cambios en la gobernanza de las escuelas de EFP que fortalecerán la participación de la comunidad y la colaboración empresarial, mejoras en la fuerza laboral de capacitación vocacional a través de la educación profesional continua, inversiones a gran escala en una red nacional de centros de capacitación práctica sectorial que proporcionar instalaciones de última generación para la formación profesional, información mejorada sobre los resultados del mercado laboral a través de un nuevo sistema de información de recursos humanos y esfuerzos para aclarar la base legal de los aprendizajes y proporcionar subsidios a los empleadores, para que los empleadores puedan crear más oportunidades de aprendizaje. La evidencia preliminar sugiere pocos avances para aumentar el atractivo de la EFP para estudiantes o empleadores. Implementar el sistema de seguimiento de recursos humanos recientemente autorizado y utilizarlo para proporcionar evidencia de los beneficios de VET a los futuros estudiantes. Aumentar la capacidad escolar y los incentivos para la formación de aprendices, y aclarar el alcance de los incentivos de los empleadores para la creación de contratos de aprendizaje.</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>pagos relacionados colocación personal enfermería capacitación basada estadías nocturnas apoyo independencia colocación profesionales salud servicios bienestar discapacitados hacen posible personas vivan comunidad mientras reciben apoyo relacionado salud establecido visitas extensión enfermería servicios orientados comunidad hospitales clínicas privados apoyar alta temprana aumentado número guarderías psiquiátricas clínicas ambulatorias psiquiátricas privadas instalaciones rehabilitación social además mhlw otorga subsidios proyectos red atención salud mental infantil implementados prefectura embargo escasez hospitales centrales especialicen atención salud mental niños solo hospitales salas especializadas niños adolescentes japón hikikomori grupo identificado japón generalmente entiende adolescentes solitarios adultos jóvenes retiran vida social menudo buscando grados extremos aislamiento confinamiento motivo especial preocupación</t>
+          <t>También hay pagos relacionados con la colocación de personal de enfermería para la capacitación basada en estadías nocturnas para el apoyo a la independencia y la colocación de profesionales de la salud para los servicios de bienestar para discapacitados y hacen posible que las personas vivan en la comunidad mientras reciben apoyo relacionado con la salud. Se han establecido visitas de extensión de enfermería y servicios orientados a la comunidad en hospitales y clínicas privados para apoyar el alta temprana. También ha aumentado el número de guarderías psiquiátricas, clínicas ambulatorias psiquiátricas privadas e instalaciones de rehabilitación social. Además, el MHLW otorga subsidios para proyectos de "red de atención de salud mental infantil" implementados por la prefectura. Sin embargo, hay una escasez de hospitales centrales que se especialicen en la atención de la salud mental de los niños, con solo 21 hospitales con salas especializadas para niños y adolescentes en todo Japón. "Hikikomori", un grupo identificado en Japón que generalmente se entiende como adolescentes solitarios o adultos jóvenes que se retiran de la vida social, a menudo buscando grados extremos de aislamiento y confinamiento, son motivo de especial preocupación.</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>uso datos parte ocde entiende perjuicio estatus altos golán jentsalem oriental asentamientos israelíes cisjordania virtud derecho internacional educación equitativa alta calidad puede ayudar chile construir mano obra cualificada necesita economía productiva basada conocimiento innovadora reformas educativas vitales reducir altos niveles desigualdad social chile gobierno iniciado reformas educación atención primera infancia aepi procesos selección admisión estudiantes gobernanza financiación escuelas públicas carrera profesional docentes educación formación profesional efp educación terciaria embargo aprovechar beneficios iniciativas lograr progreso sostenido chile seguir aplicando reformas ambiciosas garanticen niveles altos aprendizaje competencias ocde forma parte esfuerzos ocde fortalecer capacidad países miembros ocde países socios determinados países economías miembros llevar cabo reformas educativas significativas</t>
+          <t>El uso de estos datos por parte de la OCDE se entiende sin perjuicio del estatus de los Altos del Golán, Jentsalem Oriental y los asentamientos israelíes en Cisjordania en virtud del derecho internacional. Una educación equitativa y de alta calidad puede ayudar a Chile a construir la mano de obra cualificada que necesita para una economía más productiva, basada en el conocimiento e innovadora. Las reformas educativas son también vitales para reducir los altos niveles de desigualdad social de Chile. El gobierno ha iniciado reformas de la educación y atención a la primera infancia (AEPI), los procesos de selección y admisión de estudiantes, la gobernanza y financiación de las escuelas públicas, la carrera profesional de los docentes, la educación y formación profesional (EFP) y la educación terciaria. Sin embargo, para aprovechar los beneficios de estas iniciativas y lograr un progreso sostenido, Chile tendrá que seguir aplicando reformas ambiciosas que garanticen niveles más altos de aprendizaje y competencias para todos (OCDE, 2015a y 2016a). Forma parte de los esfuerzos de la OCDE para fortalecer la capacidad de los países miembros de la OCDE, los países socios y determinados países y economías no miembros para llevar a cabo reformas educativas significativas.</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>primer lugar muestran vulnerabilidad inducida riesgo relevante significativa incluso ausencia shocks ex post segundo lugar demuestran proceso liberalización debe ir acompañado apoyo adicional hogares dedican aquellas actividades agrícolas expuestas competencia internacional apertura comercial puede magnificar riesgo debe liberalización cambia riesgo actividades existentes alterando peso choques externos relación internos enfrenta economía consecuencia actividades económicas óptimas hogares especialmente cierto pequeños agricultores debido poca capacidad aprovechar oportunidades positivas creadas reformas comerciales débil capacidad asegurarse impactos adversos posiblemente falta información riesgos asociados nuevas actividades inducidas apertura intervenciones abordar problemas deben dirigirse principalmente hogares vulnerables inducidos comercio</t>
+          <t>En primer lugar, muestran que la vulnerabilidad "inducida por el riesgo" es relevante y significativa incluso en ausencia de shocks ex post. En segundo lugar, demuestran que el proceso de liberalización debe ir acompañado de un apoyo adicional a los hogares que se dedican a aquellas actividades agrícolas más expuestas a la competencia internacional, ya que la apertura comercial puede magnificar el riesgo. Esto se debe a que la liberalización cambia el riesgo de las actividades existentes, alterando el peso de los choques externos en relación con los internos que enfrenta la economía y, en consecuencia, las actividades económicas óptimas de los hogares. Esto es especialmente cierto para los pequeños agricultores debido a su poca capacidad para aprovechar las oportunidades positivas creadas por las reformas comerciales, su débil capacidad para asegurarse contra impactos adversos y, posiblemente, la falta de información sobre los riesgos asociados con las nuevas actividades inducidas. por la apertura Las intervenciones para abordar estos problemas deben dirigirse principalmente a los hogares vulnerables inducidos por el comercio.</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>significa calcular pobreza total deben capturar diferentes distancias privación moderada severa hizo asignando puntaje privación severa privación moderada privación valor reservó situación privación extrema susceptible medición encuestas convencionales embargo distancias representadas puntajes métricas mientras tres situaciones grave moderada privación relacionan sistema ordinal distancias reales pueden establecer si bien posible diferenciar grupos niños pobres utilizando índices profundidad severidad pobreza total deben considerarse meramente ilustrativos severidad pobreza grupos</t>
+          <t>Esto significa que, al calcular la pobreza total, se deben capturar diferentes distancias para la privación moderada y severa. Esto se hizo asignando un puntaje de 1 para privación severa, 2 para privación moderada y 3 para no privación (el valor 0 se reservó para la situación de privación extrema, que no es susceptible de medición por encuestas convencionales). Sin embargo, las distancias representadas por estos puntajes son métricas, mientras que las tres situaciones (grave, moderada y sin privación) se relacionan con un sistema ordinal (donde las distancias reales no se pueden establecer). Por lo tanto, si bien es posible diferenciar entre grupos de niños pobres utilizando índices de profundidad y severidad de la pobreza total, deben considerarse meramente ilustrativos de la severidad de la pobreza en estos grupos.</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>formación educación personal ecec afecta calidad servicios resultados principalmente través conocimientos habilidades competencias transmiten fomentan profesionales considera importante personal crea capacidad organizar ejecutar cursos acción necesarios lograr resultados deseados fives calificaciones pueden ser importantes términos conjuntos habilidades conocimientos reconocen importantes trabajar niños pequeños</t>
+          <t>La formación y educación del personal de ECEC afecta la calidad de los servicios y los resultados principalmente a través de los conocimientos, habilidades y competencias que transmiten y fomentan los profesionales. También se considera importante que el personal crea en su capacidad para organizar y ejecutar los cursos de acción necesarios para lograr los resultados deseados (Fives, 2003). Las calificaciones pueden ser importantes en términos de qué conjuntos de habilidades y qué conocimientos se reconocen como importantes para trabajar con niños pequeños.</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>principal instrumento medición adult mental health benchmarking toolkit presenta indicadores resultados formato cuadro mando combinando indicadores estructurales proceso resultados general entiende trastornos leves moderados depresión ansiedad requieren tratamientos altamente especializados administrados psiquiatras régimen hospitalización gran mayoría casos contrario requieren sólida atención primaria comunitaria aunque atención primaria inmensa mayoría casos primer punto acuden personas sufren trastornos mentales médicos atención primaria siempre disponen competencias opciones tratamiento adecuadas responder eficazmente necesidades</t>
+          <t xml:space="preserve">El principal instrumento de medición, el Adult Mental Health Benchmarking Toolkit, presenta indicadores de resultados en formato de cuadro de mando, combinando indicadores estructurales, de proceso y de resultados. Por lo general, se entiende que los trastornos leves a moderados (como la depresión y la ansiedad) no requieren tratamientos altamente especializados administrados por psiquiatras o en régimen de hospitalización en la gran mayoría de los casos. Por el contrario, requieren una sólida atención primaria y comunitaria. Aunque la atención primaria es, en la inmensa mayoría de los casos, el primer punto al que acuden las personas que sufren trastornos mentales, los médicos de atención primaria no siempre disponen de las competencias y opciones de tratamiento adecuadas para responder eficazmente a las necesidades. </t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>hecho mientras registraron nuevos casos nuevos casos registraron número máximo nuevos casos mortalidad relacionada infección vih alta cinco muertes registradas aún registran infecciones transmitidas transfusiones sangre asistencia médica madre hijo roedores involucrados transmisión varias enfermedades peste leptospirosis pueden ser parte ciclos garrapatas patógenos</t>
+          <t>De hecho, mientras se registraron 11 nuevos casos en 2005, 26 nuevos casos se registraron en 2016, el número máximo de nuevos casos fue de 31 en 2014. La mortalidad relacionada con la infección por el VIH también fue la más alta en 2014, con cinco muertes registradas. Aún no se registran infecciones transmitidas por transfusiones de sangre, asistencia médica o de madre a hijo. Los roedores están involucrados en la transmisión de varias enfermedades, como la peste y la leptospirosis, y pueden ser parte de los ciclos de garrapatas y patógenos.</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ciudadanos empresas pueden evitar tomar riesgos retrasando decisiones inversión innovación movilidad laboral esenciales impulsar crecimiento progreso social educación clave conciliar necesidades intereses individuos comunidades naciones dentro marco equitativo basado fronteras abiertas futuro sostenible obligación moral social gran oportunidad</t>
+          <t>Los ciudadanos y las empresas pueden evitar tomar riesgos, retrasando las decisiones sobre inversión, innovación y movilidad laboral que son esenciales para impulsar el crecimiento y el progreso social. La educación será clave para conciliar las necesidades e intereses de los individuos, las comunidades y las naciones dentro de un marco equitativo basado en fronteras abiertas y un futuro sostenible. Esta es una obligación moral y social, también es una gran oportunidad.</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>programa qich aprendido basado ejemplo internacional incluidas iniciativas medición calidad conjunto datos información efectividad atención médica hedis comité nacional aseguramiento calidad ncqa unidos indicadores qich basan hedis definiciones dado programa obligatorio éxito debe participación voluntaria fondos salud concepción diseño proyecto principio participación activa proceso desarrollo indicadores consenso desarrollado torno medición calidad científicamente sólida programa proyecto qich ejemplo implementación práctica esquema sistematizado continuo monitorear mejorar calidad atención primaria basado investigaciones científicas guías</t>
+          <t>El programa QICH ha aprendido y se ha basado en el ejemplo internacional, incluidas las iniciativas de medición de la calidad, como el Conjunto de datos e información sobre la efectividad de la atención médica (HEDIS) del Comité Nacional para el Aseguramiento de la Calidad (NCQA) en los Estados Unidos (algunos indicadores QICH se basan en HEDIS definiciones). Dado que el programa no es obligatorio, su éxito se debe a la participación voluntaria de los fondos de salud en la concepción y el diseño del proyecto desde el principio, su participación activa en el proceso de desarrollo de indicadores y el consenso desarrollado en torno a una medición de calidad científicamente sólida. programa. El proyecto QICH es un ejemplo de implementación práctica de un esquema sistematizado y continuo para monitorear y mejorar la calidad de la atención primaria, basado en investigaciones científicas y guías.</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>número patentes aumentando ahora ingresos mantienen nivel bajo millones aud puede esperar gran parte involucre comercialización además formación doctoral podría incluir vínculos sólidos clústeres clave proporcionar habilidades emprendedoras área universidades victoria podrían tener fuerte impacto sector pymes mediante apoyo iniciativa empresarial dentro comunidad estudiantil egresados</t>
+          <t>El número de patentes está aumentando, pero hasta ahora los ingresos se mantienen en un nivel bajo, con 7 millones de AUD en 2007. Se puede esperar que gran parte de esto involucre la comercialización fuera del estado. Además, la formación doctoral podría incluir vínculos más sólidos con clústeres clave y proporcionar habilidades emprendedoras. Esta es también un área en la que las universidades de Victoria podrían tener un fuerte impacto en el sector de las pymes mediante el apoyo a la iniciativa empresarial dentro de la comunidad estudiantil y de egresados.</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>embargo obstáculos consejo educación superior prohíbe reconocimiento carreras técnicas ofrece ina casi todas universidades excepción universidad técnica nacional ina objetivos coordinar actividad instituciones formación atender necesidades sector productivo promover educación técnica colaborar atracción inversiones alta tecnología asesorar gobierno campo educación técnica eurodiputado</t>
+          <t>Sin embargo, hay muchos obstáculos. El Consejo de Educación Superior prohíbe el reconocimiento de carreras técnicas como las que ofrece el INA en casi todas las universidades a excepción de la Universidad Técnica Nacional (INA, 2014). Sus objetivos son: coordinar la actividad de las instituciones de formación y atender las necesidades del sector productivo, promover la educación técnica, colaborar en la atracción de inversiones de alta tecnología y asesorar al gobierno en el campo de la educación técnica ( eurodiputado, 2014:27).</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>telón fondo prolongada falta fuentes oficiales información fiable producción tráfico uso indebido drogas ilícitas países región varios informes medios comunicación anecdóticos uso indebido generalizado comprimidos falsificados captagon contienen anfetamina todas partes implicadas violencia armada república árabe siria significativo primera vez seis años estudio opio afganistán dispone resumen ejecutivo señala producido disminución superficie total estimada cultivo ilícito adormidera afganistán ascendió hectáreas representa disminución comparación cultivo alcanzó niveles récord hectáreas</t>
+          <t>Con el telón de fondo de una prolongada falta de fuentes oficiales de información fiable sobre la producción, el tráfico y el uso indebido de drogas ilícitas entre los países de la región, ha habido varios informes de los medios de comunicación y anecdóticos sobre el uso indebido generalizado de comprimidos falsificados de Captagon (que contienen anfetamina) entre todas las partes implicadas en la violencia armada en la República Árabe Siria. Es significativo que, por primera vez en seis años, el Estudio sobre el Opio en Afganistán 2015, del que se dispone del resumen ejecutivo, señala que se ha producido una disminución de la superficie total estimada de cultivo ilícito de adormidera en Afganistán, que en 2015 ascendió a 183.000 hectáreas (ha). Esto representa una disminución en comparación con 2014, cuando el cultivo alcanzó niveles récord, con 224.000 hectáreas.</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>siguieron instalaciones análisis sangre pruebas anticuerpos vih introdujeron comienzo siglo xxi testigo importante campaña vih parte gobierno ghana adoptó enfoque multisectorial programación vihsida comisión sidaits ghana gac estableció organismo supraministerial multisectorial bajo liderazgo presidente dirigir coordinar todas actividades relacionadas vihsida país ejemplo resultado accesibilidad fondos esfuerzos implementadores políticas vigentes amplió atención tratamiento apoyo pacientes vihsida aumentó número personas acceden servicios embargo hallazgos existentes revelan aunque existe gran concienciación vihsida población ghanesa traducido cambios comportamiento mayoría ciudadanos creen personalmente riesgo contraer vih modelo ajuste intervención vihsida país</t>
+          <t>A esto le siguieron las instalaciones de análisis de sangre y pruebas de anticuerpos del VIH, que se introdujeron en 1987.23 El comienzo del siglo XXI fue testigo de una importante campaña de VIH por parte del gobierno de Ghana y adoptó un enfoque multisectorial para la programación de VIH/SIDA. La Comisión de SIDA/ITS de Ghana (GAC)24 se estableció como un organismo supraministerial y multisectorial bajo el liderazgo del presidente para dirigir y coordinar todas las actividades relacionadas con el VIH/SIDA en el país. Por ejemplo, como resultado de la accesibilidad de los fondos y los esfuerzos de los implementadores de algunas de las políticas vigentes, se amplió la atención, el tratamiento y el apoyo a los pacientes con VIH/SIDA y aumentó el número de personas que acceden a estos servicios. Sin embargo, los hallazgos existentes revelan que, aunque existe una gran concienciación sobre el VIH/SIDA entre la población ghanesa, esto no se ha traducido en cambios de comportamiento porque la mayoría de los ciudadanos creen que no están personalmente en riesgo de contraer el VIH.30 modelo de ajuste de la intervención del VIH/SIDA en este país.</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>barkey descubrió hombres asentados turkana informaron quejas graves tasas altas enfermedades infecciosas nómadas incluida frecuencia significativamente mayor resfriado tos infección ocular infección pecho nómadas índice masa corporal alto comparar niños rendille asentados nómadas kenia nathan encontró niños sedentarios menores seis años niveles significativamente altos desnutrición anemia niños nómadas atribuyó consumo tres veces leche parte niños nómadas pueblos indígenas deben ser conscientes consecuencias cambio estilo vida deben hacer mitigar efectos negativos</t>
+          <t>Barkey descubrió que los hombres asentados de Turkana informaron quejas graves y tasas más altas de enfermedades infecciosas que los nómadas, incluida una frecuencia significativamente mayor de resfriado con tos, infección ocular e infección del pecho que los nómadas. También tenían un índice de masa corporal más alto. Al comparar a los niños Rendille asentados y nómadas en Kenia, Nathan encontró que los niños sedentarios menores de seis años tenían niveles significativamente más altos de desnutrición y anemia que los niños nómadas.57 Esto se atribuyó al consumo de tres veces más leche por parte de los niños nómadas. Los pueblos indígenas deben ser conscientes de las consecuencias del cambio en el estilo de vida y lo que deben hacer para mitigar los efectos negativos.</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>probable acontecimientos demográficos peso debido ocurrencia rara período observación corto sabemos primer análisis longitudinal efectos acontecimientos nivel hogar transiciones pobreza infantil ue ampliada crisis económica período subsiguiente lenta recuperación austeridad trata panel rotativo cuatro años cuarta parte muestra reemplazada cada año</t>
+          <t>No es probable que los acontecimientos demográficos tengan mucho peso debido a su ocurrencia más rara en un período de observación corto. Hasta donde sabemos, el nuestro es el primer análisis longitudinal de los efectos de los acontecimientos a nivel de hogar en las transiciones de la pobreza infantil en la UE ampliada durante la crisis económica y el período subsiguiente de lenta recuperación y austeridad. Se trata de un panel rotativo de cuatro años con una cuarta parte de la muestra reemplazada cada año.</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>comisión calidad atención reino unido ver sección ofrece modelo considerar arreglos italia modelo particular interés allí establecido observatorio nacional buenas prácticas seguridad paciente identifica aprendizajes transferibles eventos adversos hospitales clínicas organiza talleres materiales compartir buenas prácticas observatorio sido efectivo crear conciencia profesionales salud fomentar cultura cambio país ocde c</t>
+          <t>La Comisión de Calidad de la Atención del Reino Unido (ver Sección 1) ofrece un modelo a considerar. Los arreglos en Italia son un modelo de particular interés. Allí se ha establecido el Observatorio Nacional de Buenas Prácticas para la Seguridad del Paciente que identifica aprendizajes transferibles de eventos adversos en hospitales y clínicas, y organiza talleres y materiales para compartir buenas prácticas. El Observatorio ha sido muy efectivo al crear conciencia entre los profesionales de la salud y fomentar una cultura de cambio en todo el país (OCDE, 2015c).</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>particular pidió medidas innovación sector público incluido sector educación medición innovación educación responde llamado ofreciendo nuevas perspectivas medición innovación educación libro brinda lectores nueva información comparativa internacional innovación educación comparación sectores documenta cambio variedad dimensiones prácticas escolares recurso clave lectores interesados innovación educativa dada variedad prácticas cubierto proporciona material interés público amplio</t>
+          <t>En particular, pidió medidas de innovación en el sector público, incluido el sector de la educación. La medición de la innovación en educación responde a este llamado, ofreciendo nuevas perspectivas sobre la medición de la innovación en educación. El libro brinda a los lectores nueva información comparativa internacional sobre la innovación en la educación en comparación con otros sectores, y documenta el cambio en una variedad de dimensiones de las prácticas escolares entre 1999 y 2011. Es un recurso clave para los lectores interesados ​​en la innovación educativa, pero dada la variedad de prácticas. cubierto, también proporciona material de interés para un público más amplio.</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>países segregación temprana refleja idea solo ciertos niños alcanzan niveles altos evidencia pisa tecnologías ia muestran realidad plataformas educativas adaptativas demuestran alumnos pueden progresar si reciben apoyos personalizados países estonia canadá finlandia creencia cada estudiante puede llegar estándares internacionales complementa hoy sistemas inteligentes diagnostican brechas aprendizaje ofrecen materiales adecuados enfoque impulsado tecnología refuerza equidad reduce disparidades sociales mostrando calidad educativa puede ser alcanzada</t>
+          <t>En algunos países, la segregación temprana refleja la idea de que solo ciertos niños alcanzan niveles altos, pero la evidencia de PISA y las tecnologías de IA muestran otra realidad. Plataformas educativas adaptativas demuestran que todos los alumnos pueden progresar si reciben apoyos personalizados. En países como Estonia, Canadá o Finlandia, la creencia de que cada estudiante puede llegar a estándares internacionales se complementa hoy con sistemas inteligentes que diagnostican brechas de aprendizaje y ofrecen materiales adecuados. Este enfoque, impulsado por la tecnología, refuerza la equidad y reduce las disparidades sociales, mostrando que la calidad educativa puede ser alcanzada por todos.</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>nuevas condiciones trabajo mejora remuneración docentes creación incentivos trabajar escuelas desfavorecidas regulación tiempo docente parte horas contrato formación desarrollo derecho desarrollo profesional gratuito pertinente planes individuales desarrollo profesional informados necesidades docente escuela directores escuelas facultados definir planes desarrollo profesional cuerpos docentes éstos realizaban variedad tareas describe tabla distribución docentes tipo proveedor escolar siguiente colegios municipales colegios particulares concertados colegios privados concertados colegios administración delegada participaciones equivalentes respectivamente</t>
+          <t>Nuevas Condiciones de Trabajo: mejora de la remuneración de los docentes, creación de incentivos para trabajar en escuelas desfavorecidas y regulación del tiempo no docente como parte de las horas de contrato. Formación para el Desarrollo: Derecho al desarrollo profesional gratuito y pertinente, planes individuales de desarrollo profesional informados por las necesidades tanto del docente como de la escuela, y los directores de las escuelas facultados para definir planes de desarrollo profesional para sus cuerpos docentes. Éstos realizaban una variedad de tareas, como se describe en la Tabla 5.1. La distribución de docentes por tipo de proveedor escolar en 2015 fue la siguiente: 43,9% en colegios municipales, 45,7% en colegios particulares concertados, 9,4% en colegios privados no concertados y 1,0% en colegios con administración delegada (las participaciones equivalentes en 2004 fueron 51,1%, 35,7%, 11,7% y 1,5% respectivamente).</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>nivel local recopilación informe información asistencia pueden ayudar garantizar actores importantes particular administración escolar servicios sociales municipales den cuenta rápidamente problemas asistencia medida surgen además notificación periódica información asistencia autoridades educativas responsables nivel nacional puede garantizar docentes escuelas municipios tomen serio inasistencia administrado supervisado autoridad australiana currículo evaluación informes acara organismo público independiente información particularmente importante jóvenes pertenecientes grupos desfavorecidos transparencia resultante resultados ayuda padres tomar decisiones educativas crea base sólida escuelas comunidades mejoren desempeño</t>
+          <t>A nivel local, la recopilación y el informe de la información de asistencia pueden ayudar a garantizar que todos los actores importantes, en particular la administración escolar y los servicios sociales municipales, se den cuenta rápidamente de los problemas de asistencia a medida que surgen. Además, la notificación periódica de la información de asistencia a las autoridades educativas responsables a nivel nacional puede garantizar que los docentes, las escuelas y los municipios se tomen en serio la inasistencia. Es administrado y supervisado por la Autoridad Australiana de Currículo, Evaluación e Informes (ACARA), que es un organismo público independiente. Esta información es particularmente importante para los jóvenes pertenecientes a grupos desfavorecidos. La transparencia resultante de los resultados ayuda a los padres a tomar decisiones educativas y crea una base sólida para que las escuelas y las comunidades mejoren su desempeño.</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>países enfrentan doble reto deben ampliar enseñanza secundaria mismo tiempo garantizar alumnos terminan enseñanza obligatoria capaces mínimo leer comprender textos utilizar números nivel permita seguir desarrollando potencial participar sociedades basadas conocimiento ejemplo población alumnos años matriculados séptimo curso superior aumentó casi estudiantes brasil estudiantes turquía estudiantes méxico refleja creciente capacidad países retener jóvenes escuela mejoras evidentes mejora tasas cobertura poblaciones nacionales alumnos años matriculados matriculados muestras pisa países muestran tendencias positivas cobertura encuentran costa rica indonesia uruguay</t>
+          <t>Estos países se enfrentan a un doble reto: deben ampliar la enseñanza secundaria y, al mismo tiempo, garantizar que los alumnos que terminan la enseñanza obligatoria sean capaces, como mínimo, de leer y comprender textos, y de utilizar los números, a un nivel que les permita seguir desarrollando su potencial y participar en las sociedades basadas en el conocimiento. Por ejemplo, entre 2003 y 2015, la población de alumnos de 15 años matriculados en séptimo curso o superior aumentó en casi 500 000 estudiantes en Brasil, en más de 375 000 estudiantes en Turquía y en más de 300 000 estudiantes en México, lo que refleja la creciente capacidad de estos países para retener a los jóvenes en la escuela. Estas mejoras también son evidentes en la mejora de las tasas de cobertura de las poblaciones nacionales de alumnos de 15 años (matriculados y no matriculados) en las muestras de PISA. Entre los países que muestran tendencias positivas de cobertura se encuentran también Costa Rica, Indonesia y Uruguay.</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>hecho educación medida años escolaridad correlaciona positivamente intensidad capital manufactura qu cai dado mayor parte fuerza laboral china compuesta graduados secundaria preparatoria existe amplio margen invertir educación capacitación impulsar productividad laboral productividad laboral alta si graduados escuela secundaria básica educación secundaria superior duplicaría si graduados escuela secundaria superior formación universitaria embargo logro educación superior solo puede ser suficiente adaptarse estructura cambiante industria necesita amplio conjunto habilidades amplios conocimientos generales faciliten adquisición nuevas habilidades</t>
+          <t>De hecho, la educación, medida por años de escolaridad, se correlaciona positivamente con la intensidad de capital en la manufactura (Qu y Cai, 2011). Dado que la mayor parte de la fuerza laboral en China está compuesta por graduados de secundaria y preparatoria, existe un amplio margen para invertir en educación y capacitación para impulsar la productividad laboral. La productividad laboral sería un 23% más alta si los graduados de la escuela secundaria básica tuvieran educación secundaria superior y se duplicaría si los graduados de la escuela secundaria superior tuvieran formación universitaria. Sin embargo, el logro de la educación superior por sí solo puede no ser suficiente. Para adaptarse a la estructura cambiante de la industria, se necesita un amplio conjunto de habilidades y amplios conocimientos generales, que faciliten la adquisición de nuevas habilidades.</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>certificaciones personal programas nivel supervisor exigen educadores diploma dos años aepi creado grupo trabajo competencias comunes determinar debe incluirse programas formación inicial personal aepi invita partes interesadas comentar competencias conocimientos identificados personal aepi tras recibir comentarios revisará plan objetivo iniciativa reforzar conocimientos personal mejorar calidad prestación servicios aepi</t>
+          <t>Las certificaciones de personal de programas y de nivel de supervisor exigen que los educadores tengan un diploma de dos años en AEPI. Se ha creado un grupo de trabajo sobre competencias comunes para determinar qué debe incluirse en los programas de formación inicial del personal de la AEPI. Se invita a las partes interesadas a comentar las competencias y los conocimientos identificados para el personal de la AEPI. Tras recibir los comentarios, se revisará el plan. El objetivo de esta iniciativa es reforzar los conocimientos del personal y mejorar la calidad de la prestación de los servicios de AEPI.</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>directores escuela recibieron cuestionario minutos cubría sistema escolar entorno aprendizaje países economías distribuyeron cuestionarios opcionales padres pidió proporcionaran información percepciones participación escuela hijos apoyo aprendizaje hogar expectativas profesionales hijos particularmente matemáticas países podrían elegir dos cuestionarios opcionales estudiantes preguntaba estudiantes familiaridad tecnologías información comunicación uso segundo buscaba información educación fecha incluidas interrupciones educación si preparando educación cómo haciendo futura carrera</t>
+          <t>Los directores de escuela también recibieron un cuestionario de 30 minutos que cubría el sistema escolar y el entorno de aprendizaje. En algunos países y economías, se distribuyeron cuestionarios opcionales a los padres, a quienes se les pidió que proporcionaran información sobre sus percepciones y participación en la escuela de sus hijos, su apoyo para el aprendizaje en el hogar y las expectativas profesionales de sus hijos, particularmente en matemáticas. Los países podrían elegir otros dos cuestionarios opcionales para los estudiantes: uno preguntaba a los estudiantes sobre su familiaridad con las tecnologías de la información y la comunicación y su uso, y el segundo buscaba información sobre su educación hasta la fecha, incluidas las interrupciones en su educación y si se están preparando para la educación y cómo lo están haciendo. una futura carrera.</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ministerio sanidad actualmente responsable casi aspectos actual sistema público asistencia sanitaria nuevo sistema nacional salud organización seguro enfermedad asumirá papel administrativo clave éxito cambio responsabilidades dependerá existencia líneas claras diferenciadas rendición cuentas tasas mortalidad causas comunes enfermedades cardiovasculares cáncer inferiores media ue</t>
+          <t>El Ministerio de Sanidad también es actualmente responsable de casi todos los aspectos del actual sistema público de asistencia sanitaria. En el nuevo sistema nacional de salud, la Organización del Seguro de Enfermedad asumirá un papel administrativo clave. El éxito de este cambio de responsabilidades dependerá de la existencia de líneas claras y diferenciadas de rendición de cuentas. Las tasas de mortalidad por causas comunes, como las enfermedades cardiovasculares y el cáncer, son inferiores a la media de la UE.</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>influencia continuación tendencias familias bajos ingresos futuro aquí analizamos cómo continuación tendencias demográficas tendencias empleo ingresos patrones empleo hogares podrían influir tendencias desigualdad pobreza futuro mayores aumentos proporción dos grupos población conducirán aumento proporción familias riesgo pobreza futuro población actual edad trabajar número cada vez mayor ahorrando jubilación probable proporción mayor población jubilados reciba pensiones privadas</t>
+          <t>¿Qué influencia tendrá la continuación de estas tendencias en las familias de bajos ingresos en el futuro? Aquí analizamos cómo la continuación de las tendencias demográficas, las tendencias en el empleo y los ingresos y los patrones de empleo de los hogares podrían influir en las tendencias de la desigualdad y la pobreza en el futuro. Mayores aumentos en la proporción de estos dos grupos en la población conducirán a un aumento en la proporción de familias en riesgo de pobreza en el futuro. Entre la población actual en edad de trabajar, un número cada vez mayor está ahorrando para su jubilación, por lo que para 2030 es probable que una proporción mucho mayor de la población de jubilados reciba pensiones privadas.</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>cubre miembros ue así noruega islandia mayoría ítems específicos niños disponibles eusilc refieren niños años además dos ítems relacionados educación escolar aplican solo niños edad escolar metodología eusilc especifica si niño categoría edad pertinente carece elemento niños hogar marcan carentes elemento</t>
+          <t>Cubre 27 estados miembros de la UE, así como Noruega e Islandia. La mayoría de los 14 ítems específicos para niños disponibles en EU-SILC 2009 se refieren a niños5 de 1 a 15 años, además de los dos ítems relacionados con la educación escolar que se aplican solo a niños en edad escolar. La metodología EU-SILC 2009 especifica que si un niño en la categoría de edad pertinente carece de un elemento, todos los niños del hogar se marcan como carentes de este elemento.</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>subcategoría incluye bienes médicos duraderos sido recetados médico autorizado subcategorías medicamentos esenciales distinciones operativas institucionalizadas países vigilancia rutinaria podrían incluirse desglose detallado eventualmente puede ser factible desglose terapéutico basado clasificación anatómica terapéutica química</t>
+          <t>Esta subcategoría también incluye bienes médicos no duraderos que han sido recetados por un médico autorizado. Subcategorías como “medicamentos esenciales” son distinciones operativas que ya están institucionalizadas en algunos países para la vigilancia rutinaria, y que también podrían incluirse en un desglose detallado. Eventualmente, también puede ser factible un desglose terapéutico basado en la Clasificación Anatómica Terapéutica Química.</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>tasa letalidad alta grupo edad refiere hospitalización enfermedades sistema circulatorio muertes hospitalarias altas hospitalarias muertes caso enfermedades sistema circulatorio constituyen casos registrados enfermedades casos nuevos enfermedades hipertensivas cardiopatías isquémicas cerebrovasculares representan respectivamente enfermedades aparato circulatorio tasa incidencia mayor niños niños comparación población general habitantes</t>
+          <t>La tasa de letalidad más alta en este grupo de edad se refiere a la hospitalización por enfermedades del sistema circulatorio, con 10 muertes hospitalarias por 137 altas hospitalarias (7% de las muertes por caso). Las enfermedades del sistema circulatorio constituyen el 16% de todos los casos registrados de enfermedades y el 8% de los casos nuevos. Las enfermedades hipertensivas, las cardiopatías isquémicas y las cerebrovasculares representan, respectivamente, el 58,8%, el 24,6% y el 4,3% de las enfermedades del aparato circulatorio. La tasa de incidencia es mucho mayor en niños (35 000 por 100 000 niños en 2012) en comparación con la población general (12 000 por 100 000 habitantes en 2012).</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>rumanía informó cantidad estimulantes tipo anfetamínico incautada casi veces superior incautada austria informó detección tres laboratorios anfetamina nueve metanfetamina mientras autoridades alemanas desmantelaron laboratorios anfetamina tres laboratorios fabricando metanfetamina partir pseudoefedrina extraída descongestionantes nasales república checa número laboratorios metanfetamina desmantelados aumentó ligeramente frente desmantelados</t>
+          <t>Rumanía informó de que la cantidad de estimulantes de tipo anfetamínico incautada en 2014 fue casi 11 veces superior a la incautada en 2013. En 2014, Austria informó de la detección de tres laboratorios de anfetamina y nueve de metanfetamina, mientras que las autoridades alemanas desmantelaron 11 laboratorios de anfetamina y tres laboratorios que habían estado fabricando metanfetamina a partir de pseudoefedrina extraída de descongestionantes nasales. En la República Checa, el número de laboratorios de metanfetamina desmantelados aumentó ligeramente a 272 en 2014, frente a los 262 desmantelados en 2013.</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>médicos familia ejemplo control presupuestario enfermeras trabajan bajo supervisión si bien opiniones fuertemente divergentes gobierno grupos profesionales exclusivas turquía consenso papel notablemente menor conducción reforma turquía asociación médica turca sigue oponiéndose htp especialmente arreglos pago ejercen presión considerable médicos brinden mayores volúmenes servicios aunque existe autorregulación elemental profesión médica existen fuertes desacuerdos profesión representada asociación médica turca asociación enfermeras turquía asociación matronas turquía gobierno funciones responsabilidades mutuas si bien ministerio salud tomando pasos delegar responsabilidad ejemplo delegando responsabilidad brindar servicios hospitalarios progreso cambiar enfoque funciones regulación supervisión gobernanza calidad sido bastante lento</t>
+          <t>Los médicos de familia, por ejemplo, no tienen control presupuestario sobre las enfermeras que trabajan bajo su supervisión. Si bien las opiniones fuertemente divergentes entre el gobierno y los grupos profesionales no son exclusivas de Turquía, el consenso ha tenido un papel notablemente menor en la conducción de la reforma en Turquía. La Asociación Médica Turca sigue oponiéndose al HTP, especialmente porque los arreglos de pago ejercen una presión considerable sobre los médicos para que brinden mayores volúmenes de servicios. Aunque existe una autorregulación elemental de la profesión médica, existen fuertes desacuerdos entre la profesión (representada por la Asociación Médica Turca, la Asociación de Enfermeras de Turquía y la Asociación de Matronas de Turquía) y el gobierno sobre las funciones y responsabilidades mutuas. Si bien el Ministerio de Salud está tomando algunos de estos pasos para delegar la responsabilidad, por ejemplo, delegando la responsabilidad de brindar servicios hospitalarios, el progreso para cambiar el enfoque a sus funciones de regulación, supervisión y gobernanza de la calidad ha sido bastante lento.</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>mismo tiempo intervenciones específicas secundaria prevenir abandono escolar concienciar beneficios educación deben recibir recursos estudiantes procedentes entornos socialmente desfavorecidos deberían recibir beca manutención condicionada asistencia regular escuela progreso satisfactorio mejora tasas finalización sistema educativo uruguayo requiere mejorar oferta servicios educativos nivel secundario hacerlos pertinentes intereses características estudiantes requiere estrategias mejorar transición estudiantes distintos niveles educativos saber desarrollo marco curricular común niveles educación escolar</t>
+          <t>Al mismo tiempo, las intervenciones específicas en secundaria para prevenir el abandono escolar y concienciar sobre los beneficios de la educación deben recibir más recursos. Los estudiantes procedentes de entornos socialmente desfavorecidos deberían recibir una beca de manutención condicionada a la asistencia regular a la escuela y a un progreso satisfactorio. La mejora de las tasas de finalización en el sistema educativo uruguayo también requiere mejorar la oferta de servicios educativos en el nivel secundario para hacerlos más pertinentes a los intereses y características de los estudiantes. Esto requiere estrategias para mejorar la transición de los estudiantes entre los distintos niveles educativos, a saber, el desarrollo de un marco curricular común para todos los niveles de la educación escolar.</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>embargo pesar esfuerzos recientes gasto público educación mantiene considerablemente debajo promedio ocde debajo gasto equivalente países américa latina comparación internacional gasto público parece ser particularmente bajo programas públicos secundaria superior general nivel gasto relativamente bajo traduce gasto inadecuado salarios maestros líderes escolares materiales aprendizaje desafíos satisfacer demanda plazas educación preescolar si bien realizado esfuerzos considerables aumentar salarios maestros públicos últimos años salarios relativos maestros públicos siguen siendo bajos</t>
+          <t>Sin embargo, a pesar de los esfuerzos recientes, el gasto público en educación se mantiene considerablemente por debajo del promedio de la OCDE y por debajo del gasto equivalente en otros países de América Latina. En una comparación internacional, el gasto público parece ser particularmente bajo en los programas públicos de secundaria superior general. Este nivel de gasto relativamente bajo se traduce en un gasto inadecuado en salarios de maestros y líderes escolares y en materiales de aprendizaje, y desafíos para satisfacer la demanda de plazas en educación preescolar. Si bien se han realizado esfuerzos considerables para aumentar los salarios de los maestros públicos en los últimos años, los salarios relativos de los maestros públicos siguen siendo bajos.</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>cubrirlos población seguro médico voluntario ayudas pueden permitírselo pagos directos bajos general proporción gasto privado alta comparación media ue embargo pese solidez sistema atención primaria falta coordinación integración niveles sectores provoca discontinuidad asistencial</t>
+          <t>Para cubrirlos, el 87% de la población tiene un seguro médico voluntario y hay ayudas para quienes no pueden permitírselo. Los pagos directos son bajos en general, pero la proporción del gasto privado es alta en comparación con la media de la UE. Sin embargo, pese a la solidez del sistema de atención primaria, falta coordinación e integración entre niveles y sectores, lo que provoca discontinuidad asistencial.</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>dedicar hora semana deberes asocia reducción probabilidad sacar malas notas matemáticas comparación hacer deberes dedicar dos horas semanales deberes asocia reducción probabilidad tres horas semanales reducción probabilidad sacar malas notas sigue disminuyendo medida aumenta número horas dedicadas deberes solo cierto punto partir inversión resulta nula ocde c factores pueden influir rendimiento escolar encuentran falta lugar adecuado tranquilo casa estudiar necesidad contribuir actividades familiares tipo orientación supervisión inadecuada parte padres años juventud alumnos falta confianza capacidad comprender completar deberes falta interés tarea materia</t>
+          <t>Dedicar una hora a la semana a los deberes se asocia a una reducción del 15% en la probabilidad de sacar malas notas en matemáticas, en comparación con no hacer deberes. Dedicar dos horas semanales a los deberes se asocia a una reducción del 36% de esa probabilidad, y tres horas semanales a una reducción del 50%. La probabilidad de sacar malas notas sigue disminuyendo a medida que aumenta el número de horas dedicadas a los deberes, pero solo hasta cierto punto, a partir del cual la inversión resulta nula (OCDE, 2016c). Entre los factores que pueden influir en el rendimiento escolar se encuentran la falta de un lugar adecuado y tranquilo en casa para estudiar, la necesidad de contribuir a las actividades familiares y de otro tipo, una orientación o supervisión inadecuada por parte de los padres en los años de juventud de los alumnos, la falta de confianza en su capacidad para comprender o completar los deberes y la falta de interés por la tarea y/o la materia.</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>aunque información tales individuos figura directamente estadísticas pobreza absoluta ausencia puede afectar quién identifica pobre según tipo umbral utilizado puede tener impacto directo medidas pobreza relativa desigualdad umbral establece respecto media recomienda ine exploren viabilidad ampliar cobertura</t>
+          <t>Aunque la información sobre tales individuos no figura directamente en las estadísticas de pobreza absoluta, su ausencia puede afectar a quién se identifica como pobre, según el tipo de umbral utilizado. Y puede tener un impacto directo en las medidas de pobreza relativa (desigualdad) donde el umbral se establece con respecto a la media. Se recomienda que los INE exploren la viabilidad de ampliar esta cobertura.</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>metodología tema importante datos pobreza ingresos basan metodología larga data cuyos resultados sólidamente consagrados umbrales ingresos monetarios delimitan inequívocamente población pobre dentro población indigente comparación enfoque multidimensional medición pobreza basado privaciones todavía carece consenso metodológico disfrutan mediciones basadas ingresos respalda interpretación tan clara resultados embargo complementa enfoque ingresos captura grupos población ambos parámetros señalan pobres aquellos cuyos ingresos sitúan encima línea pobreza sufren carencias relación necesidades básicas datos disponibles recientes indicaron quintil ingresos pobres decir hogares ingresos bajos representaba promedio ingreso total variación república dominicana honduras paraguay uruguay parte quintil ingresos rico representó promedio ingresos totales oscilando uruguay brasil ver cuadro</t>
+          <t>La metodología es otro tema importante. Los datos sobre la pobreza de ingresos se basan en una metodología de larga data cuyos resultados están sólidamente consagrados en umbrales de ingresos monetarios que delimitan inequívocamente a la población pobre y, dentro de ella, a la población indigente. En comparación, el enfoque multidimensional de la medición de la pobreza basado en las privaciones todavía carece del consenso metodológico del que disfrutan las mediciones basadas en los ingresos y no respalda una interpretación tan clara de los resultados. Sin embargo, complementa el enfoque de ingresos y captura tanto a los grupos de población que ambos parámetros señalan como pobres, como a aquellos cuyos ingresos se sitúan por encima de la línea de pobreza, pero que sufren carencias en relación con las necesidades básicas. Los datos disponibles más recientes indicaron que el quintil de ingresos más pobres (es decir, el 20% de los hogares con los ingresos más bajos) representaba en promedio el 5% del ingreso total, con una variación del 4% (en República Dominicana, Honduras y Paraguay ) y 10% (en Uruguay). Por su parte, el quintil de ingresos más rico representó en promedio el 47% de los ingresos totales, oscilando entre el 35% (en Uruguay) y el 55% (en Brasil) (ver cuadro 3).</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>marco determinantes dividen factores ascendentes nivel macro factores intermedios nivel medio factores descendentes nivel micro embargo mortalidad resultado experiencias pasadas factores riesgo mientras morbilidad resultado influencias curso si bien mortalidad morbilidad importantes afectados restringir acciones factores aguas abajo aborda determinantes salud impulsados socioeconómicamente encuentran aguas arriba aquí política gubernamental juega papel clave vez influenciada determinantes aún importantes fuerzas globales</t>
+          <t>En este marco, los determinantes se dividen en factores ascendentes (nivel macro), factores intermedios (nivel medio) y factores descendentes (nivel micro). Sin embargo, la mortalidad es el resultado de experiencias pasadas de factores de riesgo, mientras que la morbilidad es el resultado de influencias en curso. Si bien la mortalidad y la morbilidad son importantes para todos los afectados, restringir las acciones a los factores aguas abajo no aborda los determinantes de la salud impulsados ​​socioeconómicamente que se encuentran aguas arriba. Aquí, la política gubernamental juega un papel clave y, a su vez, está influenciada por determinantes aún más importantes de las fuerzas globales.</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>arrendamiento grandes porciones tierras consuetudinarias propietarios privados afecta seguridad alimentaria todas actividades subsistencia dependían recursos naturales desposeídos instalan entonces zonas urbanas cercanas capital participantes realizaba trabajo voluntario remunerado iglesia u ong sólo empleo asalariado regular mayoría hombres declaró tener cuenta bancaria dijo banco cerca casa últimas consideraciones importantes punto vista logístico hora decidir si intervenciones protección social deben ser transferencias efectivo</t>
+          <t>El arrendamiento de grandes porciones de estas tierras consuetudinarias a propietarios privados afecta a la seguridad alimentaria y a todas las actividades de subsistencia de quienes antes dependían de estos recursos naturales. Los desposeídos se instalan entonces en zonas urbanas cercanas a la capital. El 21% de los participantes realizaba trabajo voluntario no remunerado en una iglesia u ONG. Sólo el 30% tenía un empleo asalariado regular, y la mayoría eran hombres. El 25% declaró tener una cuenta bancaria y el 25% dijo que había un banco cerca de su casa. Estas últimas consideraciones son muy importantes desde el punto de vista logístico a la hora de decidir si las intervenciones de protección social deben ser o no transferencias de efectivo.</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>además dependiendo ámbito político audiencia conjunto indicadores podría ser pertinente indicadores reflejan condiciones vecindario acceso servicios relevantes perspectiva planificación urbana mientras cuestiones presión financiera problemas vivienda pobreza ingresos estrechamente vinculadas política protección social resumen razones peso analizar diferentes ámbitos pobreza infantil conjuntamente obtener imagen completa diversificada documento adopta microperspectiva analizar grado solapamiento indicadores pobreza infantil monetaria multidimensional combinando así debates pobreza infantil relativos solapamiento pobreza requisito cumple datos estadísticas renta condiciones vida ue eusilc</t>
+          <t>Además, dependiendo del ámbito político y de la audiencia, un (conjunto de) indicadores podría ser más pertinente: los indicadores que reflejan las condiciones del vecindario y el acceso a los servicios son relevantes desde una perspectiva de planificación urbana, mientras que las cuestiones de presión financiera, problemas de vivienda y pobreza de ingresos están más estrechamente vinculadas a la política (de protección) social. En resumen, hay razones de peso para analizar los diferentes ámbitos de la pobreza infantil conjuntamente para obtener una imagen completa y diversificada. Este documento adopta una microperspectiva para analizar el grado de solapamiento entre los indicadores de la pobreza infantil tanto monetaria como multidimensional, combinando así los debates sobre la pobreza infantil y los relativos al solapamiento de la pobreza. Este requisito se cumple con los datos de las Estadísticas sobre la Renta y las Condiciones de Vida de la UE (EU-SILC).</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>esperar bajo peso nacer asocia mayor mortalidad infantil igual formar parte parto múltiple tasas mortalidad varían función orden nacimiento mortalidad infantil mayor niños orden nacimiento cuatro superior menor orden nacimiento dos tres aunque coincide estudios mortalidad infantil contrasta conclusiones estudio anterior jordania realizado shakhatreh abbas issa analizando estadísticas mortalidad periodo autores constatan tasas mortalidad infantil bajas primogénitos</t>
+          <t>Como era de esperar, el bajo peso al nacer se asocia a una mayor mortalidad infantil, al igual que formar parte de un parto múltiple. Las tasas de mortalidad también varían en función del orden de nacimiento: la mortalidad infantil es mayor en los niños de orden de nacimiento cuatro o superior y menor en los de orden de nacimiento dos o tres. Aunque esto coincide con otros estudios sobre mortalidad infantil, contrasta con las conclusiones de un estudio anterior sobre Jordania realizado por Shakhatreh, Abbas e Issa (1996). Analizando las estadísticas de mortalidad del periodo 1980-1990, estos autores constatan que las tasas de mortalidad infantil eran más bajas entre los primogénitos.</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>finlandia ausencias médicas certificadas altas abstemios vida ex bebedores bebedores empedernidos comparación bebedores ocasionales vahtera et revisión estudios diferentes países observó carga económica sustancial alcohol sociedad thavomcharoensap et reino unido trabajadores dependientes alcohol perdieron casi millones días trabajo costo total ausentismo debido alcohol estimó millones libras esterlinas oficina gabinete reino unido alcohol representó valor estimado mil millones pérdida potencial producción causa ausentismo desempleo pérdida años trabajo muerte prematura anderson baumberg costos relacionados escocia francia canadá rehm et particular unidos pérdida productividad representó costo económico total consumo excesivo alcohol</t>
+          <t>En Finlandia, las ausencias médicas certificadas fueron un 20% más altas entre los abstemios de por vida, los ex bebedores y los bebedores empedernidos en comparación con los bebedores ocasionales (Vahtera et al., Una revisión de 22 estudios de diferentes países observó una carga económica sustancial del alcohol en la sociedad (Thavomcharoensap et al. , En el Reino Unido, los trabajadores dependientes del alcohol perdieron casi 11 millones de días de trabajo en 2001, y el costo total del ausentismo debido al alcohol se estimó en 1.200 millones de libras esterlinas (Oficina del Gabinete del Reino Unido, 2003). , el alcohol representó un valor estimado de € 59 mil millones de pérdida potencial de producción a causa del ausentismo, el desempleo y la pérdida de años de trabajo por muerte prematura en 2003 (Anderson y Baumberg, 2006). costos relacionados en Escocia, Francia y Canadá (Rehm et al., en particular, en los Estados Unidos, la pérdida de productividad representó el 72,2% del costo económico total del consumo excesivo de alcohol.</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ejemplo informe organización cooperación desarrollo económicos ocde estudio reciente programa evaluación internacional estudiantes pisa centra excelencia equidad ocde existe amplio acuerdo medidas adecuadas excelencia medida utilizada fin puntuaciones medias pruebas veces complementadas porcentaje niños alcanzado umbral específico competencia menos acuerdo igualdad cuál mejor manera medirla</t>
+          <t>Por ejemplo, un informe de la Organización para la Cooperación y el Desarrollo Económicos (OCDE) sobre el estudio más reciente del Programa para la Evaluación Internacional de Estudiantes (PISA) se centra tanto en la "excelencia" como en la "equidad" (OCDE, 2016a). Existe un amplio acuerdo sobre las medidas adecuadas de excelencia. La medida más utilizada para este fin son las puntuaciones medias de las pruebas, a veces complementadas con el porcentaje de niños que han alcanzado un umbral específico de competencia. Hay mucho menos acuerdo sobre qué es la igualdad y cuál es la mejor manera de medirla.</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>fuente ocde enfermo trabajo mitos realidades salud mental trabajo publicación ocde parís httpdxdoiorgsen ejemplo servicios salud trabajan sectores servicios bienestar social empleo educación vivienda desarrollar medir resultados calidad relevantes servicios atención salud mental específicos dentro complejidad difícil existen interdependencias diferentes sectores términos impacto resultados salud mental calidad atención puede dificultar establecimiento responsabilidades surgen deficiencias</t>
+          <t>Fuente: OCDE (2012), ¿Enfermo en el trabajo? Mitos y realidades sobre la salud mental y el trabajo, publicación de la OCDE, París, http://dx.doi.org/10.1787/9789264124S23-en. Por ejemplo, los servicios de salud que trabajan con otros sectores, como los servicios de bienestar social, empleo, educación y vivienda. Desarrollar y medir resultados de calidad relevantes para servicios de atención de salud mental específicos dentro de esta complejidad es difícil. Existen interdependencias entre estos diferentes sectores en términos de su impacto en los resultados de salud mental y la calidad de la atención, lo que puede dificultar el establecimiento de responsabilidades cuando surgen deficiencias.</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>reforzar gestión diversidad esfuerzos deben dirigirse crear capacidad docente corto plazo país acoger recién llegados crear capacidad medio largo plazo garantizar inmigrantes alcancen pleno potencial conviertan participantes activos vida económica social comunidad local corto plazo principales objetivos debe ser formar reciclar mayor número posible profesores sepan cómo ayudar niños conocimientos lingüísticos mínimos padres instruidos llegan suecia después años escasos conocimientos previos debido mala calidad educación recibieron país origen falta oportunidades largo periodo tiempo proceso migración reto fundamental proporcionar apoyo lingüístico adecuado jóvenes llegan suecia después años escasos conocimientos previos lectura escritura</t>
+          <t>Reforzar la gestión de la diversidad. Los esfuerzos deben dirigirse tanto a crear capacidad docente a corto plazo en todo el país para acoger a los recién llegados como a crear capacidad a medio y largo plazo para garantizar que los inmigrantes alcancen su pleno potencial y se conviertan en participantes activos en la vida económica y social de su comunidad local. A corto plazo, uno de los principales objetivos debe ser formar y reciclar al mayor número posible de profesores para que sepan cómo ayudar a los niños con conocimientos lingüísticos mínimos, con padres poco instruidos y que llegan a Suecia después de los 12 años con escasos conocimientos previos (debido a la mala calidad de la educación que recibieron en su país de origen o a la falta de oportunidades durante un largo periodo de tiempo durante el proceso de migración). Un reto fundamental es proporcionar un apoyo lingüístico adecuado a los jóvenes que llegan a Suecia después de los 12 años, con escasos conocimientos previos de lectura y escritura.</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>sector sanitario reformas objetivo introducir competencia pesar importantes cambios efectos positivos reformas corren riesgo quedarse medio camino sistema centralizado oferta precios controlados sistema descentralizado basado competencia regulada proporciona incentivos suficientes prestación servicios calidad control gasto principales retos completar transición competencia regulada prestación asistencia sanitaria reforzar papel aseguradoras sanitarias agentes compra garantizar contención costes sector sanitario cada vez orientado demanda</t>
+          <t>En el sector sanitario, las reformas han tenido como objetivo introducir más competencia. A pesar de los importantes cambios y de algunos efectos positivos, las reformas corren el riesgo de quedarse a medio camino entre un sistema centralizado de oferta y precios controlados por el Estado y un sistema descentralizado basado en la competencia regulada, lo que no proporciona incentivos suficientes para la prestación de servicios de calidad y el control del gasto. Los principales retos son completar la transición a la competencia regulada en la prestación de asistencia sanitaria, reforzar el papel de las aseguradoras sanitarias como agentes de compra y garantizar la contención de los costes en un sector sanitario cada vez más orientado a la demanda.</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>epidemias sarampión poliomielitis limitada respuesta sistema salud empeorando situación indicadores salud incluso mejoraron década mortalidad infantil disminuyó nacidos vivos tasa mortalidad menores años redujo nacidos vivos sanciones internacionales impuestas década embargo consiguiente retroceso desarrollo económico afectó sistema salud resultados sanitarios esperanza vida nacer esperanza vida ajustada salud mejoraron jóvenes</t>
+          <t>Epidemias como el sarampión y la poliomielitis y la limitada respuesta del sistema de salud están empeorando la situación. Los indicadores de salud incluso mejoraron durante la década de 1980, la mortalidad infantil disminuyó de 80 por 1.000 nacidos vivos en 1979 a 40 en 1989, y la tasa de mortalidad de menores de 5 años se redujo de 120 a 60 por 1.000 nacidos vivos.21 Sanciones internacionales impuestas durante la década de 1980 y Sin embargo, el consiguiente retroceso del desarrollo económico afectó el sistema de salud y los resultados sanitarios. La esperanza de vida al nacer y la esperanza de vida ajustada por salud no mejoraron entre los jóvenes entre 1990 y 2010.</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>rezago educativo costo sistemas educativos región aun cuenta varios países cuentan sistemas promoción automática primeros grados años existe porcentaje importante niños encuentran dos años atrasados respecto grado deberían ver gráfico ii según unesco período porcentaje general repetidores grados educación primaria tasas deserción grados primero sexto respectivamente unesco b cerca millones niños asistían escuela tasas finalización educación primaria zonas urbanas solo zonas rurales</t>
+          <t>El rezago educativo tiene un costo para los sistemas educativos de la región. Aun teniendo en cuenta que varios países cuentan con sistemas de promoción automática para los primeros grados, entre los 9 y los 11 años ya existe un porcentaje importante de niños que se encuentran dos o más años atrasados ​​respecto al grado en el que deberían estar (ver gráfico II. 3. Según la UNESCO, en el período 2007-2008 el porcentaje general de repetidores para todos los grados de educación primaria fue de 3,8% y las tasas de deserción para los grados primero a sexto fueron 3,7%, 1,7%, 2,0%, 1,5% y 2,8 % respectivamente (UNESCO, 2010b). En 2006-2007, cerca de 3 millones de niños no asistían a la escuela. Las tasas de finalización de la educación primaria son del 96 % en las zonas urbanas, pero solo del 85 % en las zonas rurales.</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>calidad servicios salud mental debe incluir sólo calidad servicios especializados sino calidad servicios atención primaria calidad servicios prestados sectores ejemplo servicios vivienda empleo embargo menudo puede evitar elegir indicadores evaluación comparativa calidad reflejen fuente datos disponible lugar medidas óptimas calidad atención perpetuado dependencia indicadores orientados hospitalización lugar reflejar cambio patrones prestación atención crucial vez acordadas medidas óptimas calidad exista compromiso trabajar recopilar datos creación registros evaluación periódica personas smi atención primaria pueden ayudar reducir carga enfermedad física mejorar calidad atención holt et</t>
+          <t>La calidad de los servicios de salud mental debe incluir no sólo la calidad de los servicios especializados, sino también la calidad de los servicios de atención primaria y la calidad de los servicios prestados por otros sectores, por ejemplo los servicios de vivienda o empleo. Sin embargo, a menudo no se puede evitar elegir indicadores para la evaluación comparativa de la calidad que reflejen la fuente de datos disponible en lugar de medidas óptimas de la calidad de la atención, lo que ha perpetuado la dependencia de los indicadores orientados a la hospitalización, en lugar de reflejar el cambio en los patrones de prestación de la atención. Es crucial que, una vez acordadas las medidas óptimas de calidad, exista el compromiso de trabajar para recopilar estos datos. La creación de registros y la evaluación periódica de las personas con SMI en la atención primaria pueden ayudar a reducir la carga de la enfermedad física y mejorar la calidad de la atención (Holt et al.,</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>aplicación criterios claros concesión licencias debería respaldar práctica creación departamentos académicos atención primaria facultades medicina mexicanas llevar cabo investigaciones atención primaria desarrollar directrices clínicas específicas atención primaria enseñar especialidad apoyo desarrollo infraestructura información basa atención primaria fundamental pueda construir imagen rica eficacia seguridad atención centrada paciente atención primaria indicadores candidatos girarían torno prevención gestión enfermedades crónicas atención personas mayores salud infantil atención salud mental así experiencia pacientes vinculado méxico debería considerar introducción sistema permita pacientes registrarse formalmente especialista atención primaria designado ocurre institutos ss sistemas sanitarios ocde</t>
+          <t>La aplicación de criterios claros para la concesión de licencias debería respaldar esta práctica. La creación de departamentos académicos de atención primaria en las facultades de medicina mexicanas para llevar a cabo investigaciones en atención primaria, desarrollar directrices clínicas específicas para la atención primaria y enseñar la especialidad sería un apoyo. El desarrollo de la infraestructura de información en la que se basa la atención primaria también será fundamental, para que se pueda construir una imagen más rica de la eficacia, la seguridad y la atención centrada en el paciente de la atención primaria. Los indicadores candidatos girarían en torno a la prevención y la gestión de las enfermedades crónicas, la atención a las personas mayores, la salud infantil y la atención a la salud mental, así como la experiencia de los pacientes. Vinculado a esto, México debería considerar la introducción de un sistema que permita a todos los pacientes registrarse formalmente con un especialista de atención primaria designado, como ocurre en los institutos de la SS y en muchos otros sistemas sanitarios de la OCDE.</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>alumnos noruegos quinto grado población principal obtuvieron puntuación media superior finlandia dinamarca nuevamente puntajes noruegos significativamente bajos principalmente debido menor edad cambio población principal grado puntuación noruega ciencias ligeramente debajo puntuación sueca estudiantes noruegos noveno grado obtuvieron puntuación media matemáticas puntuación media ciencias estudiantes misma edad estudiantes suecos octavo grado muestra figuras países nórdicos excepto finlandia resultados variaciones bastante pequeñas alrededor promedio ocde período</t>
+          <t>Los alumnos noruegos de quinto grado, que fue la población principal en 2015, obtuvieron una puntuación media de 549, superior a la de Finlandia y Dinamarca. Nuevamente, los puntajes noruegos son significativamente más bajos, principalmente debido a su menor edad. Con el cambio de la población principal al grado 5, la puntuación noruega en ciencias fue de 538, ligeramente por debajo de la puntuación sueca de 540. En 2015, los estudiantes noruegos de noveno grado obtuvieron una puntuación media de 512 en matemáticas y una puntuación media de 509 en ciencias. Estos estudiantes tienen la misma edad que los estudiantes suecos de octavo grado. Como se muestra en las Figuras 5-7, todos los países nórdicos excepto Finlandia han tenido resultados con variaciones bastante pequeñas alrededor del promedio de la OCDE durante todo el período.</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>contrario espera población regiones desarrolladas aumente ligeramente millones millones naciones unidas departamento economía asuntos sociales división población rápido continuo aumento población países desarrollo pone relieve importancia contar políticas adecuadas diseñadas promover crecimiento económico sostenido transformación estructural economías fin garantizar reducción duradera pobreza aunque medida convencional pobreza basada ingresos per cápita sensible crecimiento población análisis cuidadoso proporciona ningún apoyo afirmación maltusiana pobreza puede atribuirse crecimiento población superior crecimiento producción especialmente alimentos</t>
+          <t>Por el contrario, se espera que la población de las regiones desarrolladas aumente ligeramente, de 1.230 millones a 1.280 millones (Naciones Unidas, Departamento de Economía y Asuntos Sociales, División de Población, 2009). El rápido y continuo aumento de la población de los países en desarrollo pone de relieve la importancia de contar con políticas adecuadas diseñadas para promover el crecimiento económico sostenido y la transformación estructural de sus economías, con el fin de garantizar una reducción duradera de la pobreza. Aunque la medida convencional de la pobreza basada en los ingresos (per cápita) es sensible al crecimiento de la población, un análisis cuidadoso no proporciona ningún apoyo a la afirmación maltusiana de que la pobreza puede atribuirse a un crecimiento de la población superior al crecimiento de la producción, especialmente de alimentos.</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>aspectos tales estructura gobierno gestión cantidad autonomía otorgada nivel escolar prescripciones rendición cuentas tamaño complejidad escuela niveles desempeño estudiantes pueden dar forma tipos patrones liderazgo escolar directores solo deben ser administradores sino líderes escuela organización aprendizaje interactúan maestros crear comunidad aprendizaje cohesiva productiva razones legitimidad autoridad razones eficiencia eficacia formación líderes escolares debe prepararse rapidez</t>
+          <t>Aspectos tales como la estructura de gobierno y gestión, la cantidad de autonomía otorgada a nivel escolar, las prescripciones de rendición de cuentas, el tamaño y la complejidad de la escuela y los niveles de desempeño de los estudiantes pueden dar forma a los tipos y patrones de liderazgo escolar. Por lo tanto, los directores no solo deben ser administradores sino también líderes de la escuela como una organización de aprendizaje. Interactúan con los maestros para crear una comunidad de aprendizaje cohesiva y productiva. Por lo tanto, por razones de legitimidad y autoridad, pero también por razones de eficiencia y eficacia, la formación de los líderes escolares debe prepararse con rapidez.</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>comentarios diseñados ser valiosos informes independientes preparados puedan convertirse primera fase revisión completa si así desea país estudio ocde habilidades allá escuela aborda variedad cuestiones política surgen incluida financiación gobernanza conciliación oferta demanda garantía calidad equidad acceso estudio basará éxito estudio anterior ocde educación formación profesional learning for jobs examinó política través revisiones países informe comparativo</t>
+          <t>Los comentarios están diseñados para ser valiosos como informes independientes, pero también están preparados para que puedan convertirse en la primera fase de una revisión completa, si así lo desea un país. El estudio de la OCDE, Habilidades más allá de la escuela, aborda la variedad de cuestiones de política que surgen, incluida la financiación y la gobernanza, la conciliación de la oferta y la demanda, la garantía de la calidad y la equidad y el acceso. El estudio se basará en el éxito del estudio anterior de la OCDE sobre educación y formación profesional Learning for Jobs, que examinó la política a través de 17 revisiones de países y un informe comparativo.</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>podría incluir revisión reglamentos responsabilidades directores subdirectores desarrollo conjunto relacionado estándares liderazgo escolar profesional dichos estándares proporcionarían declaración clara concisa elementos centrales liderazgo exitoso trazar mapa espera líderes escolares sepan puedan hacer cómo además uruguay necesita reevaluar niveles actuales remuneración directores subdirectores garantizar liderazgo escolar sostenible futuro docentes calificados interesados deseen asumir responsabilidades vean disuadidos dar paso</t>
+          <t>Esto podría incluir una revisión de los reglamentos de las responsabilidades de los directores y subdirectores y el desarrollo de un conjunto relacionado de estándares de liderazgo escolar profesional. Dichos estándares proporcionarían una declaración clara y concisa de los elementos centrales de un liderazgo exitoso al trazar un mapa de lo que se espera que los líderes escolares sepan, puedan hacer y cómo. Además, Uruguay necesita reevaluar los niveles actuales de remuneración de los directores y subdirectores para garantizar que el liderazgo escolar sea sostenible en el futuro y que los docentes calificados e interesados ​​que deseen asumir más responsabilidades no se vean disuadidos de dar este paso.</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>contrario apoyo correctivo migrantes establecidos cuyos requisitos competencias básicas excluyen programas educativos mercado laboral debe incorporarse infraestructura integración sistemáticamente disponible aquellos necesiten diciembre agencia nacional educación finlandesa publicó nueva directriz curricular alfabetizar inmigrantes adultos sistema educativo nueva formación forma parte reforma amplia transfiere responsabilidad alfabetización ministerio educación cultura</t>
+          <t>Por el contrario, el apoyo correctivo para los migrantes establecidos cuyos requisitos de competencias básicas los excluyen de los programas educativos y del mercado laboral debe incorporarse a la infraestructura de integración y estar sistemáticamente disponible para aquellos que lo necesiten. En diciembre de 2017, la Agencia Nacional de Educación finlandesa publicó una nueva directriz curricular para alfabetizar a los inmigrantes adultos en el sistema educativo. La nueva formación forma parte de una reforma más amplia que transfiere la responsabilidad de la alfabetización al Ministerio de Educación y Cultura.</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>países regiones aún camino alcanzar objetivos requieren intensificar esfuerzos reducir pobreza tasas mortalidad infantil materna mejorar acceso agua potable saneamiento nivel mundial meta pobreza ingresos meta meta agua potable segura meta c camino cumplirse mientras logrado progreso constante insuficiente metas incluida educación primaria universal meta reducir mortalidad infantil meta combatir malaria enfermedades mundiales meta c además estancamiento retroceso metas proporción personas padecen hambre meta l</t>
+          <t>Algunos países y regiones aún no están en camino de alcanzar los Objetivos y requieren intensificar los esfuerzos para reducir la pobreza y las tasas de mortalidad infantil y materna y mejorar el acceso al agua potable y el saneamiento. A nivel mundial, la meta de pobreza de ingresos de 2015 (Meta 1 .A) y la meta de agua potable segura (Meta 7.C) están en camino de cumplirse, mientras que se ha logrado un progreso constante pero insuficiente para otras metas, incluida la educación primaria universal. (Meta 2.A), reducir la mortalidad infantil (Meta 4.A) y combatir la malaria y otras enfermedades mundiales (Meta 6.C). Además, ha habido estancamiento o retroceso para algunas metas: la proporción de personas que padecen hambre (Meta l.</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>siguientes cuatro secciones describen características clave evaluación estudiantes prácticas países estructuradas torno temas principales revisión ocde marcos evaluación evaluación mejorar resultados escolares gobernanza procedimientos capacidad uso resultados sección final proporciona sugerencias desarrollo políticas abarca propósitos sumativos formativos puede diseñarse implementarse internamente dentro escuela externamente través evaluaciones estandarizadas</t>
+          <t>Las siguientes cuatro secciones describen las características clave de la evaluación de los estudiantes y las prácticas de los países, estructuradas en torno a los temas principales de la Revisión de la OCDE sobre marcos de evaluación y evaluación para mejorar los resultados escolares: gobernanza, procedimientos, capacidad y uso de los resultados. La sección final proporciona sugerencias para el desarrollo de políticas. Abarca propósitos sumativos y formativos, y puede diseñarse e implementarse internamente dentro de la escuela o externamente a través de evaluaciones estandarizadas.</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>desafío mediano plazo sistema salud aumentar recursos disponibles mejorar significativamente resultados salud dado existen mecanismos relativamente débiles regular calidad evitar atención innecesaria vital importancia mejorar aún eficiencia probable personas sanas disfruten vidas largas productivas inviertan capital humano impulsará perspectivas crecimiento economía</t>
+          <t>El desafío a mediano plazo para el sistema de salud es aumentar los recursos disponibles para mejorar significativamente los resultados de salud. Dado que existen mecanismos relativamente débiles para regular la calidad y evitar la atención innecesaria, también es de vital importancia mejorar aún más la eficiencia. Es probable que las personas sanas disfruten de vidas más largas y productivas e inviertan en su capital humano, lo que impulsará las perspectivas de crecimiento de una economía.</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>hoioeuer tasas finalización enseñanza secundaria inferior superior siguen siendo insatisfactorias mientras tasas repetición altas comparación internacional niveles rendimiento alumnos disminuido últimos años siguen encima media regional último estatus socioeconómico estudiantes escuelas fuerte impacto rendimiento estudiantes incluye descripción detallada sistema escolar uruguayo incluida gobernanza</t>
+          <t>Hoioeuer, las tasas de finalización de la enseñanza secundaria inferior y superior siguen siendo insatisfactorias, mientras que las tasas de repetición son muy altas en comparación internacional. Los niveles de rendimiento de los alumnos han disminuido en los últimos años, pero siguen estando por encima de la media regional. Por último, el estatus socioeconómico de los estudiantes y de las escuelas tiene un fuerte impacto en el rendimiento de los estudiantes. También incluye una descripción detallada del sistema escolar uruguayo, incluida su gobernanza.</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>tiempo chile podría aumentar bono niños manteniéndolo progresivo aumentar gasto público educación evidencia empírica países sugiere gran proporción escuelas privadas impacto positivo resultados pisa solo si proporción financiamiento público sigue siendo alta wolsmann contrario sistemas escolares alta proporción financiamiento privado logran resultados débiles presumiblemente hacen suficiente ayudar niños menor capacidad ponerse día gobierno supervisa solo aquellas escuelas ingresan sistema sep aceptan subsidio adicional creado desincentivo participar</t>
+          <t>Con el tiempo, Chile podría aumentar el bono para todos los niños, manteniéndolo progresivo, para aumentar el gasto público en educación. La evidencia empírica entre países sugiere que una gran proporción de escuelas privadas tiene un impacto positivo en los resultados de PISA, pero solo si la proporción de financiamiento público sigue siendo alta (WolSmann, 2005). Por el contrario, los sistemas escolares con una alta proporción de financiamiento privado logran resultados más débiles que otros, presumiblemente porque no hacen lo suficiente para ayudar a los niños con menor capacidad a ponerse al día. El gobierno supervisa solo aquellas escuelas que ingresan al sistema SEP y aceptan el subsidio adicional, lo que ha creado un desincentivo para participar.</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>indicadores pobreza monetaria pobreza multidimensional importantes pobreza puede medirse términos absolutos línea corte ingresos debajo individuos pueden permitirse conjunto bienes básicos predefinidos términos relativos línea pobreza relativa definida porcentaje normalmente ingresos medios además sen sostiene enfoque correcto evaluar nivel vida centrarse productos básicos utilidad sino capacidades funcionamientos</t>
+          <t>Los indicadores de pobreza monetaria y pobreza multidimensional son los más importantes. La pobreza puede medirse en términos absolutos - una línea de corte de ingresos por debajo de la cual los individuos no pueden permitirse un conjunto de bienes básicos predefinidos - o en términos relativos - con la línea de pobreza relativa definida como un porcentaje (normalmente el 50 o el 60%) de los ingresos medios. Además, Sen (1983) sostiene que el enfoque correcto para evaluar el nivel de vida es centrarse no en los productos básicos o la utilidad, sino en las capacidades o funcionamientos.</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>esencial mejorar calidad disponibilidad instalaciones parto aumentar número parteras profesionales salud conocimientos obstétricos además movilización comunidad vital garantizar todas mujeres embarazadas utilicen servicios parto calificados estrategia dual dirigida lograr cobertura universal atención calificada parto contexto enfoque atención primaria salud</t>
+          <t>Es esencial mejorar la calidad y disponibilidad de las instalaciones para el parto y aumentar el número de parteras y profesionales de la salud con conocimientos obstétricos. Además de esto, la movilización de la comunidad es vital para garantizar que todas las mujeres embarazadas utilicen servicios de parto calificados. Esta estrategia dual está dirigida a lograr la cobertura universal de atención calificada del parto, en el contexto del enfoque de atención primaria de salud.</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>subsidios vivienda gobiernos regionales representaron mayor parte gasto acceso servicios básicos proyecciones gasto protección social capítulo estudio incluyen escenarios ayuda humanitaria incluye gasto total protección social así escenario excluye gasto gobierno federal aumentó tasa rápida cuatro fuentes crecimiento promedio anual</t>
+          <t>Los subsidios a la vivienda de los gobiernos regionales representaron la mayor parte del gasto en acceso a los servicios básicos. Las proyecciones del gasto en protección social del Capítulo 3 de este estudio incluyen escenarios en los que la ayuda humanitaria se incluye en el gasto total en protección social, así como un escenario en el que se excluye. El gasto del gobierno federal aumentó a la tasa más rápida entre estas cuatro fuentes entre 2012/13 y 2015/16, con un crecimiento promedio anual del 24 %.</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>aulas escuelas problemas disciplinarios menos propicias aprendizaje maestros dedicar tiempo crear ambiente ordenado pueda comenzar instrucción interrupciones dentro aula interrumpen participación estudiantes capacidad seguir lecciones clima disciplinario indica pisa frecuencia estudiantes escuchan profesor lecciones idioma instrucción ruido desorden profesor esperar tiempo estudiantes tranquilicen estudiantes pueden trabajar bien estudiantes comienzan trabajar tiempo después comienza lección</t>
+          <t>Las aulas y las escuelas con más problemas disciplinarios son menos propicias para el aprendizaje, ya que los maestros tienen que dedicar más tiempo a crear un ambiente ordenado antes de que pueda comenzar la instrucción. Más interrupciones dentro del aula interrumpen la participación de los estudiantes y su capacidad para seguir las lecciones. El clima disciplinario se indica en PISA por la frecuencia con la que los estudiantes no escuchan al profesor durante las lecciones sobre el idioma de instrucción, hay ruido y desorden, el profesor tiene que esperar mucho tiempo para que los estudiantes se tranquilicen, los estudiantes no pueden trabajar bien, y los estudiantes no comienzan a trabajar durante mucho tiempo después de que comienza la lección.</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>tarifas costo total cobran instituciones educación superior privadas programas similares oscilarían usd usd según componentes internacionallocal analistas educación superior expresado preocupación respecto monto subsidios gubernamentales medida sostenibles dado costos educación superior seguirán aumentando mundo r m acceso equidad educación superior malasia</t>
+          <t>Las tarifas de costo total que cobran las instituciones de educación superior privadas para programas similares oscilarían entre USD 9 434,0 y USD 26 415,1, según sus componentes internacional-local. Los analistas de la educación superior han expresado su preocupación con respecto al monto de los subsidios gubernamentales y la medida en que son sostenibles, dado que los costos de la educación superior seguirán aumentando en todo el mundo. R. M. (2010), Acceso y equidad en la educación superior, Malasia.</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>si bien mayoría personas trastornos mentales comunes empleo tasa empleo personas trastorno mental común cmd puntos porcentuales baja población tmc ocde encontrado depresión altamente correlacionada pobreza brown figura gran cantidad publicaciones subrayan pérdidas financieras resultado reducción producción relacionada trastornos mentales incluido capítulo publicación centro salud mental ocde</t>
+          <t>Si bien la mayoría de las personas con trastornos mentales comunes tienen un empleo, la tasa de empleo de las personas con un trastorno mental común (CMD) es de 10 a 15 puntos porcentuales más baja que la población sin un TMC (OCDE, 2012). Se ha encontrado que la depresión está altamente correlacionada con la pobreza (Brown, 2012) (Figura 2.1). Una gran cantidad de publicaciones subrayan las pérdidas financieras como resultado de la reducción de la producción relacionada con los trastornos mentales, incluido el Capítulo 1 de esta publicación (Centro de Salud Mental, 2010, OCDE, 2012).</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>coincidió revisión comunidad autónoma andalucía siguió revisiones canarias comunidad valenciana lugar primera vuelta informe revisión andalucía educación superior desarrollo regional urbano andalucía españa ocde fuerte enfoque cómo mejorar relevancia oferta educativa resultados laborales empresariales graduados universitarios recomendaciones ejemplos buenas prácticas informe andaluz relevantes universidades cataluña lectores interesados deben consultar informe ocde quisiera agradecer particular coordinadores principales contrapartes locales activas revisión</t>
+          <t>Coincidió con la revisión de la Comunidad Autónoma de Andalucía y siguió a las revisiones de Canarias y la Comunidad Valenciana que tuvieron lugar durante la primera vuelta 2005-07. El informe de revisión de Andalucía: Educación superior en el desarrollo regional y urbano: Andalucía, España (OCDE, 2010) tiene un fuerte enfoque en cómo mejorar la relevancia de la oferta educativa y los resultados laborales y empresariales de los graduados universitarios. Las recomendaciones y ejemplos de buenas prácticas del informe andaluz también son relevantes para las universidades de Cataluña, y los lectores interesados ​​en ellos deben consultar este informe. La OCDE quisiera agradecer en particular a los coordinadores principales y otras contrapartes locales activas por esta revisión.</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>perfil basa conocimientos experiencia equipos proyecto dirección educación competencias ocde agradecidos largo texto incluyen hipervínculos publicaciones referencia facilitar lectura as sección referencias lecturas complementarias enumeran fuentes ocde ajenas república checa avanzado reducción impacto antecedentes socioeconómicos rendimiento académico estudiantes alcanzando alto nivel matriculación educación atención primera infancia logrando tasas superiores media segundo ciclo secundaria especialmente formación profesional</t>
+          <t>Este perfil se basa en los conocimientos y la experiencia de muchos equipos de proyecto de la Dirección de Educación y Competencias de la OCDE, a quienes estamos muy agradecidos. A lo largo del texto se incluyen hipervínculos a las publicaciones de referencia para facilitar la lectura, asà como en la sección Referencias y lecturas complementarias, en la que se enumeran fuentes tanto de la OCDE como ajenas a ella. La República Checa ha avanzado en la reducción del impacto de los antecedentes socioeconómicos en el rendimiento académico de los estudiantes, alcanzando un alto nivel de matriculación en la educación y atención a la primera infancia, y logrando tasas superiores a la media en el segundo ciclo de secundaria, especialmente en la formación profesional.</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>debe brindar apoyo centros aprendizaje extensión basan variedad proveedores incluidos varios colegios posiblemente universidad abierta universidades pueblos bajas tasas participación educación terciaria desarrollar red proveedores educación debe tener cuidado garantizar población continúe acceso servicios adecuados aprendizaje largo toda vida debe establecer infraestructura adecuada garantizar conectividad alta velocidad bajo costo</t>
+          <t>Se debe brindar apoyo a los centros de aprendizaje de extensión que se basan en una variedad de proveedores, incluidos varios colegios, posiblemente la Universidad Abierta y otras universidades, en pueblos con bajas tasas de participación en la educación terciaria. Al desarrollar la red de proveedores de educación, se debe tener cuidado para garantizar que la población continúe teniendo acceso a servicios adecuados de aprendizaje a lo largo de toda la vida. Se debe establecer una infraestructura de TI adecuada para garantizar una conectividad de alta velocidad y bajo costo.</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>vejez refleja niveles cobertura seguro salud acceso atención médica tasas cobertura aumentan proporción edad mayores años años brasil personas mayores cubiertas sistema público paraguay calcula personas mayores ningún tipo seguro médico caso enfermedad deben pagar factura recibir tratamiento oiss</t>
+          <t>Durante la vejez, esto se refleja en los niveles de cobertura de seguro de salud y acceso a la atención médica. Las tasas de cobertura aumentan en proporción con la edad (88,1% para los mayores de 80 años y 63,1% para los de 60 a 64 años). En Brasil, el 70% de las personas mayores están cubiertas por el sistema público. En Paraguay, se calcula que más del 83% de las personas mayores no tienen ningún tipo de seguro médico y, en caso de enfermedad, deben pagar la factura o no recibir tratamiento (OISS, 2007).</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>solo suecia competencia lectora puede observar cambio importante resultados podría relacionado cantidad tiempo estudiantes pasan internet aunque posible mostrar claramente si cambio modo prueba pisa influido resultados autores advierten razones tener cuidado comparan resultados pisa resultados estudios pisa anteriores vínculo comparativo estudios pisa diferentes años podría ser débil</t>
+          <t>Solo en Suecia, en competencia lectora, se puede observar un cambio importante en los resultados, que podría estar relacionado con la cantidad de tiempo que los estudiantes pasan en Internet. Aunque no es posible mostrar claramente si el cambio de modo de prueba en PISA 2015 ha influido en los resultados, los autores advierten que hay razones para tener cuidado cuando se comparan los resultados de PISA de 2015 con resultados de estudios PISA anteriores. El vínculo comparativo entre los estudios PISA de diferentes años podría ser más débil en 2015 que antes.</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>hecho mortalidad días iam registró descensos pronunciados ue situó bajísimo nivel pacientes cifra inferior alemania austria reino unido figura embargo mortalidad días accidente cerebrovascular promedio comparación países podría mejorarse aún particularmente dado países vecinos alemania austria logran tasas notablemente bajas</t>
+          <t>De hecho, la mortalidad a los 30 días por IAM registró uno de los descensos más pronunciados de la UE y se situó en el bajísimo nivel de 6,9 ​​por 100 pacientes en 2015. Esta cifra es inferior a la de Alemania (7,7), Austria (7,4) y el Reino Unido. (7.2) (Figura 10). Sin embargo, la mortalidad a los 30 días por accidente cerebrovascular es promedio en comparación con otros países y podría mejorarse aún más, particularmente dado que los países vecinos, Alemania y Austria, logran tasas notablemente más bajas.</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>anteriormente denominado instituto salud pública estructura organizativa estrategia ampliaron formar centro nacional salud pública consonancia estructura ampliada centro nacional salud pública tiempo mantiene papel liderazgo investigación salud pública responsable amplia gama actividades ejecución programas salud pública promoción salud nivel nacional trabajo centro centra siguientes sectores medio ambiente salud investigación laboral estudios toxicidad venenos investigación nutrición promoción salud investigación comportamiento médicos familia soum envían valores indicadores departamento salud aimag remite información centro desarrollo sanitario primer día cada mes</t>
+          <t xml:space="preserve">Anteriormente denominado Instituto de Salud Pública, su estructura organizativa y su estrategia se ampliaron para formar el Centro Nacional de Salud Pública en 2013. En consonancia con la estructura ampliada, el Centro Nacional de Salud Pública, al tiempo que mantiene su papel de liderazgo en la investigación en salud pública, es responsable de una amplia gama de actividades de ejecución de programas de salud pública y promoción de la salud a nivel nacional. El trabajo del Centro se centra, entre otros, en los siguientes sectores: medio ambiente, salud e investigación laboral, estudios de toxicidad de venenos, investigación sobre nutrición y promoción de la salud e investigación sobre el comportamiento. Los médicos de familia de los soum envían los valores de los indicadores al departamento de salud del aimag, que remite la información al Centro de Desarrollo Sanitario el primer día de cada mes. </t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>qual safhealth care encuesta centró mejores formas mejorar seguridad paciente entornos atención médica dada escasez evidencia atención primaria ambulatoria encuesta informa informe preguntó ocurrencia gravedad impacto fallas seguridad así mejores formas mejorar seguridad entorno</t>
+          <t>Qual SafHealth Care 2007,16:127-131. La encuesta de 2017 se centró en las mejores formas de mejorar la seguridad del paciente en todos los entornos de atención médica. Dada la escasez de evidencia sobre la atención primaria y ambulatoria, la encuesta que informa este informe también preguntó sobre la ocurrencia, la gravedad y el impacto de las fallas de seguridad, así como las mejores formas de mejorar la seguridad en este entorno.</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>facturas salariales excesivas representan amenaza tejido social general encuesta señaló aumento salarios sector público hizo mayor contribución desigualdad particular salarios trabajadores calificados organismos públicos gobierno central ccss ocde señaló sección ejemplo tasas obesidad altas costa rica mayoría países ocde mayoría sistemas salud ocde autoridad presupuestaria central p ej ministerio finanzas establece límites máximos gasto sector salud anualmente ciclos plurianuales</t>
+          <t>Las facturas salariales excesivas representan una amenaza para el tejido social en general. La Encuesta también señaló que "el aumento de los salarios del sector público hizo la mayor contribución a la desigualdad entre 2010 y 2014, en particular los salarios de los trabajadores calificados en organismos públicos fuera del gobierno central", como la CCSS (OCDE, 2016a). Como se señaló en la Sección 1, por ejemplo, las tasas de obesidad son más altas en Costa Rica que en la mayoría de los países de la OCDE. En la mayoría de los sistemas de salud de la OCDE, la autoridad presupuestaria central (p. ej., el Ministerio de Finanzas) establece límites máximos de gasto para el sector de la salud, anualmente o en ciclos plurianuales.</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>autoridades mexicanas establecieron plan reforma servicio salud implementaron varios cambios destinados ampliar acceso población asegurada servicios salud incluidos programas especiales extender cobertura básica salud programa extensión cobertura pac aquellos mayor capacidad recursos tlaxcala nuevo león guerrero jalisco baja california sur morelos tabasco</t>
+          <t>Las autoridades mexicanas también establecieron un Plan de Reforma del Servicio de Salud 1995-2000. Se implementaron varios cambios destinados a ampliar el acceso de la población no asegurada a los servicios de salud, incluidos programas especiales para extender la cobertura básica de salud, como el Programa de Extensión de Cobertura (PAC). Aquellos estados con mayor capacidad y recursos (Tlaxcala, Nuevo León, Guerrero, Jalisco, Baja California Sur, Morelos, Tabasco.</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>chalmers school of entrepreneurship cse wwwentrepreneurchalmersse vez plataforma educativa pueden adquirir habilidades empresariales preincubadora desarrollar ideas comerciales etapas iniciales iniciar empresa mayoría estudiantes iniciar empresa legal año proyecto núcleo red reúne personas universidades empresas innovadoras interesadas desarrollar comercializar ideas alta tecnología etapas tempranas alto potencial mercado hoy día cse practica proceso encubación decir ofrece educación nivel maestría combinada incubación empresas través organización incubadora encubator opera simbiosis educación propiedad chalmersinvest participar proveedor ideas investigadores universitarios inventores oportunidad probar invento proyecto innovación año cse</t>
+          <t>Chalmers School of Entrepreneurship (CSE), www.entrepreneur.chalmers.se, es a la vez una plataforma educativa, donde se pueden adquirir habilidades empresariales y una preincubadora para desarrollar ideas comerciales en etapas iniciales y para iniciar una empresa (la mayoría de los estudiantes iniciar una empresa legal durante el año del proyecto). El núcleo de esto es una red que reúne a personas, universidades y empresas innovadoras interesadas en desarrollar y comercializar ideas de alta tecnología en etapas tempranas con alto potencial de mercado. Hoy en día, CSE practica un proceso de "Encubación", es decir, ofrece una educación de nivel de Maestría combinada con la incubación de empresas a través de una organización incubadora, Encubator, que opera en simbiosis con la educación pero es propiedad de Chalmersinvest. Al participar como proveedor de ideas, los investigadores universitarios y otros inventores tienen la oportunidad de probar su invento en un proyecto de innovación de un año en CSE.</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>conjuntos datos incluidos estudio cubren principales servicios atención médica brindan pacientes servicios hospitalarios pacientes hospitalizados servicios salud comunitarios incluyen atención primaria salud atención médica emergencia atención formal largo plazo hogares ancianos servicios atención domiciliaria uso medicamentos recetados parte clave servicios atención salud ofrecen pacientes entregan hospital entornos atención comunidad uso hogar ambos productos tremendamente útiles altamente riesgosos comprender beneficios riesgos esencial mantener pacientes sanos seguros datos componente clave vías resultados atención médica</t>
+          <t>Los conjuntos de datos incluidos en este estudio cubren los principales servicios de atención médica que se brindan a los pacientes: servicios hospitalarios para pacientes hospitalizados, servicios de salud comunitarios que incluyen atención primaria de salud, atención médica de emergencia y atención formal a largo plazo (como hogares de ancianos y servicios de atención domiciliaria). El uso de medicamentos recetados es una parte clave de los servicios de atención de la salud que se ofrecen a los pacientes que se entregan en el hospital, en otros entornos de atención y en la comunidad para su uso en el hogar. Ambos son productos tremendamente útiles y altamente riesgosos, y comprender los beneficios y riesgos es esencial para mantener a los pacientes sanos y seguros. Por lo tanto, estos datos son un componente clave de las vías y los resultados de la atención médica.</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>importante canal intercambio conocimientos sistema prácticas emplean varias universidades galilea véase recuadro prácticas constituyen punto entrada población activa estudiantes siguen trabajando socio industrial después prácticas prácticas lugar escuela negocios universidad ejemplo colegio galilea occidental institución académica nazaret pretende combinar educación práctica teórica estudiantes participan proyecto trabajo industrias regionales partir final segundo año horas</t>
+          <t>Un importante canal de intercambio de conocimientos es el sistema de prácticas que emplean varias universidades de Galilea (véase el recuadro 2.5.). Estas prácticas constituyen un punto de entrada en la población activa, ya que algunos estudiantes siguen trabajando para el socio industrial después de las prácticas. Las prácticas también tienen lugar en la escuela de negocios de la universidad, por ejemplo en el Colegio de Galilea Occidental y la Institución Académica Nazaret también pretende combinar la educación práctica y teórica. Los estudiantes participan en el proyecto de trabajo en industrias regionales (a partir del final de su segundo año) durante 500-1 000 horas.</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ejemplos ilustran cómo participación inclusión niños desarrollo actividades transición educación pueden avanzar aún colocar realmente necesidades niños centro debate pesar importantes esfuerzos jurisdicciones proporcionar información padres través publicaciones especiales folletos reuniones padres necesita trabajo creencia transiciones sencillas orgánicas dificulta participación padres actividades transición</t>
+          <t>Estos ejemplos ilustran cómo la participación y la inclusión de los niños en el desarrollo de actividades de transición y educación pueden avanzar aún más para colocar realmente las necesidades de los niños en el centro del debate. A pesar de los importantes esfuerzos de las jurisdicciones para proporcionar información a los padres a través de publicaciones especiales, folletos y reuniones de padres, se necesita más trabajo. La creencia de que las transiciones son sencillas y orgánicas dificulta la participación de los padres en las actividades de transición.</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>menudo suposición subyace políticas estratificación talentos estudiantes desarrollarán mejor estudiantes refuercen interés demás aprender creen entorno propicio enseñanza eficaz estratificación vertical refiere formas estudiantes progresan escuela medida crecen si bien población estudiantil diferenciada grados prácticamente todas escuelas participan pisa países estudiantes años asisten mismo grado mientras sistemas dispersos varios grados resultado políticas rigen edad ingreso sistema escolar repetición grado</t>
+          <t>A menudo, la suposición que subyace a estas políticas de estratificación es que los talentos de los estudiantes se desarrollarán mejor cuando los estudiantes refuercen el interés de los demás por aprender y creen un entorno que sea más propicio para una enseñanza eficaz. La estratificación vertical se refiere a las formas en que los estudiantes progresan en la escuela a medida que crecen. Si bien la población estudiantil está diferenciada por grados en prácticamente todas las escuelas que participan en PISA, en algunos países todos los estudiantes de 15 años asisten al mismo grado, mientras que en otros sistemas están dispersos en varios grados como resultado de políticas que rigen la edad de ingreso al sistema escolar y/o la repetición de grado.</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>informe sugiere obstáculos implantar compromisos calidad lograr mejor integración figuran insuficiencia incentivos financieros garantizar proveedores adhieran plenamente directrices clínicas falta equipos multidisciplinares cultura tratamiento encima prevención gestión general deficiente pacientes atención primaria planes actuales centros salud redes hospitalarias pretenden crear equipos multidisciplinares redefinir funciones médicos familia frente especialistas mejorar formación existen mecanismos contratación pueden ayudar mejorar incentivos responsabilidad prestación servicios preventivos resultados</t>
+          <t>El informe sugiere que entre los obstáculos para implantar compromisos de calidad y lograr una mejor integración figuran la insuficiencia de incentivos financieros para garantizar que los proveedores se adhieran plenamente a las directrices clínicas, la falta de equipos multidisciplinares, una cultura de tratamiento por encima de la prevención y una gestión general deficiente de los pacientes en atención primaria. Los planes actuales para los centros de salud y las redes hospitalarias pretenden crear equipos multidisciplinares, redefinir las funciones de los médicos de familia frente a los especialistas y mejorar la formación. También existen mecanismos de contratación que pueden ayudar a mejorar los incentivos y la responsabilidad por la prestación de servicios preventivos y los resultados.</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ventajas alumnos trabajar distintas estrategias didácticas importante identificar puntos fuertes débiles mejorar labor docente información utiliza evaluar prácticas docentes labor pedagógica encontramos alumnos cuesta participar clase</t>
+          <t>¿Qué ventajas tiene para los alumnos trabajar con distintas estrategias didácticas? Es importante identificar nuestros puntos fuertes y débiles para mejorar nuestra labor docente. ¿Qué información utiliza para evaluar sus prácticas docentes? En nuestra labor pedagógica nos encontramos con alumnos a los que les cuesta participar en clase.</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>embargo riesgo pobreza menor padre madre educación terciaria ejemplo alrededor niños pobres padre nivel educativo superior mientras niños cuyo padre diploma escuela secundaria inferior pobres cuadro si bien tasas pobreza disminuido canadá inmigrantes enfrentan tasas pobreza altas contrapartes nacidos canadá tasas bajos ingresos inmigrantes recientes veces altas población nacida canadá picot hou abordaje pobreza infantil indígena realiza través programas entregados nivel nacional provincial así través iniciativas específicas incluyen programas cuidado infantil programas desarrollo fuerza laboral transferencias sociales comunidades indígenas</t>
+          <t>Sin embargo, el riesgo de pobreza es mucho menor cuando el padre o la madre tiene educación terciaria. Por ejemplo, alrededor del 8% de los niños son pobres cuando el padre tiene un nivel educativo superior, mientras que más del 20% de los niños cuyo padre tiene un diploma de escuela secundaria inferior son pobres (Cuadro 1). Si bien las tasas de pobreza han disminuido en Canadá, los inmigrantes enfrentan tasas de pobreza más altas que sus contrapartes nacidos en Canadá, y las tasas de bajos ingresos entre los inmigrantes recientes en 2010 fueron 2,6 veces más altas que las de la población nacida en Canadá (Picot y Hou, 2014(6, ) El abordaje de la pobreza infantil indígena se realiza a través de programas entregados a nivel nacional y provincial, así como a través de iniciativas específicas que incluyen programas de cuidado infantil, programas de desarrollo de la fuerza laboral y transferencias sociales a las comunidades indígenas.</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1338,7 +1338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ejemplo integración servicios países bajos contribuyó reducir muertes abuso sustancias experiencia países bajos aporta ideas enfoques tratamiento consumo heroína incluido uso opiáceos tratamiento metadona recuadro áreas interés adicción nicotina alcohol drogas sedantes tranquilizantes</t>
+          <t xml:space="preserve">Por ejemplo, la integración de servicios en los Países Bajos contribuyó a reducir las muertes por abuso de sustancias. La experiencia de los Países Bajos también aporta algunas ideas sobre los enfoques de tratamiento del consumo de heroína, incluido el uso de opiáceos y el tratamiento con metadona (recuadro 4.4). Las áreas de interés son la adicción a la nicotina, el alcohol, las drogas y los sedantes y tranquilizantes. </t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>financiación basada fórmulas combina equidad horizontal escuelas mismo tipo ejemplo primarias financian mismo nivel equidad vertical escuelas distintos tipos ejemplo académicas generales formación profesional financian función diferentes necesidades puede incentivar mejor uso recursos escuelas incentivos reducir gastos aumentar eficiencia</t>
+          <t>La financiación basada en fórmulas combina la equidad horizontal -las escuelas del mismo tipo (por ejemplo, primarias) se financian al mismo nivel- y la equidad vertical -las escuelas de distintos tipos (por ejemplo, académicas generales y de formación profesional) se financian en función de sus diferentes necesidades-. También puede incentivar un mejor uso de los recursos. Las escuelas no tienen incentivos para reducir sus gastos o aumentar su eficiencia.</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1358,7 +1358,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>embargo gracias impresionante crecimiento varios países emergentes región incidencia pobreza reducido mitad dejando menos ciento población pobreza extrema población mundial general vive pobreza extrema disminuido aproximadamente mil millones personas asia pacífico liderado éxito mundial reducción pobreza últimas dos décadas palabras población vive pobreza extrema región redujo alrededor millones millones pesar crecimiento demográfico general aproximadamente millones mismo período</t>
+          <t>Sin embargo, gracias al impresionante crecimiento de varios países emergentes de la región, la incidencia de la pobreza se ha reducido a más de la mitad, dejando a menos del 20 por ciento de la población en la pobreza extrema en 2011. La población mundial en general vive en la pobreza extrema ha disminuido en aproximadamente mil millones de personas entre 1990 y 2011. Asia y el Pacífico ha liderado el éxito mundial en la reducción de la pobreza en las últimas dos décadas. En otras palabras, la población que vive en la pobreza extrema en la región se redujo de alrededor de 1600 millones en 1990 a 700 millones en 2011, a pesar de un crecimiento demográfico general de aproximadamente 900 millones en el mismo período.</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>pesar progreso última década méxico tasas pobreza infantil altas área ocde segunda alta después israel cada niños mexicanos creció hogares vivían pobreza relativa definida convencionalmente porcentaje población gana menos mitad ingreso medio dado niños representan casi mitad pobres mexicanos prolongar marginación particularmente dañino aumenta riesgo daño permanente además costos sociales directos causados pérdida autoestima motivación alto nivel pobreza infantil refleja indicadores nivel vida mortalidad infantil tres veces mayor promedio ocde mortalidad materna cinco veces mayor nacimientos adolescentes casi cuatro veces mayor</t>
+          <t>A pesar del progreso en la última década, México tiene una de las tasas de pobreza infantil más altas en el área de la OCDE, la segunda más alta después de Israel. En 2008, más de 1 de cada 4 niños mexicanos (25.8%) creció en hogares que vivían en pobreza relativa, definida convencionalmente como el porcentaje de la población que gana menos de la mitad del ingreso medio. Dado que los niños representan casi la mitad de todos los pobres mexicanos, prolongar su marginación es particularmente dañino ya que aumenta el riesgo de un daño permanente, además de los costos sociales directos causados ​​por la pérdida de autoestima y motivación. El alto nivel de pobreza infantil también se refleja en otros indicadores del nivel de vida, como la mortalidad infantil (tres veces mayor que el promedio de la OCDE), la mortalidad materna (cinco veces mayor) y los nacimientos de adolescentes (casi cuatro veces mayor).</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1378,7 +1378,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>embargo kimball et elección instrumentos fuentes información depende tipo aspectos criterios evaluación centre esquema evaluación ejemplo rasgos cumplimiento competencias resultados mientras mayoría países evaluación basa interacción evaluadores líderes escolares ejemplo mediante entrevistas reuniones visitas escolares países complementan información recopilada manera datos orientados resultados portafolios liderazgo encuestas partes interesadas información rendimiento estudiantes dependiendo marco político evaluación asignación general responsabilidades evaluadores propios directores escolares mayor menor autonomía hora determinar herramientas recopilar información</t>
+          <t xml:space="preserve">Sin embargo, Kimball et al. ( La elección de instrumentos y fuentes de información también depende del tipo de aspectos y criterios de evaluación en los que se centre un esquema de evaluación (por ejemplo, rasgos, cumplimiento, competencias y resultados). Mientras que en la mayoría de los países la evaluación se basa en la interacción entre los evaluadores y los líderes escolares, por ejemplo, mediante entrevistas, reuniones y visitas escolares, algunos países complementan la información recopilada de esta manera con otros datos más orientados a los resultados, como portafolios de liderazgo, encuestas a las partes interesadas e información sobre el rendimiento de los estudiantes. Dependiendo del marco político para la evaluación y de la asignación general de responsabilidades, los evaluadores y los propios directores escolares tienen mayor o menor autonomía a la hora de determinar las herramientas para recopilar información. </t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1388,7 +1388,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>si deciden cobrar derecho paquete social cubre servicios salud transporte lugar tratamiento médico reciben rub usd adicionales tasas pago varían según categoría beneficiario ver continuación veteranos discapacitados segunda guerra mundial pueden recibir rub mes usd si cobraron paquete social mientras sobrevivientes veteranos discapacitados segunda guerra mundial recibirían menos tabla términos nominales pagos duplicaron creces junto aumento sustancial pagos pensiones capítulo contribuyó erradicación pobreza pensionados menos última mide términos absolutos frente nivel mínimo subsistencia prevaleciente</t>
+          <t>Si deciden cobrar su derecho al paquete social (que cubre los servicios de salud y el transporte al lugar del tratamiento médico), reciben RUB 450 (USD 40) adicionales. Las tasas de pago varían según la categoría de beneficiario (ver a continuación): los veteranos discapacitados de la Segunda Guerra Mundial pueden recibir hasta RUB 2 000 por mes (USD 80) si cobraron su paquete social, mientras que los sobrevivientes de los veteranos discapacitados de la Segunda Guerra Mundial recibirían mucho menos (Tabla 3.4). En términos nominales, los pagos se duplicaron con creces y, junto con el aumento sustancial de los pagos de pensiones (capítulo 4), esto contribuyó a la erradicación de la pobreza entre los pensionados, al menos cuando esta última se mide en términos absolutos frente al nivel mínimo de subsistencia prevaleciente.</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1398,7 +1398,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>además magnitud duración estatus bajos ingresos debe prestar atención medida pobreza recurrente fourage layte cuanto mayor movilidad volatilidad ingresos cuanto menor duración pobreza mayor proporción personas experimenten pobreza menos vez período informado mayor tasa pobreza informada república moldavia descomposición pobreza componentes crónicos transitorios reveló pobreza principalmente crónica representaba personas clasificadas pobres beegle decir pesar transiciones hogares términos rango probable fracción grande pobres cualquier año siga siendo pobre próximo período</t>
+          <t>Además de la magnitud y duración del estatus de bajos ingresos, se debe prestar atención a la medida en que la pobreza es recurrente (Fourage y Layte, 2005). Cuanto mayor sea la movilidad o volatilidad de los ingresos y cuanto menor sea la duración de la pobreza, mayor será la proporción de personas que experimenten la pobreza al menos una vez durante el período informado, por lo tanto, mayor será la tasa de pobreza informada. En la República de Moldavia durante 1997-2002, una descomposición de la pobreza en componentes crónicos y transitorios reveló que la pobreza era principalmente crónica y representaba hasta el 90% de las personas clasificadas como pobres (Beegle, 2004). Es decir, a pesar de las transiciones entre los hogares en términos de rango, es probable que una fracción muy grande de los pobres en cualquier año siga siendo pobre en el próximo período.</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>etapa secundaria inferior years tolo profesores califican cada asignatura dos veces año secundaria superior profesores realizan evaluación continua alumnos presentan exámenes cndofycar unesco autoridad central materia evaluación aconseja evaluación utilice instrumento gestionar aprendizaje herramienta selección cada vez hace hincapié evaluación competencias conocimientos hechos unesco</t>
+          <t>En la etapa de secundaria inferior (Years 8 tolO), los profesores califican cada asignatura dos veces al año. En la secundaria superior, los profesores realizan una evaluación continua, y los alumnos se presentan a exámenes cnd-of-ycar (UNESCO. La autoridad central en materia de evaluación aconseja que la evaluación se utilice como instrumento para gestionar el aprendizaje, y no como herramienta de selección. Cada vez se hace más hincapié en la evaluación de las competencias que en la de los conocimientos y los hechos (UNESCO, 2007).</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>países destino previstos cocaína incautada incluían australia italia españa mientras colombia menciona país origen indicios superficie cultivo adormidera ido aumento parece haber alcanzado máximo cinco años colombia detectado cultivo heroína fabricada sudamérica destina principalmente unidos trafica consumo dentro región varios países américa sur notificado incautaciones estimulantes tipo anfetamínico eta incluidas anfetamina metanfetamina sustancias tipo éxtasis así dietilamida ácido lisérgico lsd</t>
+          <t>Los países de destino previstos para la cocaína incautada incluían Australia, Italia y España, mientras que Colombia se menciona como país de origen. Hay indicios de que la superficie de cultivo de adormidera ha ido en aumento y parece haber alcanzado un máximo de cinco años en Colombia, donde se habían detectado 387 ha de cultivo en 2014. La heroína fabricada en Sudamérica se destina principalmente a Estados Unidos, pero también se trafica para su consumo dentro de la región. Varios países de América del Sur han notificado incautaciones de estimulantes de tipo anfetamínico (ETA) en 2014, incluidas anfetamina, metanfetamina y sustancias del tipo "éxtasis", así como dietilamida del ácido lisérgico (LSD).</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>mayoría países ocde hospitales universitarios suelen ser destino último recurso pacientes necesidades complejas hospitales universitarios suelen albergar especialistas mejor formados parte gracias capacidad ofrecer combinación práctica clínica exigente oportunidad realizar investigación ajustes reflejen mayor complejidad pacientes atienden probable hospitales universitarios turcos enfrenten casos extremos coste operativo servicio superior reembolsado tarifas fijas ssi</t>
+          <t>Como en la mayoría de los países de la OCDE, los hospitales universitarios suelen ser el destino de último recurso para los pacientes con necesidades más complejas. Los hospitales universitarios suelen albergar a los especialistas mejor formados, en parte gracias a su capacidad para ofrecer una combinación de práctica clínica exigente y la oportunidad de realizar investigación. Sin ajustes que reflejen la mayor complejidad de los pacientes que atienden, es probable que los hospitales universitarios turcos se enfrenten a los casos más extremos en los que el coste operativo de un servicio sea superior al reembolsado por las tarifas fijas del SSI.</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>embargo toda formulación políticas propósito primario salud implementación suele tener propósito inmediato mejorar salud quedan excluidos servicios cuya finalidad principal vinculada recogida tratamiento remediación riesgos ambientales incluidos dentro límite salud componentes salud ambiental forman parte reglamentaciones sanitarias específicas bajo hc</t>
+          <t>Sin embargo, no toda formulación de políticas tiene un propósito primario de salud, ni su implementación suele tener el propósito inmediato de mejorar la salud. Quedan excluidos todos los servicios cuya finalidad principal esté vinculada a la recogida, tratamiento y remediación de riesgos ambientales. Incluidos dentro del límite de salud están los componentes de salud ambiental que forman parte de las reglamentaciones sanitarias específicas (bajo HC.7).</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -1448,7 +1448,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>dichos servicios atención médica esenciales minimizar morbilidad asociada tales eventos implica acceso financiero costo imponga barreras innecesarias atención acceso físico garantizar atención oportuna sistema salud brinda atención alta calidad análisis informe examina vías países ocde ofrecen programas servicios relacionados enfermedades cardiovasculares diabetes saber promoción salud salud pública atención primaria atención aguda</t>
+          <t>Dichos servicios de atención médica son esenciales para minimizar la morbilidad asociada con tales eventos. Esto implica tanto el acceso financiero, para que el costo no imponga barreras innecesarias a la atención, como el acceso físico, para garantizar que la atención sea oportuna, y 3) el sistema de salud brinda atención de alta calidad. El análisis de este informe examina las vías por las que los países de la OCDE ofrecen los programas y servicios relacionados con las enfermedades cardiovasculares y la diabetes, a saber, la promoción de la salud, la salud pública, la atención primaria y la atención aguda.</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>resultados pueden reflejar exposición futuros maestros enseñanza parte educación previa servicio diferentes niveles apoyo proporcionados nuevos maestros parte capacitación servicio datos reflejan únicamente sentimientos preparación maestros difícil encontrar evidencia sistemática prevalencia real pedagogías aulas maestro planificado lección conoce contenido necesita cubrir entrega estudiantes espera dominen contenido apliquen tarea prueba tipo instrucción dirigida maestro podría incluir cosas conferencias resúmenes lecciones períodos preguntas respuestas dirigidos maestro estrategias enseñanza orientadas estudiante encuentran cada vez camino aulas todas materias</t>
+          <t>Estos resultados pueden reflejar la exposición de los futuros maestros a la enseñanza como parte de la educación previa al servicio y/o diferentes niveles de apoyo proporcionados a los nuevos maestros como parte de la capacitación en servicio. Pero los datos reflejan únicamente los sentimientos de preparación de los maestros. Es mucho más difícil encontrar evidencia sistemática sobre la prevalencia real de las pedagogías en las aulas. El maestro ha planificado la lección, conoce el contenido que necesita cubrir y lo entrega a los estudiantes, de quienes se espera que dominen ese contenido y lo apliquen a su tarea o una prueba. Este tipo de instrucción dirigida por el maestro también podría incluir cosas como conferencias, resúmenes de lecciones o períodos de preguntas y respuestas dirigidos por el maestro. Por lo tanto, las estrategias de enseñanza orientadas al estudiante encuentran cada vez más su camino en las aulas de todas las materias.</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>servicios sanidad electrónica evolucionan satisfacer interesados asistencia sanitaria autogestionada gestión enfermedades crónicas entorno tic bien gestionado uso gestión condiciones sanitarias personales casa través internet evolución viene impulsada gestión eficaz registros historias clínicas electrónicas hce aceptada hospitales</t>
+          <t>Los servicios de sanidad electrónica evolucionan para satisfacer a los interesados en una asistencia sanitaria autogestionada, como la gestión de enfermedades crónicas, en un entorno TIC bien gestionado. El otro uso es la gestión de las condiciones sanitarias personales en casa a través de Internet. Esta evolución viene impulsada por una gestión eficaz de los registros, como la de las historias clínicas electrónicas (HCE), aceptada en los hospitales.</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1478,7 +1478,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>importante señalar pobreza extrema rara mayoría economías desarrollo islas pacífico pide millones pobres viven pacífico mitad cuales corresponden pobres fiji existe gran variabilidad incidencia pobreza necesidades básicas pide tasa pobreza necesidades básicas baja registró vanuatu ciento seguido kiribati ciento tasas altas registraron países federados micronesia ciento fiji ciento</t>
+          <t>Es importante señalar que la pobreza extrema es rara en la mayoría de las economías en desarrollo de las islas del Pacífico (PIDE). Hay otros 0,6 millones de pobres que viven en el Pacífico, la mitad de los cuales corresponden a los pobres de Fiji. Existe una gran variabilidad en la incidencia de la pobreza de necesidades básicas entre PIDE, la tasa de pobreza de necesidades básicas más baja se registró en Vanuatu (13 por ciento en 2010), seguido de Kiribati (22 por ciento en 2006), y las tasas más altas se registraron en los Países Federados. Estados de Micronesia (31 por ciento en 2005) y Fiji (35 por ciento en 2008).</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1488,7 +1488,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>indicadores noruega recoge actualidad aunque útiles principalmente indicadores proceso medidas capacidad servicios ejemplo registro diagnósticos número personal indicadores existentes ejemplo suicidios pacientes hospitalizados tasas readmisión tiempos espera acceder servicios noruega dando pasos hacia posibilidad evaluar calidad atención salud mental embargo hecho pacientes psiquiátricos menudo vulnerables gran parte casos internados involuntariamente hace medición resultados calidad atención vital compleja pincus et</t>
+          <t xml:space="preserve">Muchos de los indicadores que Noruega recoge en la actualidad son, aunque útiles, principalmente indicadores de proceso, o medidas de la capacidad de los servicios, por ejemplo el registro de diagnósticos o el número de personal. Con otros indicadores existentes, por ejemplo los suicidios de pacientes hospitalizados, las tasas de readmisión o los tiempos de espera para acceder a los servicios, Noruega está dando pasos hacia la posibilidad de evaluar la calidad de la atención de salud mental. Sin embargo, el hecho de que los pacientes psiquiátricos sean a menudo muy vulnerables, y en gran parte de los casos estén internados involuntariamente, hace que la medición de los resultados y la calidad de la atención sea vital y más compleja (Pincus et al., </t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -1498,7 +1498,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ejemplo según ndhs promedio mortalidad infantil nepal pueblos indígenas muertes cada nacidos vivos mientras promedio nacional viet nam parece mejorando términos reducción tasa mortalidad infantil éxito reducir disparidad minorías étnicas vulnerables población mayoritaria dada disponibilidad información altamente variable información indicadores solo pocos países sur asia ejemplo nepal ofrece vistazo situación tres aspectos mortalidad infantil base análisis posterior datos nacionales india mohindra labonte analizado información tendencia temporal encuesta nacional salud familia nfhs nfhs nfhs bennett dahal hicieron mismo nepal utilizando conjunto datos generado partir encuesta nacional demográfica salud</t>
+          <t>Por ejemplo, según el NDHS, en 2006 el promedio de mortalidad infantil en Nepal para los pueblos indígenas fue de 55 muertes por cada 1000 nacidos vivos, mientras que el promedio nacional fue de 59.8 Viet Nam parece estar mejorando en términos de reducción de la tasa de mortalidad infantil, pero ha no ha tenido éxito en reducir la disparidad entre sus minorías étnicas vulnerables y la población mayoritaria. Dada la disponibilidad de información altamente variable, tenemos información sobre los indicadores para solo unos pocos países. En el sur de Asia, por ejemplo, Nepal ofrece un vistazo de la situación en los tres aspectos de la mortalidad infantil en base al análisis posterior de los datos nacionales. Para India, Mohindra y Labonte (2010) han analizado la información de tendencia temporal de la Encuesta Nacional de Salud y Familia (NFHS-1), 1992-1993, NFHS-2, 1998-1999, NFHS-3, 2005-2006. Bennett y Dahal (2008) hicieron lo mismo para Nepal utilizando el conjunto de datos generado a partir de la Encuesta nacional demográfica y de salud de 2006.</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1508,7 +1508,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>lander evaluación varias asignaturas puede seguir siendo tramitada íntegramente profesores tendencia aleja claramente descentralización exámenes directores centros expiden certificados embargo vez finalizada enseñanza secundaria superior alumnos quieren seguir estudiando pide aprueben juken examen acceso enseñanza superior mayoría sistemas educativos dividido responsabilidades evaluación educación secundaria superior organismos centrales escuelas</t>
+          <t>En algunos Lander, la evaluación de varias asignaturas puede seguir siendo tramitada íntegramente por los profesores, pero la tendencia se aleja claramente de la descentralización de los exámenes. Los directores de los centros son quienes expiden los certificados. Sin embargo, una vez finalizada la enseñanza "secundaria superior", a los alumnos que quieren seguir estudiando se les pide que aprueben el Juken, que es el examen de acceso a la enseñanza superior. La mayoría de los sistemas educativos han dividido las responsabilidades de evaluación en la educación secundaria superior entre los organismos centrales y las escuelas.</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>valor enfoques basados modelos aumenta pasa niveles finos desagregación espacial mapas pobreza detallados herramientas poderosas focalizar fondos sociales diseño redes seguridad trabajo campo debe incluir apoyo uso informado estimaciones mediante publicación evaluaciones calidad ejemplo errores estándar errores relativos muestreo brindar orientación usuarios datos debería incluir evaluar si promedios tres años significativamente confiables estimaciones anuales dados datos encuesta disponibles si fuentes administrativas podrían usarse indicadores ingresos regionales</t>
+          <t>El valor de los enfoques basados ​​en modelos aumenta cuando se pasa a niveles más finos de desagregación espacial. Los mapas de pobreza detallados son herramientas poderosas para focalizar los fondos sociales y para el diseño de redes de seguridad. El trabajo en este campo debe incluir el apoyo al uso informado de estas estimaciones mediante la publicación de evaluaciones de calidad (por ejemplo, errores estándar, errores relativos de muestreo) y brindar orientación a los usuarios de datos. Esto debería incluir evaluar si los promedios de tres años son significativamente más confiables que las estimaciones anuales, dados los datos de la encuesta disponibles, y si las fuentes administrativas podrían usarse para los indicadores de ingresos regionales.</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>fortalecieron parte reformas través creación acuerdos estandarizados centralmente cubren coordinación atención prevención rehabilitación acuerdos gestionados forma continua comités consultivos regionales integrados representantes regiones municipios así profesionales salud privados ratificados consejo nacional salud estándares comprenden tres categorías organizativos calidad gestión riesgos higiene capital humano coordinación atención participación pacientes derivaciones seguridad medicamentos estándares específicos enfermedades directrices protocolos</t>
+          <t>Estos se fortalecieron como parte de las reformas de 2007 a través de la creación de acuerdos estandarizados centralmente que cubren la coordinación de la atención, la prevención y la rehabilitación. Estos acuerdos son gestionados de forma continua por comités consultivos regionales integrados por representantes de las regiones y municipios, así como de profesionales de la salud privados, y son ratificados por el Consejo Nacional de Salud. Estos estándares comprenden tres categorías: organizativos (calidad, gestión de riesgos, higiene y capital humano), coordinación de la atención (participación de los pacientes, derivaciones y seguridad de los medicamentos) y estándares específicos de enfermedades (directrices y protocolos).</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1538,7 +1538,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>planes estudios deben incluir multiculturalismo diversidad temas contenido clases lengua historia educación cívica suecia debería aplicar poner práctica plan estudios cuenta diversidad forma coherente todas escuelas alumnos inmigrantes escuelas inclusivas pueden aumentar oportunidades aprender pueden interactuar niños vez puede promover participación familiar comunitaria</t>
+          <t>Los planes de estudios deben incluir el multiculturalismo y la diversidad como temas de contenido en las clases de lengua, historia y educación cívica. Suecia debería aplicar y poner en práctica un plan de estudios que tenga en cuenta la diversidad de forma coherente en todas las escuelas. Para los alumnos inmigrantes, las escuelas inclusivas pueden aumentar sus oportunidades de aprender porque pueden interactuar con otros niños, lo que a su vez puede promover su participación familiar y comunitaria.</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>permitir comparación períodos idénticos años frente datos pobreza relativamente escasos período utilizado período años superpone perfectamente utilizado mundo cuatro velocidades capítulo países presentan modos según lugar clasificación décadas elasticidad promedio países tabla si excluyen valores atípicos</t>
+          <t>Para permitir la comparación entre períodos idénticos de 10 años frente a datos de pobreza relativamente escasos, el período utilizado es 1995-2005. Este período de 10 años no se superpone perfectamente con el utilizado en el mundo de cuatro velocidades del Capítulo 1, pero los países se presentan de todos modos según su lugar en esa clasificación en las décadas de 1990 y 2000. La elasticidad promedio para todos los países en la Tabla 4.1 es -0.76 y -0.71 si se excluyen los valores atípicos.</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>puntuaciones calidad vida relacionada salud significativamente bajas encuestados eda comparación encuestados consecuencia pérdida productividad enfermedad larga duración discapacidad aumentó personas sufrido ade comparación encuestados si pacientes edad trabajar empeoramiento salud causado daños puede impedirles participar vida laboral traduce pérdida años vida productiva allá impacto negativo autoestima pérdidas económicas personales derivadas reducción ingresos efectos derivados incluyen mayores necesidades apoyo cuidados mayor dependencia asistencia social pérdida ingresos fiscales</t>
+          <t>Las puntuaciones de la calidad de vida relacionada con la salud fueron significativamente más bajas para los encuestados con EDA en comparación con otros encuestados. En consecuencia, la pérdida de productividad por enfermedad de larga duración y discapacidad aumentó en las personas que habían sufrido ADE en comparación con otros encuestados. Si los pacientes están en edad de trabajar, el empeoramiento de la salud causado por los daños puede impedirles participar en la vida laboral, lo que se traduce en una pérdida de años de vida productiva. Más allá del impacto negativo sobre la autoestima y las pérdidas económicas personales derivadas de la reducción de ingresos, los efectos derivados incluyen mayores necesidades de apoyo y cuidados, mayor dependencia de la asistencia social y pérdida de ingresos fiscales.</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>estudiantes siguen plan estudios general primeros dos años educación secundaria grados luego clasifican dos últimos años educación secundaria grados pista general educación nivel medio científicohumanístico emhc itinerario profesional educación grado medio técnicoprofesional emtp práctica embargo seguimiento ocurre grado estudiantes ingresan escuela secundaria estudiantes seguidos grado probabilidades permanecer camino toda educación secundaria plan estudios vet secundaria superior consiste horas educación general semana comparación horas vía general plan estudios fp secundaria superior incluye horas formación profesional mineduc estudiantes obtienen certificado estudios secundarios licencia ensehanza media después completar cuatro grados educación secundaria superior</t>
+          <t>Los estudiantes siguen un plan de estudios general durante los primeros dos años de educación secundaria (grados 9-10), y luego se clasifican durante los dos últimos años de educación secundaria (grados 11-12) en una pista general (educación de nivel medio científico-humanístico). , EMHC), o un itinerario profesional (Educación de Grado Medio Técnico-Profesional, EMTP~). En la práctica, sin embargo, el seguimiento ocurre desde el grado 8, cuando los estudiantes ingresan a la escuela secundaria. Los estudiantes que son seguidos en el 8º grado tienen más probabilidades de permanecer en este camino durante toda la educación secundaria. El plan de estudios VET de secundaria superior consiste en 12 horas de educación general por semana, en comparación con las 27 horas en la vía general. El plan de estudios de FP de secundaria superior también incluye 26 horas de formación profesional (MINEDUC, 2016). Los estudiantes obtienen el certificado de estudios secundarios (licencia de ensehanza media) después de completar los cuatro grados de educación secundaria superior.</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>dos actores principales responsables desarrollo guías clínicas gobierno académicos decir academia coreana ciencias médicas centros investigación clínica corea especializado servicios específicos revisión evaluación seguros salud hira responsables garantía calidad auditoría reclamaciones servicios médicos reembolsados públicamente hira koiha realizan informes públicos proveedores atención médica</t>
+          <t>Los dos actores principales responsables del desarrollo de las guías clínicas son el gobierno y los académicos (es decir, la Academia Coreana de Ciencias Médicas). Desde 2004, los centros de investigación clínica en Corea se han especializado en servicios específicos de revisión y evaluación de seguros de salud (HIRA) que son responsables de la garantía de calidad y la auditoría de las reclamaciones por servicios médicos reembolsados ​​públicamente. Tanto HIRA como KOIHA realizan informes públicos sobre los proveedores de atención médica.</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1588,7 +1588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>formulario único recogida datos datos agregados estancia horas considera lesión grave menos lesión leve embargo ansv trabajando ministerio salud nación vincular registros hospitalarios datos formulario naranja proyecto vinculación inició piloto dos provincias pobladas argentina fin recopilar datos basados mais</t>
+          <t xml:space="preserve">Formulario único de recogida de datos - Datos agregados). Una estancia de más de 24 horas se considera una lesión grave, y menos, una lesión leve. Sin embargo, desde 2010, la ANSV está trabajando con el Ministerio de Salud de la Nación para vincular los registros hospitalarios y los datos del Formulario Naranja. Este proyecto de vinculación se inició como piloto en dos de las provincias más pobladas de Argentina, con el fin de recopilar datos basados en el MAIS 3. </t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>bajo iniciativa australian better access luego preparación plan tratamiento salud mental médicos cabecera pueden derivar pacientes psicólogos clínicos profesionales salud mental aliados médicos cabecera debidamente capacitados brindan servicios estrategia psicológica enfocada fps si bien iniciativa mejor acceso enfrentado desafíos buen ejemplo creación mayor capacidad tratamiento eficaz nivel atención primaria promoviendo coordinación cuidadores primarios especialistas brindar buen tratamiento promoviendo terapias psicológicas tratamiento adecuado médicos atención primaria consulten casos probable servicios diferentes intensidades brinden ligeramente entornos atención primaria coordinación gestión parte médico atención primaria requieren inversiones nuevas intervenciones especialmente extremo menor intensidad</t>
+          <t>Bajo la iniciativa Australian Better Access, luego de la preparación de un Plan de tratamiento de salud mental, los médicos de cabecera pueden derivar a los pacientes a psicólogos clínicos, profesionales de la salud mental aliados o médicos de cabecera debidamente capacitados que brindan servicios de estrategia psicológica enfocada (FPS). Si bien la iniciativa "Mejor acceso" ha enfrentado algunos desafíos, este es un buen ejemplo de creación de una mayor capacidad para un tratamiento eficaz desde el nivel de atención primaria, promoviendo la coordinación entre los cuidadores primarios y los especialistas para brindar un buen tratamiento y promoviendo las terapias psicológicas como un tratamiento adecuado para que los médicos de atención primaria los consulten. En muchos casos, es probable que los servicios en diferentes intensidades se brinden ligeramente fuera de los entornos de atención primaria, con o sin coordinación o gestión por parte de un médico de atención primaria, y requieren algunas inversiones en nuevas intervenciones, especialmente en el extremo de menor intensidad.</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>promedio diferencia casi puntos dominio alfabetización separa adultos padres alto nivel educativo aquellos cuyos padres niveles bajos educación promedio probabilidad tener desempeño bajo alrededor puntos porcentuales menor adultos menos padre educación terciaria comparación adultos cuyos padres educación secundaria superior adultos cuya alfabetización clasificada nivel inferior predominantemente padres poca educación promedio mitad adultos debajo línea base dominio lectura padres completado educación secundaria superior</t>
+          <t>En promedio, una diferencia de casi 40 puntos en el dominio de la alfabetización separa a los adultos de padres con un alto nivel educativo de aquellos cuyos padres tienen los niveles más bajos de educación. En promedio, la probabilidad de tener un desempeño bajo es alrededor de 25 puntos porcentuales menor para los adultos con al menos un padre con educación terciaria, en comparación con los adultos cuyos padres tienen educación secundaria superior. Los adultos cuya alfabetización está clasificada en el Nivel 1 e inferior predominantemente tienen padres con poca educación. En promedio, más de la mitad de los adultos (52,2 %) por debajo de la línea de base en el dominio de la lectura tenían padres que no habían completado la educación secundaria superior.</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>enfermeras atención primaria realizaron mejores funciones diagnóstico prescripción acceso rápido herramientas recursos información salud punto atención probable estrategia innovadora éxito países infraestructura médica bien desarrollada países infraestructura médica comparativamente bien desarrollada generalmente enfrentan desafíos resistencia implementar hacer cumplir políticas innovadoras debido diferentes posiciones grupos intereses especiales</t>
+          <t>Las enfermeras de atención primaria realizaron mejores funciones de diagnóstico y prescripción con acceso rápido a herramientas y recursos de información de salud en el punto de atención. Es probable que esta estrategia innovadora tenga más éxito en países donde la infraestructura médica no está bien desarrollada. Los países con una infraestructura médica comparativamente bien desarrollada generalmente enfrentan más desafíos y resistencia para implementar y hacer cumplir políticas innovadoras debido a las diferentes posiciones entre los grupos de intereses especiales.</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>evidencia muestra baja estima pública profesión docente chile estudio avalos sevilla encontró docentes informaron reconocimiento social profesión medio bajo solo docentes chilenos reportaron sentir profesión valorada sociedad según talis mineduc ocde</t>
+          <t>La evidencia muestra una baja estima pública por la profesión docente en Chile. Un estudio de 2010 (Avalos y Sevilla, 2010) encontró que el 80% de los docentes informaron que el reconocimiento social de su profesión era de medio a bajo. Solo el 33,6% de los docentes chilenos reportaron sentir que su profesión era valorada por la sociedad, según TALIS (MINEDUC, 2017a, OCDE, 2014).</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>evaluación incluye información infraestructura acceso productividad satisfacción pacientes da resultado puntuación permite clasificar hospitales cinco categorías descritas detalle capítulo cada equipo evaluación formado personas jefe equipo menos médico proceden grupo evaluadores formados cada estándar dentro estándares calidad atención sanitaria evalúa aplicable normas ponderan previamente función importancia</t>
+          <t>Esta evaluación, que incluye información sobre infraestructura, acceso, productividad y satisfacción de los pacientes, da como resultado una puntuación que permite clasificar a los hospitales en una de las cinco categorías descritas con más detalle en el capítulo 4. Cada equipo de evaluación está formado por 4 personas, un jefe de equipo y al menos un médico, que proceden de un grupo de 368 evaluadores formados. Cada estándar, dentro de los estándares de calidad de la atención sanitaria, se evalúa como "Sí, No o No aplicable". Las normas se ponderan previamente en función de su importancia.</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -1648,7 +1648,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ejemplo niños grupo edad años completado educación secundaria cada hogares acceso instalaciones salud pública datos consumo hogares india revelan ciento población ingesta calorías día usando líneas pobreza internacionales empleadas banco asiático desarrollo estimaciones revisadas recientes pobreza basadas ppa estima tasa pobreza rango ciento usando línea pobreza ciento usando línea distinción rural urbano himanshu p</t>
+          <t>Por ejemplo, en 1999-2000, el 71% de los niños del grupo de edad de 15 a 19 años no había completado la educación secundaria y 4 de cada 5 hogares no tenían acceso a instalaciones de salud pública. Los datos de consumo de los hogares de la India revelan que el 62 por ciento de la población no tiene una ingesta de 2100 calorías por día. Usando las líneas de pobreza internacionales empleadas por el Banco Asiático de Desarrollo en las estimaciones revisadas recientes de la pobreza basadas en las PPA para 2005, se estima que la tasa de pobreza está en el rango de 54,8 a 65,3 por ciento usando una línea de pobreza de $1,35, y en 60 por ciento usando una línea de $1.25 sin distinción entre rural y urbano (Himanshu, 2008, p. 42).</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -1658,7 +1658,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>caso privación ingresos tasa jefatura disminuyó axioma transferencia dadas cosas transferencia pura ingresos persona debajo umbral pobreza rica debe aumentar medida pobreza sen p cifras muestran tercio población ingresos inferiores umbral oficial pobreza dólares per cápita mes mitad población zonas rurales sufre privación monetaria</t>
+          <t>En el caso de la privación de ingresos, la tasa de jefatura disminuyó del 37,6% en 2006 al 32,8% en 2010. Axioma de transferencia: Dadas otras cosas, una transferencia pura de ingresos de una persona que está por debajo del umbral de pobreza a otra que es más rica debe aumentar la medida de la pobreza" (Sen, 1976, p. 219). Estas cifras muestran que un tercio de la población tiene ingresos inferiores al umbral oficial de pobreza (57,29 dólares per cápita al mes en 2006) y la mitad de la población de las zonas rurales sufre privación monetaria.</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -1668,7 +1668,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>artículo undrip ilustrativo tal autonomía establece pueblos indígenas derecho medicinas tradicionales mantener prácticas salud incluida conservación plantas animales minerales medicinales vitales proceso desplazado tierras alienado recursos naturales</t>
+          <t>El Artículo 24.1 de la UNDRIP es ilustrativo de tal autonomía. Establece que "los pueblos indígenas tienen derecho a sus medicinas tradicionales y a mantener sus prácticas de salud, incluida la conservación de sus plantas, animales y minerales medicinales vitales". El proceso los ha desplazado de sus tierras y los ha alienado de sus recursos naturales.</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -1678,7 +1678,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>embargo ritmo descenso sido inferior mortalidad postneonatal resultado proporción muertes ocurren primeros días vida aumentado mejor manera posible reducir mortalidad neonatal través mayor inversión atención materna primeros horas después nacimiento particularmente atención trabajo parto parto intervenciones alto impacto</t>
+          <t>Sin embargo, el ritmo de descenso ha sido inferior al de la mortalidad postneonatal. Como resultado, la proporción de muertes que ocurren en los primeros 28 días de vida ha aumentado, del 37% en 1990 al 44% en 2012. La mejor manera posible de reducir la mortalidad neonatal es a través de una mayor inversión en atención materna durante los primeros 24 horas después del nacimiento, particularmente en la atención del trabajo de parto y parto y otras intervenciones de alto impacto.</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>responder todas amenazas necesario compromiso organizaciones diversos ámbitos desarrollo comercio prevención catástrofes seguridad garantizar compromiso parte abanico diverso organizaciones éste debe ser refrendado sólo nivel ministro sanidad sino alto nivel nacional organizaciones internacionales activas campo pnud unicef reconocer mejora capacidades básicas rsi contribuye fortalecimiento general sistemas sanitarios países desarrollo desempeñar papel supervisión si cumplen requisitos rsi materia capacidades básicas cada país</t>
+          <t>Para responder a todas las amenazas es necesario el compromiso de organizaciones de diversos ámbitos, como el desarrollo, el comercio, la prevención de catástrofes y la seguridad. Para garantizar ese compromiso por parte de un abanico diverso de organizaciones, éste debe ser refrendado no sólo a nivel del ministro de sanidad, sino también desde el más alto nivel nacional. Las organizaciones internacionales activas en este campo, como el PNUD y UNICEF, tienen que reconocer que la mejora de las capacidades básicas del RSI contribuye al fortalecimiento general de los sistemas sanitarios de los países en desarrollo, y desempeñar un papel en la supervisión de si se cumplen los requisitos del RSI en materia de capacidades básicas en cada país.</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>center for global health policy who regional director for africa discusses abuja declarations science speaks hiv tb news mayo httpsciencespeaks african union an african common position for the sesión especial asamblea general ungass sida nueva york junio spassemblyatm i rev httpwwwafricaunionorgrootauconferences pastmaysummitdocen ungasscommonpositionpdf consultado septiembre resolución afrrcr aceleración esfuerzos prevención vih región áfrica agosto maputo mozambique</t>
+          <t>Center for Global Health Policy, "WHO Regional Director for Africa Discusses Abuja Declarationsâ€, Science Speaks: HIV &amp; TB News, 8 de mayo de 2010, (http://sciencespeaks. African Union, "An African Common Position for the UN Sesión Especial de la Asamblea General (UNGASS) sobre el SIDA, Nueva York, junio de 2006â€, Sp/Assembly/ATM/3 (I) Rev.2, (http://www.africa-union.org/root/au/conferences /past/2006/may/summit/doc/en/ UNGASS_Common_Position.pdf) (consultado el 5 de septiembre de 2011). Resolución AFR/RC55/R6, "Aceleración de los esfuerzos de prevención del VIH en la región de África", 25 de agosto de 2005, Maputo , Mozambique.</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -1708,7 +1708,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>disponibilidad cada vez mayor datos nivel municipal escolar estudiantes individuales ser utilizados diferentes actores establecer metas monitorear progreso hacia logro metas varias visitas escuelas municipios equipo enteró viajes directores líderes municipales realizado varias jurisdicciones mundo aprender experiencias profesionales además uso dichos datos apoyar instrucción líderes municipales líderes escolares informaron visitas centraron uso datos aumentar uso eficiente recursos apoyar esfuerzos mejora sección aborda desafíos oportunidades creados cada cambios vez cambios fundamentales introducción conjunto objetivos comunes centran aprendizaje estudiantes</t>
+          <t>Hay una disponibilidad cada vez mayor de datos a nivel municipal, escolar y de estudiantes individuales para ser utilizados por diferentes actores al establecer metas y monitorear el progreso hacia el logro de estas metas. Y en varias visitas a escuelas y municipios, el equipo se enteró de los viajes que los directores y líderes municipales habían realizado a varias jurisdicciones de todo el mundo para aprender de las experiencias de los profesionales además del uso de dichos datos para apoyar la instrucción. Los líderes municipales y los líderes escolares también informaron que estas visitas se centraron en el uso de datos para aumentar el uso eficiente de los recursos para apoyar sus esfuerzos de mejora. Esta sección aborda los desafíos y oportunidades creados por cada uno de estos cambios a su vez. Uno de los cambios más fundamentales es la introducción de un conjunto de objetivos comunes que se centran en el aprendizaje de los estudiantes.</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -1718,7 +1718,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>capta mejor participación activa educador propio aprendizaje stoll et sostiene easton p hoy claro nunca educadores necesitan aprender aprendizaje profesional sustituido desarrollo profesional educadores deben bien informados ser sabios</t>
+          <t>Esto capta mejor la participación activa del educador en su propio aprendizaje (Stoll et al., Como sostiene Easton (2008, p. 756), "hoy está más claro que nunca que los educadores necesitan aprender, y por eso el aprendizaje profesional ha sustituido al desarrollo profesional. Los educadores deben estar bien informados y ser sabios.</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -1728,7 +1728,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>promedio talis embargo oculta diferencias significativas países incluye horas trabajadas fines semana noches u horas salón clases suma horas dedicadas diferentes tareas puede ser igual número total horas trabajo preguntó docentes elementos separado</t>
+          <t>El promedio de TALIS, sin embargo, oculta diferencias significativas entre países. También incluye las horas trabajadas durante los fines de semana, las noches u otras horas fuera del salón de clases. La suma de horas dedicadas a diferentes tareas puede no ser igual al número total de horas de trabajo porque se preguntó a los docentes sobre estos elementos por separado.</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -1738,7 +1738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>entonces aumentado recursos salarios docentes siguen siendo bajos comparación empleados municipales directores quedaron tareas administrativas menos tiempo liderazgo pedagógico complejidad administrativa aumentó debido reformas paralelas elección escuela cambios posteriores estructura contenido escuela siguió disminución habilidades docentes proporción cada vez mayor personal docente calificaciones adecuadas</t>
+          <t>Desde entonces, se han aumentado los recursos, pero los salarios de los docentes siguen siendo más bajos, también en comparación con otros empleados municipales. Los directores también quedaron con más tareas administrativas y menos tiempo para el liderazgo pedagógico. La complejidad administrativa también aumentó debido a las reformas paralelas de elección de escuela y los cambios posteriores en la estructura y el contenido de la escuela. Siguió la disminución de las habilidades de los docentes y una proporción cada vez mayor de personal docente sin las calificaciones adecuadas.</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -1748,7 +1748,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>europa asia central países programas grandes programa alimentación escolar india programa nacional ahmentaqao escolar brasil cubren millones niños respectivamente ejemplo tras crisis financiera mundial gobierno brasil pudo reaccionar rápidamente bajo costo mediante ampliación programas impacto significativo llegando millones personas vulnerables vez contribuyó crecimiento demanda interna pesar disminución pib ciento consumo privado mantuvo estable volvió crecer segunda mitad berg tobin programa resultó reducción puntos porcentuales niveles pobreza vivir menos día hogares beneficiarios ward et implica transferencia efectivo cuidador principal niño menor años vive hogar ingresos debajo umbral ingresos definido</t>
+          <t>Europa del Este y Asia Central (23 países). Los programas más grandes son el programa de alimentación escolar de India y el Programa Nacional de AHmentaqao Escolar en Brasil, que cubren a 105 y 47 millones de niños, respectivamente. Por ejemplo, tras la crisis financiera mundial de 2008, el Gobierno de Brasil pudo reaccionar rápidamente a bajo costo mediante la ampliación de los programas. Esto tuvo un impacto significativo, llegando a más de 1,6 millones de las personas más vulnerables y, a su vez, contribuyó al crecimiento de la demanda interna: a pesar de una disminución del PIB en 2009 de 0,6 por ciento, el consumo privado se mantuvo estable y volvió a crecer en la segunda mitad de 2009 (Berg y Tobin, 2011). El programa resultó en una reducción de 13 puntos porcentuales en los niveles de pobreza (vivir con menos de $1 por día) en los hogares beneficiarios entre 2007 y 2009 (Ward et al., 2010). Implica una transferencia de efectivo al cuidador principal de un niño menor de 18 años que vive en un hogar con ingresos por debajo de un umbral de ingresos definido.</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -1758,7 +1758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>aprenden debatir expresar opiniones respetar valorar contribución demás cada grupo propio círculo momento escucharse tomar decisiones reflexiones colectivas proporciona comunidad ayudarse mejorar relaciones actitudes hacia demás círculos lugares seguros estudiantes educadores oyentes equitativos mismas responsabilidades derechos</t>
+          <t>Aprenden a debatir, a expresar sus opiniones ya respetar y valorar la contribución de los demás. Cada grupo tiene su propio "círculo", un momento para escucharse unos a otros y tomar decisiones y reflexiones colectivas. Esto proporciona un sentido de comunidad, al ayudarse unos a otros a mejorar sus relaciones y actitudes hacia los demás. †Los círculos son lugares seguros, donde los estudiantes y los educadores son oyentes equitativos y tienen las mismas responsabilidades y derechos.</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>restricciones financieras nacionales reducido asignaciones personal docente particular personal educación cuidado primera infancia eapi gestión escolar especialmente escuelas pequeñas enfrentado dificultades financieras debido salarios personal pedagógico aumentado mientras personal pedagógico reducido propuesto apoyo financiero guarderías eliminar obstáculos creación</t>
+          <t>Las restricciones financieras nacionales han reducido las asignaciones para el personal no docente en un 9,5 %, en particular para el personal de educación y cuidado de la primera infancia (EAPI). La gestión escolar, especialmente en las escuelas pequeñas, se ha enfrentado a dificultades financieras debido a que los salarios del personal pedagógico han aumentado mientras que los del personal no pedagógico se han reducido. También se ha propuesto el apoyo financiero a las guarderías para eliminar los obstáculos a su creación.</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -1778,7 +1778,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>inglaterra sector salud privado crecimiento personas pueden optar acceder forma personal quizás utilizando seguro médico privado ocde mental health questionnaire england después reformas nhs proveedores atención salud mental pertenecen nhs pueden ser comisionados directamente cualquiera organismos comisionados generalmente ccg nhs england pueden ser subcontratados proveedor nhs gobierno compromete garantizar pacientes usuarios servicios puedan elegir cualquier proveedor calificado ciertos servicios comunitarios salud mental</t>
+          <t>Inglaterra tiene un sector de salud privado en crecimiento, al que las personas pueden optar por acceder de forma personal, quizás utilizando un seguro médico privado (OCDE Mental Health Questionnaire England, 2012). Después de las reformas del NHS de 2012, los proveedores de atención de la salud mental que no pertenecen al NHS también pueden ser comisionados directamente por cualquiera de los organismos comisionados (generalmente un CCG o NHS England) o pueden ser subcontratados por un proveedor del NHS. El Gobierno también se compromete a garantizar que los pacientes y los usuarios de los servicios puedan elegir "cualquier proveedor calificado" en ciertos servicios comunitarios y de salud mental.</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -1788,7 +1788,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>red causal eventos enfermedad influenciados factores riesgo directa indirectamente definición factores riesgo así umbrales utilizados identificar personas riesgo basan gran medida datos proporcionados publicación cuantificación comparativa riesgos salud oms ezzati lópez rodgers murray modelo factores riesgo proximales presión arterial alta colesterol alto glucemia alta influencia directa probabilidad desarrollar dichas enfermedades crónicas explica efecto mecanismos fisiopatológicos conocidos contrario factores riesgo distales bajo consumo frutas verduras alto consumo grasas actividad física insuficiente influencia indirecta enfermedades crónicas</t>
+          <t>Por lo tanto, en una red causal, los eventos de enfermedad están influenciados por factores de riesgo tanto directa como indirectamente. La definición de los factores de riesgo, así como los umbrales utilizados para identificar a las personas en riesgo, se basan en gran medida en los datos proporcionados por la publicación de Cuantificación comparativa de riesgos para la salud de la OMS (Ezzati, López, Rodgers y Murray, 2004). En el modelo, los factores de riesgo proximales, como la presión arterial alta, el colesterol alto y la glucemia alta, tienen una influencia directa en la probabilidad de desarrollar dichas enfermedades crónicas. Esto explica el efecto de los mecanismos fisiopatológicos conocidos. Por el contrario, los factores de riesgo distales, como el bajo consumo de frutas y verduras, el alto consumo de grasas y la actividad física insuficiente, tienen una influencia indirecta en las enfermedades crónicas.</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -1798,7 +1798,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>uso enfoque multidimensional análisis pobreza consolidado varios ámbitos indicadores informe desarrollo humano programa naciones unidas desarrollo pnud incluyen índice pobreza multidimensional ipm basado propuesta alkire santos combina indicadores reflejar carencias tres dimensiones tradicionales desarrollo humano salud educación calidad vida países ver recuadro capítulo i considera primera estimación científica pobreza infantil mundo desarrollo grupo expertos estadísticas pobreza grupo río</t>
+          <t>El uso de este enfoque multidimensional del análisis de la pobreza se ha consolidado en varios ámbitos. Desde 2011, los indicadores del Informe sobre Desarrollo Humano del Programa de las Naciones Unidas para el Desarrollo (PNUD) incluyen el índice de pobreza multidimensional (IPM) basado en una propuesta de Alkire y Santos (2010), que combina 10 indicadores para reflejar las carencias en los tres dimensiones tradicionales del desarrollo humano (salud, educación y calidad de vida) en 104 países (ver recuadro 1.3 en el capítulo I). Esta se considera la primera estimación científica de la pobreza infantil en el mundo en desarrollo (Grupo de Expertos en Estadísticas de Pobreza (Grupo de Río), 2007).</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -1808,7 +1808,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>elaboradas misma metodología aplicó américa latina estimaciones permiten comparar pobreza infantil multidimensional países caribe resto región sido posible ahora utilizando estadísticas pobreza monetaria construyen métodos diferentes existe marcada diferencia países continentales belice guyana surinam países insulares antigua barbuda granada jamaica santa lucía trinidad tobago</t>
+          <t>Elaboradas con la misma metodología que se aplicó para América Latina, las estimaciones permiten comparar la pobreza infantil multidimensional de los países del Caribe con el resto de la región. Esto no había sido posible hasta ahora utilizando las estadísticas de pobreza monetaria, que se construyen con métodos diferentes. Existe una marcada diferencia entre los países continentales (Belice, Guyana y Surinam) y los países insulares (Antigua y Barbuda, Granada, Jamaica, Santa Lucía y Trinidad y Tobago).</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -1818,7 +1818,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>formación especialistas medicina general complementa cada vez tecnologías digitales inteligencia artificial ayudan abordar problemas comunes salud pública salud mental hoy existen algoritmos capaces analizar historiales clínicos respuestas cuestionarios patrones comportamiento orientan médicos detección temprana trastornos reduce presión servicios especializados psiquiatría suelen concentrarse hospitales generales facilita acceso equitativo uso ia mejora coordinación atención primaria atención especializada fortaleciendo continuidad cuidado ofreciendo diagnósticos rápidos precisos</t>
+          <t>La formación de especialistas en medicina general se complementa cada vez más con tecnologías digitales e inteligencia artificial que ayudan a abordar problemas comunes de salud pública, como la salud mental. Hoy existen algoritmos capaces de analizar historiales clínicos, respuestas a cuestionarios y patrones de comportamiento que orientan a los médicos en la detección temprana de trastornos. Esto reduce la presión sobre los servicios especializados de psiquiatría, que suelen concentrarse en hospitales generales, y facilita un acceso más equitativo. El uso de IA también mejora la coordinación entre atención primaria y atención especializada, fortaleciendo la continuidad del cuidado y ofreciendo diagnósticos más rápidos y precisos.</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -1828,7 +1828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>estudiar aprendizaje jóvenes caza encontró posible repensar educación contexto social diferente institucional estatal saber contexto social caza actividad cazar prácticas ligadas tierra organizan individuos relación caza forma culturalmente específica vivir mundo ver caza forma ser mundo revela perspectivas profundas verla técnica informal tradicional</t>
+          <t>Al estudiar el aprendizaje de los jóvenes durante la caza, ella encontró posible “repensar la educación desde un contexto social diferente al institucional y estatal, a saber, el contexto social de la caza”. La actividad de cazar y/o las prácticas ligadas a la tierra organizan a los individuos en relación con la caza como una forma culturalmente específica de vivir y de estar en el mundo. Ver la caza como una forma de ser en el mundo revela perspectivas más profundas que verla como una técnica informal o tradicional.</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -1838,7 +1838,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>oferta insuficiente programas vocacionales alta calidad lugares estudio educación terciaria obstaculiza formación crecimiento capital humano estabilizar simplificar educación vocacional enfocarse aprendizajes alta calidad apoyaría participación gobierno necesita encontrar medidas eficientes aumentar participación especialmente niños familias bajos ingresos reemplazar subsidio mantenimiento educativo abolido reformas adicionales financiación educación superior podrían reducir costos contribuyentes ayudar financiar expansión necesaria sector the implications of school funding cfbt education trust research paper medición variación efectividad maestros inglaterra documento trabajo centro mercado organización pública universidad bristol</t>
+          <t>La oferta insuficiente de programas vocacionales de alta calidad y lugares de estudio de educación terciaria obstaculiza la formación y el crecimiento del capital humano. Estabilizar y simplificar la educación vocacional al enfocarse más en aprendizajes de alta calidad apoyaría la participación. El gobierno necesita encontrar medidas eficientes para aumentar la participación, especialmente entre los niños de familias de bajos ingresos, para reemplazar el subsidio de mantenimiento educativo abolido. Reformas adicionales a la financiación de la educación superior podrían reducir los costos de los contribuyentes y ayudar a financiar una expansión necesaria en el sector. The Implications of School Fundingâ€, CfBT Education Trust Research Paper. Medición de la variación en la efectividad de los maestros en Inglaterra", documento de trabajo 09/212 del Centro para el Mercado y la Organización Pública, Universidad de Bristol.</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -1848,7 +1848,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>indicadores incluyen ejemplo capacidad registrar personas esquizofrenia trastorno bipolar psicosis serie pruebas detección imc consumo alcohol glucosa sangre pacientes esquizofrenia trastorno bipolar psicosis existe indicador qof porcentaje pacientes registro plan atención integral documentado registros acordados personas familiares cuidadores según corresponda bma lista completa indicadores qof ver bma</t>
+          <t>Estos indicadores incluyen, por ejemplo, la capacidad de registrar a personas con esquizofrenia, trastorno bipolar y otras psicosis y una serie de pruebas de detección (IMC, consumo de alcohol, glucosa en sangre) para pacientes con esquizofrenia, trastorno bipolar y otras psicosis. También existe un indicador QOF para "El porcentaje de pacientes en el registro que tienen un plan de atención integral documentado en los registros acordados entre las personas, sus familiares y/o cuidadores según corresponda" (BMA (2014). Para una lista completa de indicadores QoF 2013/14 ver BMA, 2014).</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -1858,7 +1858,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>incluirá aprendizaje cambio mejoras producido además healthcare improvement scotland llevó cabo extenso ejercicio consulta juntas nhs médicos pacientes partes interesadas comprender cómo podrían mejorar sistemas retroalimentación junto evidencia existente buenas prácticas escocia internacionalmente utilizó desarrollar aprendizaje eventos adversos través informes revisiones marco nacional nhs escocia marco eventos adversos permite juntas locales identificar áreas cambio mejora</t>
+          <t>Esto incluirá el aprendizaje, el cambio y las mejoras que se hayan producido. Además, Healthcare Improvement Scotland llevó a cabo un extenso ejercicio de consulta con las juntas del NHS, los médicos, los pacientes y otras partes interesadas en 2013, para comprender cómo se podrían mejorar estos sistemas. Esta retroalimentación, junto con la evidencia existente y las buenas prácticas de Escocia e internacionalmente, se utilizó para desarrollar el Aprendizaje de los eventos adversos a través de informes y revisiones: un marco nacional para el NHS de Escocia. El marco de eventos adversos permite a las juntas locales identificar áreas de cambio y mejora.</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -1868,7 +1868,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>anexo pueden encontrar detalles cálculos conjunto completo valores calculados tal caso ingreso medio distribución fácilmente identificable número personas subsisten menos cierta proporción mediana ejemplo fácil contar directamente embargo dada amplia variedad cobertura desigual datos encuestas hogares varias herramientas permiten estimar medidas pobreza directamente partir fuentes datos agregadas datos distribución agrupados pueden derivarse encuestas hogares fuentes administrativas</t>
+          <t>En el Anexo se pueden encontrar más detalles de los cálculos y el conjunto completo de valores calculados. En tal caso, el ingreso medio de la distribución es fácilmente identificable y el número de personas que subsisten con menos de una cierta proporción de la mediana (por ejemplo, 40%, 50% o 60%) es fácil de contar directamente. Sin embargo, dada la amplia variedad y la cobertura desigual de los datos de las encuestas de hogares, varias herramientas permiten estimar las medidas de pobreza directamente a partir de fuentes de datos más agregadas, como datos de distribución agrupados que pueden derivarse de encuestas de hogares o fuentes administrativas.</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -1878,7 +1878,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>políticas públicas ayudan especialmente través rápido desarrollo políticas conciliar responsabilidades laborales familiares ejemplo cuidado niños facilitan empleo padres particular empleo materno embargo trabajadores coreanos experimentan frecuencia condiciones empleo baja calidad inestables cobertura limitada solo apoyo ingresos limitado proporcionado sistema asistencia social seguro empleo cambios sociales contribuido rápida evolución cambios perfil familias pobres</t>
+          <t>Las políticas públicas ayudan, especialmente a través del rápido desarrollo de políticas para conciliar las responsabilidades laborales y familiares (por ejemplo, el cuidado de los niños) que facilitan el empleo de los padres y, en particular, el empleo materno. Sin embargo, los trabajadores coreanos experimentan con frecuencia condiciones de empleo de baja calidad y/o inestables con cobertura limitada y/o solo un apoyo de ingresos limitado proporcionado por el sistema de asistencia social y seguro de empleo. Los cambios sociales también han contribuido a la rápida evolución de los cambios en el perfil de las familias pobres.</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -1888,7 +1888,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>tutoría negocio rentable rápida expansión varios proveedores cotizan bolsas valores familias gastaron dinero tutorías extraescolares principalmente niveles primaria secundaria ingresos disponibles hogares rápido crecimiento siempre tutoría requisito previo éxito académico dicho gasto aumentará</t>
+          <t>La tutoría es un negocio rentable y en rápida expansión con varios proveedores que cotizan en las bolsas de valores. En 2011, más del 71% de las familias gastaron dinero en tutorías extraescolares, principalmente en los niveles de primaria y secundaria. Con los ingresos disponibles de los hogares en rápido crecimiento, siempre que la tutoría sea un requisito previo para el éxito académico, dicho gasto aumentará.</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -1898,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>debido hospitales psiquiátricos principales proveedores atención salud mental instituciones propiedad privada fines lucro cambio prestación atención persigue principalmente través incentivo sistema pago revisión primavera programa tarifas incluyó serie disposiciones importantes atención salud mental buscan cambiar prestación atención línea objetivos política ver cuadro incluyó revisiones reembolso servicios salud mental</t>
+          <t>Debido a que el 90% de los hospitales psiquiátricos, que son los principales proveedores de atención de salud mental, son instituciones de propiedad privada (sin fines de lucro), el cambio en la prestación de atención se persigue principalmente a través de este incentivo del sistema de pago. La revisión de la primavera de 2014 de este programa de tarifas incluyó una serie de disposiciones importantes para la atención de la salud mental que buscan cambiar la prestación de la atención en línea con los objetivos de la política (ver Cuadro 4.1). Esto incluyó revisiones al reembolso de los servicios de salud mental.</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -1908,7 +1908,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>nivel educativo chile mejorado considerablemente últimos años primer ciclo enseñanza secundaria ahora prácticamente universal avanzado retención alumnos segundo ciclo aunque alrededor cohorte llega último año enseñanza secundaria superior resultados aprendizaje estudiantes chile considerablemente debajo media ocde producido avances considerables última década</t>
+          <t>El nivel educativo en Chile ha mejorado considerablemente en los últimos años. El primer ciclo de la enseñanza secundaria es ahora prácticamente universal y se ha avanzado en la retención de los alumnos en el segundo ciclo, aunque alrededor del 20% de una cohorte no llega al último año de la enseñanza secundaria superior. Los resultados del aprendizaje de los estudiantes en Chile están considerablemente por debajo de la media de la OCDE, pero se han producido avances considerables en la última década.</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -1918,7 +1918,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>forma financian desarrollan directrices problemática australia problema relaciona confusión causada existencia cientos guías clínicas elaboradas numerosas organizaciones desconoce medida guías clínicas contribuyendo mejorar calidad sistema salud mejorar resultados salud población</t>
+          <t>La forma en que se financian y desarrollan las directrices es problemática en Australia. Otro problema se relaciona con la confusión causada por la existencia de cientos de guías clínicas elaboradas por numerosas organizaciones. Se desconoce en qué medida las guías clínicas están contribuyendo a mejorar la calidad del sistema de salud o mejorar los resultados de salud de la población.</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -1928,7 +1928,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>próxima década gran parte crecimiento provisión participación secundaria superior requerirá mayor eficiencia despliegue maestros mejor alineación ofertas programas tamaño escuela mayor participación escuela secundaria superior requerirá mayor atención relevancia educación vida trabajo perspectivas aprendizaje estudiantes</t>
+          <t>La próxima década, por lo tanto, será en gran parte de crecimiento en la provisión y participación en la secundaria superior. Esto requerirá una mayor eficiencia en el despliegue de maestros y una mejor alineación de las ofertas de programas con el tamaño de la escuela. Una mayor participación en la escuela secundaria superior también requerirá una mayor atención a la relevancia de la educación para la vida, el trabajo y las perspectivas de aprendizaje de los estudiantes.</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -1938,7 +1938,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>sistemas protección social esenciales lograr desarrollo inclusivo proporcionar estabilizadores automáticos períodos crisis proporcionando ingresos adicionales pobres permitiéndoles mantener acceso alimentos servicios básicos pueden considerar varios tipos programas pma medidas generación empleo programas transferencia efectivo servicios sociales específicos programas microfinanciación redes seguridad social fragmentadas existen países carecen marco sistemas bienestar institucionalizados redes seguridad social adecuadamente entregadas coherentes brindan cobertura proteger mayoría poblaciones vulnerables</t>
+          <t>Los sistemas de protección social son esenciales para lograr un desarrollo inclusivo al proporcionar estabilizadores automáticos durante los períodos de crisis proporcionando ingresos adicionales a los pobres y permitiéndoles mantener el acceso a alimentos y servicios básicos. Se pueden considerar varios tipos de programas para los PMA, como medidas de generación de empleo, programas de transferencia de efectivo, servicios sociales específicos y programas de microfinanciación. Las redes de seguridad social fragmentadas que existen en estos países carecen del marco de los sistemas de bienestar institucionalizados. Estas redes de seguridad social no están adecuadamente entregadas, no son coherentes y no brindan cobertura para proteger a la mayoría de las poblaciones vulnerables.</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -1948,7 +1948,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>evitar percepción inequidad enfoque diferente consiste pagar misma cantidad transferencia efectivo país añadiendo subsidios vales pobres urbanos permitan acceder transporte servicios embargo pobreza urbana privaciones aumentan pesar tasas nacionales pobreza reducido mitad además políticas lucha pobreza intervenciones protección social siguen sesgadas hacia pobres zonas rurales</t>
+          <t>Para evitar la percepción de inequidad, un enfoque diferente consiste en pagar la misma cantidad de transferencia de efectivo en todo el país, pero añadiendo subsidios o vales para los pobres urbanos que les permitan acceder al transporte y a otros servicios. Sin embargo, la pobreza urbana y las privaciones aumentan a pesar de que las tasas nacionales de pobreza se han reducido a la mitad. Además, las políticas de lucha contra la pobreza y las intervenciones de protección social siguen estando sesgadas hacia los pobres de las zonas rurales.</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -1958,7 +1958,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>australia honos obligatoria medida resultado estándar pacientes reciben atención salud mental hospitalaria ambulatoria espera pacientes completen honos menos dos veces jacobs gobierno holandés introdujo mercado seguros competitivo asistencia sanitaria incluida salud mental</t>
+          <t>En Australia, la HoNOS es obligatoria como medida de resultado estándar para todos los pacientes que reciben atención de salud mental hospitalaria o ambulatoria. Se espera que todos los pacientes completen la HoNOS al menos dos veces (Jacobs, 2009). En 2006, el Gobierno holandés introdujo un mercado de seguros competitivo para la asistencia sanitaria, incluida la salud mental.</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -1968,7 +1968,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>lander cubrieron gasto educación primaria secundaria postsecundaria terciaria pública privada autoridades locales cubrieron nivel federal educación extraescolar sistema dual financiada gran parte empresas mientras escuelas formación profesional financiadas lander</t>
+          <t>En 2009, los Lander cubrieron el 72,2% del gasto en educación primaria, secundaria y postsecundaria no terciaria (tanto pública como privada). Las autoridades locales cubrieron el 17,5% y el nivel federal el 10,3%. La educación extraescolar en el sistema dual es financiada en gran parte por las empresas, mientras que las escuelas de formación profesional son financiadas por el Lander.</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -1978,7 +1978,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>países estudiantes alto rendimiento sienten atraídos docencia encuestas docentes servicio menudo muestran maestros actuales motivados beneficios intrínsecos enseñanza trabajar niños ayudarlos desarrollarse hacer contribución sociedad mientras estudios encuestan grandes grupos graduados opciones carrera muestran salarios relativos ocupaciones graduados juegan papel elecciones si salarios docentes sido altos docentes potenciales considerado seriamente carrera enseñanza nivel país resultados indican salarios docentes estatus social profesión docente asocian positivamente expectativas estudiantes trabajar docentes</t>
+          <t>¿En qué países los estudiantes de alto rendimiento se sienten atraídos por la docencia? Las encuestas de docentes en servicio a menudo muestran que los maestros actuales están muy motivados por los beneficios intrínsecos de la enseñanza: trabajar con niños y ayudarlos a desarrollarse y hacer una contribución a la sociedad, mientras que los estudios que encuestan a grandes grupos de graduados sobre sus opciones de carrera muestran que la los salarios relativos de las ocupaciones de los graduados juegan un papel en sus elecciones: si los salarios de los docentes hubieran sido más altos, más "docentes potenciales" habrían considerado seriamente una carrera en la enseñanza. A nivel de país, los resultados indican que tanto los salarios de los docentes como la estatus social de la profesión docente se asocian positivamente con las expectativas de los estudiantes de trabajar como docentes.</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -1988,7 +1988,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>reducción mortalidad infantil sido lenta india federación rusia unidos observan diferencias significativas tasas mortalidad infantil distintos grupos raciales unidos siendo mujeres afroamericanas probabilidades dar luz bebés alto riesgo bajo peso nacer nchs dispone datos correspondientes israel sudáfrica influyen factores mejor nutrición saneamiento vivienda países economías desarrollo diferencias notables esperanza vida países ocde ingresos per cápita similares japón dinamarca</t>
+          <t xml:space="preserve">La reducción de la mortalidad infantil ha sido más lenta en la India, la Federación de Rusia y los Estados Unidos. También se observan diferencias significativas en las tasas de mortalidad infantil entre los distintos grupos raciales de Estados Unidos, siendo las mujeres afroamericanas las que tienen más probabilidades de dar a luz a bebés de alto riesgo y bajo peso al nacer (NCHS, 2011). No se dispone de datos correspondientes a 1970 para Israel y Sudáfrica. También influyen otros factores, como una mejor nutrición, saneamiento y vivienda, sobre todo en los países con economías en desarrollo. También hay diferencias notables en la esperanza de vida entre países de la OCDE con ingresos per cápita similares, como Japón y Dinamarca. </t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -1998,7 +1998,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>embargo estudio analizó costo sistema autores especulan si creen intervenciones ahorraron dinero general costo incremental año vida ajustado calidad ganado pib atención domiciliaria unidad accidentes cerebrovasculares lleva autores concluir perspectivas costos importantes evalúan servicios accidentes cerebrovasculares mejores resultados salud unidad accidentes cerebrovasculares vienen mayor costo actualmente encima umbral habitual aceptar nuevas tecnologías inglaterra resultado particularmente probable surja sistemas atención hospitalaria social brindada agencias separadas inglaterra gales servicios salud poder multar gobiernos locales tarifa diaria demoras alta causadas fallas atención social local modelo alternativo alentó hospitales locales servicios atención social trabajar colaboración mediante solicitud subvenciones especiales mejorar servicios comunitarios</t>
+          <t>Sin embargo, el estudio no analizó el costo del sistema y los autores no especulan si creen que las intervenciones ahorraron dinero en general. El costo incremental por año de vida ajustado por calidad ganado fue del PIB 64 097 entre la atención domiciliaria y la unidad de accidentes cerebrovasculares, lo que lleva a los autores a concluir que las perspectivas de costos son importantes cuando se evalúan los servicios de accidentes cerebrovasculares y que los mejores resultados de salud en la unidad de accidentes cerebrovasculares vienen en un mayor costo (actualmente por encima del umbral habitual para aceptar nuevas tecnologías en Inglaterra). Este resultado es particularmente probable que surja en sistemas donde la atención hospitalaria y social es brindada por agencias separadas. En Inglaterra y Gales, los servicios de salud tienen el poder de multar a los gobiernos locales con una tarifa diaria por demoras en el alta causadas por fallas en la atención social local. Un modelo alternativo fue que se alentó a los hospitales locales y los servicios de atención social a trabajar en colaboración mediante la solicitud de subvenciones especiales para mejorar los servicios comunitarios.</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2008,7 +2008,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>todas instituciones educación superior galilea excepción carmel academic college nazareth academic institution instituciones presupuestadas significa reciben asignaciones presupuestarias comité planificación presupuesto pbc colegios formación docente bajo responsabilidad pbc sino ministerio educación asignaciones directas colegios dividen tres categorías principales i asignaciones globales ii asignaciones específicas iii asignaciones contrapartida</t>
+          <t>Todas las instituciones de educación superior en Galilea, con la excepción del Carmel Academic College y la Nazareth Academic Institution, son instituciones “presupuestadas”, lo que significa que reciben asignaciones presupuestarias del Comité de Planificación y Presupuesto (PBC). Los colegios de formación docente no están bajo la responsabilidad del PBC sino del Ministerio de Educación. Las asignaciones directas a los colegios se dividen en tres categorías principales: i) asignaciones globales, ii) asignaciones específicas y iii) asignaciones de contrapartida.</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2018,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>según resultados encuesta nacional servicios eps realizada msps promedio afiliados esperaron diez días consulta médico general eps sr comparación eps cr msps estimó participación pagos bolsillo colombia financiamiento sistema salud ve capítulo si bien oms estimó oop colombia alto alrededor aún encontraba bajos américa latina figura debajo promedio ocde alrededor costo compartido determinado régimen pertenece persona vulnerabilidad socioeconómica evaluada medida índice denominado sisben afiliados sr realizan copagos servicios si pertenecen sisben personas vulnerables pagan solo tasa coaseguro si pertenecen sisben</t>
+          <t>Según los resultados de una encuesta nacional sobre los servicios de EPS realizada por el MSPS en 2014, el promedio de afiliados que esperaron más de diez días para una consulta con un médico general fue de 10,1% entre las EPS de la SR, en comparación con 13,3% entre las EPS de la CR. El MSPS estimó que la participación de los pagos de bolsillo en Colombia fue del 15,2% del financiamiento del sistema de salud en 2012 (como se ve en el Capítulo 1). Si bien la OMS estimó que el OOP en Colombia fue algo más alto (alrededor del 17 %) en 2012, aún se encontraba entre los más bajos de América Latina (Figura 2.1) y también por debajo del promedio de la OCDE de alrededor del 20 %. El costo compartido está determinado tanto por el régimen al que pertenece la persona como por su vulnerabilidad socioeconómica evaluada, medida por un índice denominado SISBEN. Los afiliados al SR no realizan copagos por servicios si pertenecen al SISBEN 1 (personas más vulnerables) y pagan solo una tasa de coaseguro del 5% si pertenecen al SISBEN 2.</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2028,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>diabetes causa días baja laboral datos eeuu muestran diabetes aumenta número días baja laboral días año mujeres tunceli et días periodo semanas caso diabetes complicaciones ng et mientras estudio estadounidense demostró diabetes responsable millones dólares pérdida ingresos jubilación anticipada vijan et estudio estadounidense encontró pruebas relación causal diabetes edad jubilación total dwyer et cáncer impacto negativo probabilidad empleo horas trabajadas absentismo laboral fuerza efecto cáncer resultados mercado laboral depende características individuales características enfermedad</t>
+          <t>La diabetes causa más días de baja laboral. Los datos de EE.UU. muestran que la diabetes aumenta el número de días de baja laboral en 2 días al año en las mujeres (Tunceli et al, 2005), y hasta 3,2 días en un periodo de 2 semanas en el caso de la diabetes con complicaciones (Ng et al, 2001). Mientras que un estudio estadounidense demostró que, entre 1992 y 2000, la diabetes fue responsable de 4.400 millones de dólares en pérdida de ingresos por jubilación anticipada (Vijan et al, 2009), otro estudio estadounidense no encontró pruebas de una relación causal entre la diabetes y la edad de jubilación total (Dwyer et al, El cáncer tiene un impacto negativo en la probabilidad de empleo, las horas trabajadas y el absentismo laboral. La fuerza del efecto del cáncer en los resultados del mercado laboral depende de las características individuales y de las características de la enfermedad.</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2038,7 +2038,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>reduce capacidad sistema protección social etiopía desempeñar papel transformador romper transmisión intergeneracional pobreza aumentar acceso servicios sociales calidad educación sanidad servicios niños adultos necesidades especiales mejorar tasas finalización estudios primarios fomentar introducción servicios atención primera infancia allí existan</t>
+          <t>Esto reduce la capacidad del sistema de protección social de Etiopía para desempeñar un papel transformador y romper la transmisión intergeneracional de la pobreza. Aumentar el acceso a servicios sociales de calidad como la educación, la sanidad y otros servicios para niños y adultos con necesidades especiales. Mejorar las tasas de finalización de los estudios primarios. Fomentar la introducción de servicios de atención a la primera infancia allí donde no existan.</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -2048,7 +2048,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>ejemplo república eslovaca españa pacientes deben pagar ciertos productos farmacéuticos innovadores proporcionan forma gratuita demás países canadá pacientes deben pagar productos farmacéuticos utilizados tratar enfermedades afecciones distintas cáncer pacientes cáncer menores años utilizan hospitales dinamarca suecia utilizan sector privado portugal dinamarca suecia existen límites máximos pago primero pacientes enfermedades crónicas uso permanente alto medicamentos allá cuales medicamentos proporcionan forma gratuita</t>
+          <t>Por ejemplo, en la República Eslovaca y España, los pacientes deben pagar ciertos productos farmacéuticos innovadores que se proporcionan de forma gratuita en los demás países. En Canadá, los pacientes deben pagar los productos farmacéuticos utilizados para tratar enfermedades o afecciones distintas del cáncer (para pacientes con cáncer menores de 65 años), los que se utilizan fuera de los hospitales en Dinamarca y Suecia, y los que se utilizan en el sector privado en Portugal. En Dinamarca y Suecia, también existen límites máximos de pago (en el primero, para pacientes con enfermedades crónicas con uso permanente o alto de medicamentos), más allá de los cuales los medicamentos se proporcionan de forma gratuita.</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -2058,7 +2058,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>korpi palme sugirieron existencia paradoja beneficios dirigidos pobres logran menor redistribución beneficios universales razón principal beneficios universales reciben apoyo popular amplio tasa pago puede fijarse nivel alto objetivos evidencia reciente sugiere embargo focalización necesariamente asociada niveles bajos redistribución kenworthy marx salanauskaite and verbist jacques and noel manera similar datos series temporales cortas diris vandenbroucke verbist ooj encontraron mayor propobreza conduce menudo menores tasas pobreza tamaños efecto bastante modestos dependen gran medida cómo define focalización</t>
+          <t>Korpi y Palme, 1998(25]) sugirieron la existencia de una paradoja en que los beneficios dirigidos a los pobres logran una menor redistribución que los beneficios universales, la razón principal es que los beneficios universales reciben un apoyo popular más amplio, por lo que su tasa de pago puede fijarse en un nivel más alto que los objetivos. La evidencia reciente sugiere, sin embargo, que la focalización ya no está necesariamente asociada con niveles más bajos de redistribución (Kenworthy, 2011 [26]), (Marx, Salanauskaite and Verbist, 2013(27]), (Jacques and Noel, 2018(28]) De manera similar, con datos de series temporales cortas de 2004 a 2011, (Diris, Vandenbroucke y Verbist, 2017ooj) encontraron que una mayor pro-pobreza conduce a menudo a menores tasas de pobreza, pero que los tamaños del efecto son bastante modestos y dependen en gran medida de cómo se define la focalización.</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -2068,7 +2068,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>además obligación legal dar cada alumno ayuda necesaria obtener calificación aprobatoria vista municipios nivel aspiracional snae inspección escolar necesario aumentar ambiciones asignar claramente responsabilidades sistema educativo particular dentro administraciones municipales ocde descentralización coincidió introducción nuevo currículo menos concreto anterior</t>
+          <t>Además, la obligación legal de dar a cada alumno la ayuda necesaria para obtener la calificación aprobatoria es vista en muchos municipios como un nivel aspiracional (SNAE, 2009, Inspección Escolar, 2014). Es necesario aumentar las ambiciones y asignar claramente las responsabilidades en todo el sistema educativo, en particular dentro de las administraciones municipales (OCDE, 2015). La descentralización coincidió con la introducción de un nuevo currículo mucho menos concreto que el anterior.</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -2078,7 +2078,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>microrregiones hungría subregiones estadísticas microrregiones total budapest incluida sistema atención diurna comprende servicios atención salud brindan pacientes ingresan formalmente hospitales establecimientos ambulatorios centros autónomos intención dar alta paciente mismo día</t>
+          <t>Las microrregiones en Hungría son subregiones estadísticas. Hay 149 microrregiones en total y Budapest no está incluida en el sistema. La atención diurna comprende los servicios de atención de la salud que se brindan a los pacientes que ingresan formalmente en hospitales, establecimientos ambulatorios o centros autónomos, pero con la intención de dar de alta al paciente el mismo día.</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2088,7 +2088,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>reforma permitirá muchas comunidades locales mantengan instalaciones hospitalarias muchas brindarán conjunto diferente pequeño servicios coordinados hospitales ubicados cerca especializados rehabilitación molestias además parte impulso mejorar eficiencia calidad servicios nhif restringido contratos departamentos obstetricia cirugía volúmenes anuales sido inferiores nacimientos cirugías complejas lituania puesto énfasis ampliar servicios atención primaria ambulatoria día</t>
+          <t>Este reforma permitirá que muchas comunidades locales mantengan sus instalaciones hospitalarias, pero muchas de ellas brindarán un conjunto diferente y más pequeño de servicios, coordinados con hospitales ubicados cerca o especializados en rehabilitación y molestias. Además, desde 2015, como parte del impulso para mejorar la eficiencia y la calidad de los servicios, NHIF ha restringido los contratos para los departamentos de obstetricia y cirugía cuando los volúmenes anuales han sido inferiores a 300 nacimientos y 400 cirugías complejas. Lituania ha puesto mucho énfasis en ampliar los servicios de atención primaria, ambulatoria y de día.</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -2098,7 +2098,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>nueva metodología ofrece medida actualizada precisa permite mejor comparabilidad medidas países latinoamericanos ventajas incluyen actualizar continuamente hábitos consumo utilizar mejor medida ingresos pobreza extrema disminuyó pasando mismo período</t>
+          <t>Esta nueva metodología ofrece una medida actualizada y más precisa que permite una mejor comparabilidad con las medidas de otros países latinoamericanos. Sus ventajas incluyen actualizar continuamente los hábitos de consumo y utilizar una mejor medida de los ingresos. La pobreza extrema también disminuyó, pasando del 18% al 11% en el mismo período.</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -2108,7 +2108,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>letonia moviendo dirección plan desarrollo atención primaria salud esfuerza mejorar calidad accesibilidad servicios salud mejora actividades preventivas evitar personas reciban atención hospitalaria costosa letonia demostrado puede utilizar fuerza laboral manera innovadora mejorar acceso atención primaria necesita fortalecer papel desempeñan médicos cabecera profesionales salud promoción salud particular educando pacientes autocontrol enfermedades crónicas sección describe estructura sistema atención primaria salud letonia fuerza laboral desafíos</t>
+          <t>Letonia se está moviendo en esa dirección con un Plan de Desarrollo de la Atención Primaria de la Salud que se esfuerza por mejorar la calidad y la accesibilidad de los servicios de salud y mejora las actividades preventivas para evitar que las personas reciban una atención hospitalaria más costosa. Letonia ha demostrado que puede utilizar su fuerza laboral de manera innovadora para mejorar el acceso a la atención primaria, pero necesita fortalecer el papel que desempeñan los médicos de cabecera y otros profesionales de la salud en la promoción de la salud, en particular educando a los pacientes sobre el autocontrol de las enfermedades crónicas. La Sección 3.1 describe la estructura del sistema de atención primaria de salud de Letonia, la fuerza laboral y otros desafíos.</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2118,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>mitad empleados región edades años solo años menos escolaridad ver figura alumnos grado galilea distrito norte obtuvo certificado matriculación comparación promedio nacional debido accesibilidad limitada educación superior solo graduados escuela galilea inscribieron primer año estudios postsecundarios instituciones educación superior israel comparación promedio nacional</t>
+          <t>En 2005, más de la mitad de los 388 000 empleados de la región entre las edades de 18 y 64 años tenían solo 12 años o menos de escolaridad (ver figura 1.6.). En 2005, el 52,8% de los alumnos de 12º grado en Galilea (Distrito Norte) obtuvo un certificado de matriculación, en comparación con el promedio nacional de 55,1%. Debido a la accesibilidad limitada a la educación superior, en 2004 solo el 39% de los graduados de la escuela de Galilea se inscribieron en el primer año de estudios postsecundarios en una de las instituciones de educación superior de Israel, en comparación con el promedio nacional de 43,9%.</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2128,7 +2128,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>paquetes revisan regularmente través consultas sector industria garantizar cursos sigan siendo relevantes efectivos implementaron proyectos nacionales estandarización calificación capacitación maestros cuidado infantil resultó provisión lista materias capacitación maestros estándar pautas práctica campo currículo capacitación servicio estándar espera implementación hará cumplir ley ocurra debido cambios entornos vida niños formas crianza niños parte padres aumentaron expectativas papel calidad guarderías</t>
+          <t>Los paquetes se revisan regularmente a través de consultas con el sector de la industria para garantizar que los cursos sigan siendo relevantes y efectivos. En 2009, se implementaron los Proyectos Nacionales de Estandarización para la Calificación y Capacitación de Maestros de Cuidado Infantil, lo que resultó en la provisión de una Lista de Materias de Capacitación de Maestros Estándar y Pautas de Práctica de Campo, y el Currículo de Capacitación en Servicio Estándar. Se espera que la implementación de estos, que se hará cumplir por ley, ocurra en 2013. Debido a los cambios en los entornos de vida de los niños y en las formas de crianza de los niños por parte de los padres, aumentaron las expectativas sobre el papel y la calidad de las guarderías. .</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2138,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>cuarto ods objetivo garantizar educación calidad inclusiva equitativa promover oportunidades aprendizaje permanente planeta sostenible próspero equitativo incumplimiento ods particular pone riesgo logro ods conjunto</t>
+          <t>El cuarto ODS tiene como objetivo "Garantizar una educación de calidad inclusiva y equitativa y promover oportunidades de aprendizaje permanente para todos". un planeta sostenible, próspero y equitativo que el incumplimiento de este ODS en particular pone en riesgo el logro de los 17 ODS en su conjunto.</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2148,7 +2148,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>bajos niveles aplican quintil ingresos bajos necesidad insatisfecha reportada situó comparación ue ejemplo parte mínima costos cubiertos intervenciones urgentes terapia intensiva cirugía especializada ortodoncia ayudas productos farmacéuticos lista positiva cubierta hiis niños estudiantes años así grupos vulnerables exentos copagos</t>
+          <t>Estos bajos niveles también se aplican al quintil de ingresos más bajos, donde la necesidad insatisfecha reportada se situó en el 0,1 % en comparación con el 4,1 % en la UE (2015). Por ejemplo, la parte mínima de los costos cubiertos es del 90 % para intervenciones urgentes y terapia intensiva, el 80 % para cirugía especializada, ortodoncia y otras ayudas, y el 70 % para productos farmacéuticos en la lista positiva cubierta por el HIIS. Los niños y estudiantes hasta los 26 años, así como los grupos vulnerables, están exentos de todos los copagos.</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -2158,7 +2158,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>proporción profesores abandonan profesión mantenido estable últimos años adermon laun obstante encuesta realizada profesores formados abandonado profesión indicó encuestados citaron entorno trabajo estrés gran carga trabajo principales motivos abandonar profesión docente seguido condiciones trabajo salario statistics sweden alrededor abandonaron profesión docente considerarían volver carga trabajo razonable relación horario laboral mayor oportunidad controlar situación laboral salario alto statistics sweden m profesores suecia trabajan horas colegas países ocde</t>
+          <t>La proporción de profesores que abandonan la profesión se ha mantenido estable en los últimos 20 años (Adermon y Laun, 2018(123))- No obstante, una encuesta realizada a profesores formados que habían abandonado la profesión indicó que más del 70 % de los encuestados citaron el entorno de trabajo (como el estrés y la gran carga de trabajo) entre los principales motivos para abandonar la profesión docente, seguido de las condiciones de trabajo y el salario (Statistics Sweden, 2017(128]). Alrededor del 60 % de los que abandonaron la profesión docente considerarían volver por una carga de trabajo más razonable en relación con el horario laboral, una mayor oportunidad de controlar la situación laboral y un salario más alto (Statistics Sweden, 2017[m]). Los profesores de Suecia también trabajan más horas que sus colegas de muchos países de la OCDE.</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2168,7 +2168,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>hecho comprobado educación primera infancia factores determinantes preparación niño escuela países renta alta renta baja participación aprendizaje organizado año edad oficial entrada escuela primaria aumentado constantemente últimos años nivel mundial tasa participación educación primera infancia frente embargo observaron considerables disparidades países tasas oscilaban casi</t>
+          <t>De hecho, se ha comprobado que la educación en la primera infancia es uno de los factores más determinantes de la preparación de un niño para la escuela, tanto en los países de renta alta como en los de renta baja. La participación en el aprendizaje organizado un año antes de la edad oficial de entrada en la escuela primaria ha aumentado constantemente en los últimos años. A nivel mundial, la tasa de participación en la educación de la primera infancia fue del 69% en 2017, frente al 63% en 2010. Sin embargo, se observaron considerables disparidades entre los países, con tasas que oscilaban entre el 7% y casi el 100%.</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -2178,7 +2178,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>estudios alemania japón países ocde informaron menos muertes influenza enfermedades respiratorias momentos desempleo alto lugar bajo suhrcke et embargo capacidad país responder riesgos emergentes primordial largo plazo objetivos sistema salud dramático aumento número nuevos casos vih notificados atenas grecia usuarios drogas inyectables ejemplo</t>
+          <t>Los estudios de Alemania, Japón y otros países de la OCDE informaron menos muertes por influenza y enfermedades respiratorias durante los momentos en que el desempleo era alto en lugar de bajo (Suhrcke et al., Sin embargo, la capacidad de un país para responder a los riesgos emergentes es primordial para el largo plazo). Los objetivos del sistema de salud El dramático aumento en el número de nuevos casos de VIH notificados desde 2010 en Atenas, Grecia, entre usuarios de drogas inyectables es un ejemplo de esto.</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -2188,7 +2188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>primer lugar protección social amplíe cubrir mayor proporción población frente gama amplia riesgos segundo lugar fuentes nacionales financien mayor proporción gasto último objetivo refleja hecho apoyo donantes protección social etiopía conjunto disminuyendo relación fuentes ingresos medida país acerca objetivo alcanzar estatus país renta media</t>
+          <t>En primer lugar, que la protección social se amplíe para cubrir a una mayor proporción de la población frente a una gama más amplia de riesgos. En segundo lugar, que las fuentes nacionales financien una mayor proporción del gasto. Este último objetivo refleja el hecho de que el apoyo de los donantes a la protección social - como para Etiopía en su conjunto - está disminuyendo en relación con otras fuentes de ingresos a medida que el país se acerca a su objetivo de alcanzar el estatus de país de renta media.</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -2198,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>dice medicina tradicional eficaz tratamiento afecciones psíquicas psicosomáticas debe curanderos conocen antecedentes paciente tiempo conservan cultura africana países practicantes medicina tradicional registrados asociaciones</t>
+          <t>También se dice que la medicina tradicional es más eficaz en el tratamiento de afecciones psíquicas y psicosomáticas. Esto se debe a que los curanderos conocen los antecedentes del paciente, al tiempo que conservan la cultura africana. Hay países donde los practicantes de medicina tradicional están registrados y tienen asociaciones.</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -2208,7 +2208,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>autonomía escolar contenido contratación salarios asocia mejores resultados aprendizaje estudiantes promedio hanushek et resultados descomposición muestran parte explicada brecha rendimiento impulsada diferencias responsabilidad currículo recursos primer término lado derecho corresponde parte diferencia desempeño educativo atribuible características individuales escolares docentes observadas decir cuánto notarían manera diferente estudiantes cuartil inferior si mismas características individuales académicas características escuela estudiantes cuartil superior escs segundo término efecto retorno muestra cuánto hipotéticamente mejores estudiantes escs bajos si experimentaran mismo proceso producción escolarización dadas propias características actividades curriculares escuelas impulsor brechas socioeconómicas rendimiento actividades escuela apela ser factor importante suiza turquía unidos ejemplo</t>
+          <t>La autonomía escolar en contenido, contratación y salarios también se asocia con mejores resultados de aprendizaje de los estudiantes en promedio (Hanushek et al., Los resultados de la descomposición muestran que el 11 % de la parte explicada de la brecha de rendimiento está impulsada por diferencias en la responsabilidad por el currículo y los recursos El primer término del lado derecho corresponde a la parte de la diferencia en el desempeño educativo atribuible a las características individuales, escolares y docentes observadas, es decir, cuánto notarían de manera diferente los estudiantes en el cuartil inferior si tuvieran las mismas características individuales y académicas. características de la escuela como estudiantes en el cuartil superior ESCS El segundo término, el efecto de retorno, muestra cuánto hipotéticamente serían mejores los estudiantes con ESCS bajos si experimentaran el mismo proceso de producción de escolarización dadas sus propias características. las actividades curriculares en las escuelas también es un impulsor de las brechas socioeconómicas en el rendimiento. actividades en la escuela apela a ser un factor importante en Suiza, Turquía y los Estados Unidos, por ejemplo.</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2218,7 +2218,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>caso solicitantes asilo difícil rastrear si niños cuales terminan detenidos acceso educación recuadro caso refugiados si bien fácil informar matriculación escolar refugiados campamentos datos matriculación refugiados registrados zonas urbanas suelen disponibles pocos países identifican explícitamente condición refugiado censos escolares turquía refugiados sirios viven campamentos acnur c excepción</t>
+          <t>En el caso de los solicitantes de asilo, es muy difícil rastrear si los niños, algunos de los cuales terminan detenidos, tienen acceso a la educación (Recuadro 4.1). En el caso de los refugiados, si bien es más fácil informar sobre la matriculación escolar de los refugiados en los campamentos, los datos de matriculación de los refugiados registrados en las zonas urbanas también suelen estar disponibles. Pocos países identifican explícitamente la condición de refugiado en los censos escolares. Turquía, donde el 93 % de los refugiados sirios viven fuera de los campamentos (ACNUR, 2018c), es una excepción.</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -2228,7 +2228,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>reorganización tiempo aprendizaje estudiantes junto reducción tamaño clases aumento salarios docentes convertido ideas clave reasignación nuevos recursos disponibles países número decreciente estudiantes dado argumenta recurso valioso proceso educativo duda tiempo aprendizaje estudiantes ocde optimización recurso presentado medidas clave mejorar rendimiento estudiantes carroll scheerens bosker marzano si bien estudiantes adquieren habilidades conocimientos muchas maneras diferentes documento concentrará principalmente tiempo estudiantes pasan aprendiendo lecciones escolares regulares considerará participación programas verano después escuela actividades extracurriculares</t>
+          <t>La reorganización del tiempo de aprendizaje de los estudiantes, junto con la reducción del tamaño de las clases y el aumento de los salarios de los docentes, se ha convertido en una de las ideas clave para la reasignación de los nuevos recursos disponibles en países con un número decreciente de estudiantes. Dado que se argumenta que "el recurso más valioso en el proceso educativo es sin duda el tiempo de aprendizaje de los estudiantes" (OCDE, 2004: 240), la optimización de este recurso se ha presentado como una de las medidas clave para mejorar el rendimiento de los estudiantes (Carroll, 1989, Scheerens y Bosker, 1997, Marzano, 2003). Si bien los estudiantes adquieren habilidades y conocimientos de muchas maneras diferentes, este documento se concentrará principalmente en el tiempo que los estudiantes pasan aprendiendo en las lecciones escolares regulares y también considerará su participación en programas de verano y después de la escuela y actividades extracurriculares.</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -2238,7 +2238,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>empleo pleno productivo meta clave desarrollo sostenible inteligencia artificial gobiernos pueden analizar grandes bases datos laborales identificar sectores emergentes diseñar programas capacitación ajustados demanda real mercado además ia puede monitorear calidad empleo detectar condiciones precarias proponer estrategias formalización herramientas digitales apoyan trabajadores búsqueda empleo mediante sistemas recomendación conectan habilidades vacantes disponibles manera ia contribuye creación empleos dignos inclusivos</t>
+          <t>El empleo pleno y productivo es una meta clave del desarrollo sostenible. Con la inteligencia artificial, los gobiernos pueden analizar grandes bases de datos laborales para identificar sectores emergentes y diseñar programas de capacitación ajustados a la demanda real del mercado. Además, la IA puede monitorear la calidad del empleo, detectar condiciones precarias y proponer estrategias de formalización. Herramientas digitales también apoyan a trabajadores en la búsqueda de empleo mediante sistemas de recomendación que conectan sus habilidades con las vacantes disponibles. De esta manera, la IA contribuye a la creación de empleos más dignos e inclusivos.</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -2248,7 +2248,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>embargo pueden ver signos alentadores iniciativa estigma hjarnkoll estudio encontró medido mejoras ejemplo opiniones mejorado frente opinión pública tener persona enfermedad mental vecino cada dos personas inicialmente expresaron desaprobación cambiado opinión número camas psiquiátricas cada habitantes reducido mitad últimas dos décadas pasando aumento financiación servicios ambulatorios puede ayudar explicar disminución</t>
+          <t>Sin embargo, se pueden ver signos alentadores en la iniciativa contra el estigma de Hjarnkoll, ya que un estudio encontró que se han medido mejoras entre 2009 y 2011 (por ejemplo, las opiniones han mejorado frente a la opinión pública de tener una persona con una enfermedad mental como vecino, y una de cada dos personas que inicialmente expresaron su desaprobación ha cambiado de opinión). El número de camas psiquiátricas (por cada 100 000 habitantes) se ha reducido a la mitad durante las últimas dos décadas, pasando de 0,95 en 1995 a 0,48 en 2010. El aumento de la financiación de los servicios ambulatorios puede ayudar a explicar esta disminución.</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -2258,7 +2258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>obstante productividad hospitales ido disminuyendo finales década persisten grandes diferencias regionales eficiencia costo resultados aaltonen hakkinen duración media estancia hospitales larga mayoría condiciones ocde b municipios tienden quejarse dificultades controlar costos debido asimetría información hospitales así estándares fijados nivel nacional ocde</t>
+          <t>No obstante, la productividad de los hospitales ha ido disminuyendo desde finales de la década de 1990 y persisten grandes diferencias regionales en eficiencia, costo y resultados (Aaltonen, 2007, Hakkinen, 2010). La duración media de la estancia en los hospitales es larga para la mayoría de las condiciones (OCDE, 2010b). Los municipios tienden a quejarse de las dificultades para controlar los costos debido a la asimetría de información entre los hospitales y ellos, así como a los estándares fijados a nivel nacional (OCDE, 2005).</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>áreas rurales grupos distrito involucran personas discapacitadas padres maestros niños identifican personas discapacitadas aseguran suficientes materiales enseñanza aprendizaje maestros auxiliares hacen ambiente aprendizaje acogedor organizan eventos crear conciencia recolectan fondos educación física mejoras acceso trabajo familias fundamental alentarlas escolarizar hijos discapacitados convertirse aliadas lucha derechos educación estudios casos utilizan promoción nacional internacional cambios leyes políticas programas desarrollo relevantes educación inclusiva</t>
+          <t>En las áreas rurales, 11 grupos de distrito involucran a personas discapacitadas, padres, maestros y niños que se identifican como personas discapacitadas, aseguran suficientes materiales de enseñanza y aprendizaje y maestros auxiliares, hacen que el ambiente de aprendizaje sea acogedor, organizan eventos para crear conciencia y recolectan fondos para educación física. mejoras de acceso. El trabajo con las familias fue fundamental para alentarlas a escolarizar a sus hijos discapacitados y convertirse en aliadas en su lucha por los derechos y la educación. Los estudios de casos se utilizan en la promoción nacional e internacional de cambios en las leyes, políticas y programas de desarrollo relevantes para la educación inclusiva.</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2278,7 +2278,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>falta pruebas sólidas medición seguridad pacientes entornos atención primaria ambulatoria puede explicarse parte naturaleza fragmentada entorno descrita introducción hecho respuestas encuesta sugieren carácter fragmentado sistemas atención primaria ambulatoria falta gobernanza general sistema principal obstáculo aplicación medidas intervenciones seguridad véase capítulo significa información rara vez puede vincularse obstáculos técnicos pueden impedir captar precisión imagen completa frecuencia magnitud daños sufridos pacientes largo recorrido</t>
+          <t>La falta de pruebas sólidas de la medición de la seguridad de los pacientes en los entornos de atención primaria y ambulatoria puede explicarse en parte por la naturaleza fragmentada de este entorno descrita en la introducción. De hecho, las respuestas a la encuesta sugieren que el carácter fragmentado de los "sistemas" de atención primaria y ambulatoria y la falta de gobernanza general del sistema son el principal obstáculo para la aplicación de medidas e intervenciones de seguridad (véase el capítulo 4). Esto significa que la información rara vez puede vincularse. Estos obstáculos técnicos pueden impedir captar con precisión la imagen completa de la frecuencia y magnitud de los daños sufridos por los pacientes a lo largo de su recorrido.</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -2288,7 +2288,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>líder escolar enfatizó importancia recibir capacitación específica rol líder escolar principios década noruega contaba ningún programa desarrollo particular líderes escolares entonces desarrollado cursos nacionales nivel maestría líderes escolares entrevistados participado programas encuesta internacional enseñanza aprendizaje ocde ocde destaca importancia enseñanza equipo noruega equipos docentes ofrecen oportunidades docentes reflexionen trabajo discutan prácticas docentes</t>
+          <t>Un líder escolar enfatizó la importancia de recibir capacitación específica para el rol de líder escolar, pero hasta principios de la década de 2000, Noruega no contaba con ningún programa de desarrollo particular para líderes escolares. Desde entonces, se han desarrollado cursos nacionales de nivel de maestría y algunos de los líderes escolares entrevistados habían participado en estos programas. La Encuesta Internacional de Enseñanza y Aprendizaje de la OCDE (OCDE, 2009) destaca la importancia de la enseñanza en equipo en Noruega. Los equipos de docentes ofrecen oportunidades para que los docentes reflexionen sobre su trabajo y discutan sus prácticas docentes.</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -2298,7 +2298,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>mejorar eficacia formas directas enseñanza educación superior desafío clave muchas instituciones especialmente aprendizaje basado problemas factible todas circunstancias encontrado serie atributos enseñanza organización expresividad entusiasmo relacióninteracción relación positiva indicadores aprendizaje persistencia estudiantes realidad existe dicotomía aprendizaje basado problemas enfoques enseñanza aprendizaje tradicionales formuladores políticas profesionales beneficiarían mejor comprensión prácticas específicas efectivas fomentar diferentes conjuntos habilidades</t>
+          <t>Mejorar la eficacia de las formas directas de enseñanza de la educación superior es un desafío clave para muchas instituciones, especialmente porque el aprendizaje basado en problemas no es factible en todas las circunstancias. Se ha encontrado que una serie de atributos de enseñanza como la organización, la expresividad, el entusiasmo y la relación/interacción tienen una relación positiva con los indicadores del aprendizaje y la persistencia de los estudiantes. En realidad, no existe una dicotomía entre el aprendizaje basado en problemas y los enfoques de enseñanza y aprendizaje "tradicionales"; los formuladores de políticas y los profesionales se beneficiarían de una mejor comprensión sobre qué prácticas específicas son efectivas para fomentar diferentes conjuntos de habilidades.</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -2308,7 +2308,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>si bien departamento educación northern cape expresado compromiso diseñar plan estudios materiales incorporen idiomas cultura san persistente falta financiación dificultades logísticas retrasado proceso resultado décadas persecución lingüística apartheid sudáfrica mayoría san khoe actualmente hablan afrikáans primer idioma solo pocos ancianos todavía hablan lengua materna grupos educación lengua materna cuestión restauración idioma pedagogía eficaz aunque sigue siendo aspecto crucial desarrollo comunitario mismo tiempo desempeño educación primaria secundaria cayendo dramáticamente</t>
+          <t>Si bien el Departamento de Educación de Northern Cape ha expresado su compromiso de diseñar un plan de estudios y materiales que incorporen los idiomas y la cultura san, la persistente falta de financiación y las dificultades logísticas han retrasado este proceso. Como resultado de décadas de persecución lingüística durante la era del apartheid en Sudáfrica, la mayoría de los san y khoe actualmente hablan afrikáans como primer idioma, y ​​solo unos pocos ancianos todavía hablan su lengua materna. Por lo tanto, para estos grupos, la educación en la lengua materna es más una cuestión de restauración del idioma que de pedagogía eficaz, aunque sigue siendo un aspecto crucial del desarrollo comunitario. Al mismo tiempo, el desempeño en la educación primaria y secundaria está cayendo dramáticamente.</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -2318,7 +2318,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>ley estipula proporción estudiantes desfavorecidos cada escuela debe exceder proporción promedio personas desfavorecidas asentamiento puntos porcentuales embargo probable efecto limitado debido segregación geográfica existente recentralización responsabilidades puede ayudar municipios pobres menudo carecían recursos financiar infraestructuras escolares mientras gobierno central puede proporcionar fondos cuadro aumento general salarios docentes puede ayudar contratar retener docentes calificados</t>
+          <t>Una ley de 2012 estipula que la proporción de estudiantes desfavorecidos en cada escuela no debe exceder la proporción promedio de personas desfavorecidas en el asentamiento en más de 15 puntos porcentuales. Sin embargo, es probable que el efecto sea limitado debido a la segregación geográfica existente. La recentralización de responsabilidades de 2013 puede ayudar en este sentido, ya que los municipios más pobres a menudo carecían de recursos para financiar las infraestructuras escolares, mientras que el gobierno central puede proporcionar más fondos (Cuadro 2). El aumento general en los salarios de los docentes también puede ayudar a contratar y retener a docentes más calificados.</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -2328,7 +2328,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>únicos países exigen máster enseñar preescolar inglaterra francia islandia italia nivel formación exige enseñar primaria países dispone datos enseñar estudios generales primer ciclo secundaria países enseñar segundo ciclo secundaria países véase tabla d b c d cambio casi profesores sienten insuficientemente preparados aspectos pedagógicos enseñanza proporción alta cualquiera países participaron encuesta talis véase gráfico da francia proporción inferior aún baja centros privados sólo frente media talis</t>
+          <t>Los únicos países que exigen un máster para enseñar preescolar son Inglaterra, Francia, Islandia e Italia. Este nivel de formación se exige para enseñar primaria en 11 de los 35 países de los que se dispone de datos, para enseñar estudios generales de primer ciclo de secundaria en 16 países y para enseñar segundo ciclo de secundaria en 22 países (véase la tabla D6.1 a, b, c y d). En cambio, casi el 40% de los profesores se sienten insuficientemente preparados para los aspectos pedagógicos de la enseñanza, que es la proporción más alta en cualquiera de los 34 países que participaron en la encuesta TALIS (véase el gráfico D6.a). En Francia, la proporción era inferior (76%), y aún más baja en los centros privados (sólo el 69%, frente a una media TALIS del 86%).</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -2338,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>trabajadores extranjeros suelen venir lugares lejanos filipinas ejemplo varias formas apoyo comunitario proporcionadas directamente ministerio bienestar servicios sociales fondos salud ciertas obligaciones bajo nhi atención institucional supervisada ministerio salud proporcionada combinación instituciones administradas gobierno establecimientos administrados fondos salud particular bajo gobierno anterior ministerio salud propuso reforma incluía poner cuidados largo plazo institucionales domésticos bajo responsabilidad fondos salud aumentar subsidios hogares ejemplo mediante ampliación provisión encuidado tipohoras apoyo doméstico hacer fondos salud responsables atención largo plazo duda beneficios potenciales ejemplo podría mejorar atención atención preventiva</t>
+          <t>Estos trabajadores extranjeros suelen venir de lugares muy lejanos (muchos de Filipinas, por ejemplo). Varias otras formas de apoyo comunitario son proporcionadas, algunas directamente por el Ministerio de Bienestar y Servicios Sociales, otras por los fondos de salud, que tienen ciertas obligaciones bajo el NHI. La atención institucional está supervisada por el Ministerio de Salud y es proporcionada por una combinación de instituciones administradas por el gobierno y establecimientos administrados por los fondos de salud. En particular, bajo el gobierno anterior, el Ministerio de Salud propuso una reforma que incluía poner los cuidados de largo plazo tanto institucionales como domésticos bajo la responsabilidad de los fondos de salud, y aumentar los subsidios a los hogares, por ejemplo mediante la ampliación de la provisión de "en-cuidado". tipo†horas de apoyo doméstico. Hacer que los fondos de salud sean responsables de la atención a largo plazo sin duda tiene algunos beneficios potenciales, por ejemplo, podría mejorar la atención a la atención preventiva.</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -2348,7 +2348,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>puede conducir bajo uso capacidad altos costos cama caso situación empeora suministro local limitado combina instalaciones redes transporte deficientes aviación médica bien desarrollada período soviético extinguió completo transición debido falta financiación</t>
+          <t>Esto puede conducir a un bajo uso de la capacidad y altos costos por cama y por caso. La situación empeora cuando el suministro local limitado se combina con instalaciones y redes de transporte deficientes. La aviación médica no estuvo bien desarrollada durante el período soviético y se extinguió por completo durante la transición debido a la falta de financiación.</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -2358,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>datos específicos disponibles impacto rayos uv salud población mongolia pesar atascos tráfico observados ulaanbaatar ruido alrededor actividades mineras factor ambiental cuenta aunque bien conocido impacto negativo salud pública enero prohibió temporalmente venta distribución alcohol respuesta muerte cuatro hospitalizaciones intoxicación metanol</t>
+          <t>No hay datos específicos disponibles sobre el impacto de los rayos UV en la salud de la población de Mongolia. A pesar de los atascos de tráfico observados en Ulaanbaatar y el ruido alrededor de las actividades mineras, este factor ambiental no se tiene en cuenta, aunque es bien conocido su impacto negativo en la salud pública. En enero de 2017, se prohibió temporalmente la venta y distribución de alcohol en respuesta a una muerte y cuatro hospitalizaciones por intoxicación con metanol.</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2368,7 +2368,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>clase impartida debe formar parte unidad aprendizaje prevista portafolios clase debe contener dos actividades temas abordados incluyen análisis secuencia actividades gestión tiempo interacción clase requiere maestro lleve cabo análisis progresión aprendizaje solo estudiante cuenta desempeño estudiante dentro clase evaluación propias fortalezas debilidades</t>
+          <t>La clase impartida debe formar parte de la unidad de aprendizaje prevista en el portafolios. La clase debe contener dos o más actividades. Los temas abordados incluyen el análisis de la secuencia de actividades, la gestión del tiempo y la interacción en clase. Requiere que el maestro lleve a cabo el análisis de la progresión del aprendizaje de un solo estudiante, una cuenta del desempeño del estudiante dentro de la clase y una evaluación de sus propias fortalezas y debilidades.</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -2378,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>segundo lugar si quiere implementar éxito componente intercultural programa educación intercultural bilingüe peib docentes necesitan herramientas competencias desarrollar competencias interculturales estudiantes importante desarrollar estrategia amplia incorporar fortalecer componente intercultural formación inicial docente desarrollo profesional docentes servicio tercero chile debería considerar dar comunidades indígenas autonomía desarrollar implementar propios proyectos pedagógicos</t>
+          <t>En segundo lugar, si se quiere implementar con éxito el componente intercultural del Programa de Educación Intercultural Bilingüe (PEIB), todos los docentes necesitan más herramientas y competencias para desarrollar las competencias interculturales de sus estudiantes. Sería importante desarrollar una estrategia más amplia e incorporar y fortalecer el componente intercultural tanto en la formación inicial docente como en el desarrollo profesional de los docentes en servicio. Tercero, Chile debería considerar dar a las comunidades indígenas más autonomía para desarrollar e implementar sus propios proyectos pedagógicos.</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -2388,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>además padecen enfermedades crónicas derecho medicamentos específicos enfermedad forma gratuita comprobación recursos pueden obtener cualquier farmacia incluidas sector privado mejora acceso demás casos pacientes deben comprar medicamentos bolsillo excepto hospitalización tres primeros días posteriores alta missoc además fondo comunitario presidente malta fundación filantrópica ampliado papel financiación medicamentos aún incluidos paquete beneficios además segundo plan nacional cáncer publicado describe compromiso gobierno incluir medicamentos cáncer lista formulario gobierno próximos años dichos pagos directos porcentaje gasto total salud totalizaron significativamente promedio ue figura</t>
+          <t>Además, quienes padecen enfermedades crónicas también tienen derecho a los medicamentos específicos para su enfermedad de forma gratuita, sin comprobación de recursos. Desde 2008, estos se pueden obtener de cualquier farmacia, incluidas las del sector privado, lo que mejora el acceso. En todos los demás casos, los pacientes deben comprar los medicamentos de su bolsillo, excepto durante la hospitalización y durante los tres primeros días posteriores al alta (MISSOC, 2016). Además, el Fondo Comunitario del Presidente de Malta (una fundación filantrópica) ha ampliado su papel en la financiación de medicamentos que aún no están incluidos en el paquete de beneficios. Además, el segundo plan nacional contra el cáncer publicado en 2017 describe el compromiso del gobierno de incluir más medicamentos contra el cáncer en la lista del Formulario del gobierno en los próximos años. En 2015, dichos pagos directos, como porcentaje del gasto total en salud, totalizaron el 29 %, significativamente más que el promedio de la UE del 15 % (Figura 11).</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -2398,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>luego considera papel estrategias reducción pobreza ampliar complementar principios éticos implícitos constitución termina evaluación fuerza consenso actual pobreza reducción pobreza punto vista debe perspectivas éticas describen ayudan evaluar instituciones justas</t>
+          <t>Luego considera el papel de las estrategias de reducción de la pobreza para ampliar y complementar los principios éticos implícitos en la Constitución. Termina con una evaluación de la fuerza del consenso actual sobre la pobreza y la reducción de la pobreza. Desde nuestro punto de vista, esto se debe a que las perspectivas éticas describen y nos ayudan a evaluar instituciones justas.</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -2408,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ministerio otorga licencias funcionamiento escuelas desarrolla políticas garantizar derecho educación libertad educación propone cambios marco legal rige educación desarrolla componentes obligatorios currículo monitorea desempeño escolar estudiantil asigna distribuye subsidios escolares existe diferencia grado autonomía escuelas municipales gestión privada subvencionada matriculados alumnos incluidas restricciones administrativas financieras laborales escuelas gestión privada plena autonomía escuelas municipales altos niveles autonomía aproximadamente mitad decisiones afectan práctica educativa toman nivel escuela mitad restante nivel municipal</t>
+          <t>El Ministerio otorga licencias para el funcionamiento de las escuelas, desarrolla políticas para garantizar el derecho a la educación y la libertad de educación, propone cambios al marco legal que rige la educación, desarrolla componentes obligatorios del currículo, monitorea el desempeño escolar y estudiantil, y asigna y distribuye subsidios escolares . Existe una diferencia en el grado de autonomía entre las escuelas municipales y las de gestión privada subvencionada (en las que están matriculados más del 50% de los alumnos), incluidas las restricciones administrativas, financieras y laborales. Las escuelas de gestión privada tienen plena autonomía. Las escuelas municipales también tienen altos niveles de autonomía: aproximadamente la mitad de las decisiones que afectan la práctica educativa se toman a nivel de la escuela y la mitad restante a nivel municipal.</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -2418,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>sistema salud japonés reconocido eficiencia alta esperanza vida población puede fortalecerse aún incorporación inteligencia artificial herramientas apoyo diagnóstico analizan radiografías pruebas clínicas datos laboratorio detectar anomalías rapidez nivel hospitalario sistemas inteligentes optimizan asignación camas gestión citas disponibilidad especialistas reduciendo tiempos espera asimismo aplicaciones móviles permiten pacientes dar seguimiento salud recibir recordatorios personalizados innovaciones integradas sistema flexible abierto consolidan modelo atención médica sostenible orientado bienestar integral</t>
+          <t>El sistema de salud japonés, reconocido por su eficiencia y la alta esperanza de vida de su población, puede fortalecerse aún más con la incorporación de inteligencia artificial. Herramientas de apoyo al diagnóstico analizan radiografías, pruebas clínicas y datos de laboratorio para detectar anomalías con rapidez. A nivel hospitalario, sistemas inteligentes optimizan la asignación de camas, la gestión de citas y la disponibilidad de especialistas, reduciendo tiempos de espera. Asimismo, las aplicaciones móviles permiten a los pacientes dar seguimiento a su estado de salud y recibir recordatorios personalizados. Estas innovaciones, integradas en un sistema flexible y abierto, consolidan un modelo de atención médica sostenible y orientado al bienestar integral.</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -2428,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>beneficio povcal dada medida bienestar promedio varios puntos curva lorenz cualquier conjunto datos povcal estimará parámetros toda curva lorenz vez permite simulaciones pobreza basadas cualquier línea pobreza elija analista expresada mensuales per cápita dólares internacionales ppa povcal conocido permitir datos nacionales pobreza distribución hagan comparables nivel internacional mediante uso líneas internacionales pobreza absoluta dólar día usd ppa estándares internacionales dos dólares día embargo impide povcal utilice evaluar simular pobreza líneas pobreza incluidas relativas</t>
+          <t>El beneficio de Povcal es que dada la medida de bienestar promedio y varios puntos en la curva de Lorenz para cualquier conjunto de datos, Povcal estimará los parámetros de toda la curva de Lorenz, lo que a su vez permite simulaciones de pobreza basadas en cualquier línea de pobreza que elija el analista (expresada como mensuales per cápita en dólares internacionales PPA). Povcal es más conocido por permitir que los datos nacionales de pobreza y distribución se hagan comparables a nivel internacional mediante el uso de líneas internacionales de pobreza absoluta, como el dólar por día (USD 1,25 , PPA) y estándares internacionales de dos dólares al día. Sin embargo, nada impide que Povcal se utilice para evaluar y simular la pobreza en otras líneas de pobreza, incluidas las relativas.</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -2438,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>particular provincias tasas utilización bajas gasto elevado día visita paciente asociación negativa sugiere existencia capacidad infrautilizada provincias coherente datos véase adam et información número pacientes curvas costes ambos muestran asociación negativa gasto persona asegurada tasas utilización</t>
+          <t>En particular, las provincias con tasas de utilización más bajas tienen un gasto más elevado por día y visita de paciente. Esta asociación negativa sugiere la existencia de una capacidad infrautilizada en algunas provincias y es coherente con otros datos (véase Adam et al 2008 para más información sobre el número de pacientes y las curvas de costes). Ambos muestran una asociación negativa entre el gasto por persona (no asegurada) y las tasas de utilización.</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -2448,7 +2448,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>estándares mínimos formación docente garantizados acreditación aprobación programas formación docente parte nztc proveedores formación docente programas aprobados nztc deben demostrar cómo permiten estudiantes alcancen estándares docentes graduados proveedores garantizan estudiantes cumplido estándares aptos ser maestros gradúan programa</t>
+          <t>Los estándares mínimos de formación docente están garantizados por la acreditación y aprobación de todos los programas de formación docente por parte del NZTC. Todos los proveedores de formación docente con programas aprobados por el NZTC deben demostrar cómo permiten que los estudiantes alcancen los Estándares para docentes graduados. Los proveedores garantizan que los estudiantes han cumplido con estos estándares y están "aptos para ser maestros" cuando se gradúan del programa.</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>primer lugar actúan desincentivo trabajo sigan recibiendo prestaciones sacuden pueden acceder trabajo remunerado segunda intención permitan participantes mantener habilidades mejorar empleabilidad ejemplo permitirles demostrar buenos trabajadores confiables esquemas particularmente importantes aquellos duraciones desempleo tres meses</t>
+          <t>En primer lugar, actúan como un desincentivo para que quienes no tienen trabajo sigan recibiendo prestaciones y "sacuden" a quienes pueden acceder a un trabajo remunerado. Una segunda intención es que permitan a los participantes mantener sus habilidades y mejorar su empleabilidad, por ejemplo, al permitirles demostrar que son buenos trabajadores y confiables. Estos esquemas son particularmente importantes para aquellos con duraciones de desempleo de más de tres meses.</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>entonces debería adoptarse motivación subyacente parece ser celo obsesivo asegurarse ningún bien primera necesidad cesta umbral pobreza umbral pobreza monetaria postulado metodología tipo puede ser definición umbral necesidades básicas garantizado defraudará pobres</t>
+          <t>Entonces, ¿por qué debería adoptarse? La motivación subyacente parece ser un celo obsesivo por asegurarse de que ningún bien que no sea de primera necesidad entre en la cesta del umbral de pobreza. Un umbral de pobreza monetaria postulado por una metodología de este tipo no puede ser, por definición, un umbral de necesidades básicas: está garantizado que defraudará a los pobres.</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>falta elaboración políticas basadas pruebas resultado falta capacidades analíticas ministerios sectoriales falta datos pertinentes cobertura limitada unida escasez fondos obstaculiza seriamente impacto reducción pobreza obstante olvidar situación aún peor hogares vulnerables si existieran transferencias</t>
+          <t xml:space="preserve">La falta de elaboración de políticas basadas en pruebas es el resultado tanto de la falta de capacidades analíticas en los ministerios sectoriales, como de la falta de datos pertinentes. La cobertura limitada, unida a la escasez de fondos, obstaculiza seriamente el impacto de la reducción de la pobreza. No obstante, no hay que olvidar que la situación sería aún peor para los hogares más vulnerables si no existieran estas transferencias. </t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -2488,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>además tener cuenta deseos pacientes garantizar respeten derechos humanos pacientes suma importancia defensa representación usuarios servicios salud mental particularmente importante dada naturaleza enfermedad mental hecho personas menudo luchan condición discapacidad circunstancias restrictivas altos niveles estigma grupos usuarios servicios grupos representan familias usuarios servicios pueden desempeñar papel configuración sistema salud mental mejora calidad atención</t>
+          <t>Además, tener en cuenta los deseos de los pacientes y garantizar que se respeten sus derechos humanos y los de los pacientes son de suma importancia. La defensa y representación de los usuarios de servicios de salud mental es particularmente importante dada la naturaleza de la enfermedad mental y el hecho de que las personas a menudo luchan con una condición de discapacidad, circunstancias restrictivas y altos niveles de estigma. Los grupos de usuarios de servicios, y los grupos que representan a las familias de los usuarios de servicios, también pueden desempeñar un papel en la configuración del sistema de salud mental y en la mejora de la calidad de la atención.</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>chipre preparación planes escolares eds incorporado oficialmente educación primaria actualmente poniendo prueba educación preescolar etapa posterior introducirán educación secundaria chipre informe informal ministerio educación cultura chipre través instituto pedagógico chipre escrito guía implementar eeeds escuela apoyar diseño implementación planes escolares ayudar maestros incluir plan estudios eeesd marco plan escolar finlandia sugirió aproximadamente escuelas cuenten plan sd planea hacerlo</t>
+          <t>En Chipre, la preparación de los planes escolares de EDS se ha incorporado oficialmente en la educación primaria y actualmente se está poniendo a prueba en la educación preescolar. En una etapa posterior, se introducirán en la educación secundaria (Chipre, informe informal de 2014). El Ministerio de Educación y Cultura de Chipre, a través del Instituto Pedagógico de Chipre, ha escrito la Guía para implementar EE/EDS en la escuela para apoyar el diseño y la implementación de planes escolares y para ayudar a los maestros a incluir el plan de estudios de EE/ESD en el marco. del plan escolar. En 2013, Finlandia sugirió que aproximadamente el 40 % de las escuelas cuenten con un plan SD, y otro 11 % planea hacerlo.</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -2508,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>esperanza media vida nacer aumentado años período años años valores bajos esperanza vida observan domod aimag años años años khuvsgul aimag años años años principales causas muerte menores años relacionadas ciertas condiciones originadas período perinatal malformaciones congénitas deformaciones anomalías cromosómicas enfermedades sistema respiratorio</t>
+          <t>La esperanza media de vida al nacer ha aumentado 6,4 años durante el período 2000-2016 (63,2 años en 2000 y 69,6 años en 2016). Desde 2000, los valores más bajos de esperanza de vida se observan en Domod Aimag (58 años en 2000, 63,9 años en 2010 y 68,63 años en 2016) y Khuvsgul Aimag (59 años en 2000, 63,6 años en 2010 y 66 años en 2016). En 2015, las principales causas de muerte en menores de 5 años estuvieron relacionadas con ciertas condiciones originadas en el período perinatal, malformaciones congénitas, deformaciones y anomalías cromosómicas, y enfermedades del sistema respiratorio.</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -2518,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>hijos austeridad impacto gran recesión pobreza infantil países ricos oxford university press httpdxdoiorgoso geografía i intergeneracional uklhelping patents to parent reportpdf consultado agosto orgphdlimprovhtml consultado abril orgfilecusersthevenon odownloadslpdf handbook of labor economics httpseconomicsubccafilespdf paper nicolefortindecompositionmethodspdf consultado abril</t>
+          <t>Hijos de la austeridad: impacto de la gran recesión en la pobreza infantil en los países ricos, Oxford University Press, http://dx.doi.org/10.1093/oso/9780198797968.003.0012. ¡La Geografía de la I5 Intergeneracional! Uk/28401/l/Helping Patents to Parent report.pdf (consultado el 7 de agosto de 2018). Org/p/hdl/improv/1608.html (consultado el 11 de abril de 2018). Org/file:///C:/Users/thevenon o/Downloads/4448-157-5923-l-10-20180213.pdf. Handbook of labor Economics, 4A, https://economics.ubc.ca/files/2013/05/pdf paper nicole-fortin-decomposition-methods.pdf (consultado el 10 de abril de 2018).</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -2528,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>ministros educación asuntos culturales lander establecieron directrices evaluación evaluar docentes evaluaciones maestros deben citar criterios evaluación uso evaluación recopilación datos centra insumos procesos incluidas prácticas pedagógicas resultados nivel posprimario inspecciones centran evaluaciones toda escuela</t>
+          <t>Los ministros de Educación y Asuntos Culturales de los Lander establecieron directrices de evaluación para evaluar a los docentes. Las evaluaciones de los maestros deben citar los criterios de evaluación y el uso de la evaluación. La recopilación de datos se centra en los insumos, los procesos, incluidas las prácticas pedagógicas, y los resultados. En el nivel posprimario, las inspecciones se centran en las evaluaciones de toda la escuela.</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -2538,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>evidencia informe pisa anterior sugiere estudiantes bajo rendimiento parecen beneficiarse asignan recursos escuelas desfavorecidas escuelas favorecidas expensas estudiantes mayor rendimiento sistema educativo ocde sorprende gobiernos invertido recursos sustanciales computadoras conexiones internet software tecnología información comunicaciones tic general inversión siempre producido beneficios evidentes aprendizaje estudiantes</t>
+          <t>La evidencia de un informe PISA anterior sugiere que los estudiantes de bajo rendimiento parecen beneficiarse más cuando se asignan más recursos a las escuelas desfavorecidas que a las escuelas favorecidas, pero no a expensas de los estudiantes de mayor rendimiento en el sistema educativo (OCDE, 2016a). Por lo tanto, no sorprende que los gobiernos hayan invertido recursos sustanciales en computadoras, conexiones a Internet, software y tecnología de la información y las comunicaciones (TIC) en general. Pero esta inversión no siempre ha producido beneficios evidentes en el aprendizaje de los estudiantes.</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -2548,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>escuelas menos autonomía promedio ocde asignación recursos responsabilidad currículo evaluación maestros menos licenciatura año capacitación docente previa servicio incluye prácticas docentes docentes cargas trabajo docente pesadas países ocde tiempo enseñanza primaria secundaria</t>
+          <t>Las escuelas tienen menos autonomía que el promedio de la OCDE tanto en la asignación de recursos como en la responsabilidad del currículo y la evaluación. Los maestros tienen al menos una licenciatura y un año de capacitación docente previa al servicio, que incluye prácticas docentes. Los docentes tienen cargas de trabajo docente más pesadas que en otros países de la OCDE, con más tiempo de enseñanza tanto en primaria como en secundaria.</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -2558,7 +2558,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>fecha reconoce ampliamente sistema atención salud centrado cuatro fondos salud brinda canasta servicios universales atención primaria secundaria buena calidad tiempo satisface demanda atención salud privada embargo existen desafíos tensiones sistema actualmente autoridades ampliar rápidamente número plazas facultades medicina formación enfermeras grandes grupos profesionales salud van jubilar términos generales existe preocupación noción central canasta universal servicios siendo erosionada copagos creciente demanda servicios opciones adicionales brindan seguros privados</t>
+          <t>Hasta la fecha, se reconoce ampliamente que el sistema de atención de la salud, centrado en cuatro fondos de salud, brinda una canasta de servicios universales, con atención primaria y secundaria de buena calidad, al tiempo que satisface la demanda de atención de la salud privada. Sin embargo, existen desafíos y tensiones en el sistema. Actualmente, las autoridades tienen que ampliar rápidamente el número de plazas en las facultades de medicina y la formación de enfermeras porque grandes grupos de profesionales de la salud se van a jubilar. En términos más generales, existe la preocupación de que la noción central de una canasta universal de 0/servicios esté siendo erosionada por los copagos y la creciente demanda de servicios y opciones adicionales que brindan los seguros privados.</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -2568,7 +2568,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>directores escuela reclutados bajo nuevo proceso contratación pueden nombrar despedir miembros equipo liderazgo escolar proponer despido docentes escuela sido mal evaluados sistema nacional evaluación docentes mismo tiempo nuevo marco establecido mayor grado responsabilidad directores escuela según nuevo proceso contratación directores escuela nombrados período cinco años después deben volver presentar solicitud brinda oportunidad reevaluar periódicamente reconocer reconocer directores desempeñan bien proporcionar incentivos desarrollo mejora continuos</t>
+          <t>Los directores de escuela reclutados bajo el nuevo proceso de contratación pueden nombrar y despedir a los miembros de su equipo de liderazgo escolar y proponer el despido de hasta el 5% de los docentes de su escuela que hayan sido mal evaluados en el sistema nacional de evaluación de docentes. Al mismo tiempo, este nuevo marco ha establecido un mayor grado de responsabilidad para los directores de escuela. Según el nuevo proceso de contratación, todos los directores de escuela son nombrados por un período de cinco años, después de lo cual deben volver a presentar una solicitud. Esto brinda la oportunidad de reevaluar periódicamente, reconocer y reconocer a los directores que se desempeñan bien y proporcionar incentivos para el desarrollo y la mejora continuos.</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -2578,7 +2578,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>colaboran forma estructurada mejorar calidad lecciones imparten brinda maestros referencia buenas prácticas oportunidades aprender ser efectivos ejerce presión compañeros aquellos habilidades enseñanza deficientes brinda medios mejorar trabajo buenos maestros incentivos colaborar compañeros ser aún mejores pueden convertirse maestros expertos ascender escala profesional mayor prestigio responsabilidad</t>
+          <t>Colaboran de forma estructurada para mejorar la calidad de las lecciones que imparten. Esto brinda a todos los maestros una referencia de buenas prácticas y oportunidades para aprender unos de otros para ser más efectivos. También ejerce presión entre los compañeros sobre aquellos con habilidades de enseñanza deficientes y les brinda los medios para mejorar su trabajo. Los buenos maestros también tienen incentivos para colaborar con sus compañeros para ser aún mejores. Pueden convertirse en maestros expertos y ascender en la escala profesional de mayor prestigio y responsabilidad.</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -2588,7 +2588,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>equipo revisión ocde quedó impresionado compromiso profesional docentes escuelas visitó partes interesadas informaron suficientes recursos garantizar docentes recibieran apoyo capacitación necesarios contexto cambiando rápidamente muchas escuelas grupos crecientes cambiantes estudiantes origen inmigrante mal preparados abordar necesidades población cada vez diversa supuso contratación estudiantes magisterio origen inmigrante cualificación formal profesor cualificación profesor extranjero brinda oportunidad través plan becas obtener cualificación formal noruega</t>
+          <t>El equipo de revisión de la OCDE quedó impresionado por el compromiso profesional de los docentes en las escuelas que visitó, pero las partes interesadas informaron que no había suficientes recursos para garantizar que los docentes recibieran el apoyo y la capacitación necesarios. El contexto también está cambiando rápidamente en muchas escuelas con grupos crecientes y cambiantes de estudiantes de origen inmigrante. Por lo tanto, están mal preparados para abordar las necesidades de una población cada vez más diversa. Esto supuso la contratación de muchos estudiantes de magisterio de origen inmigrante pero sin una cualificación formal de profesor o con una cualificación de profesor extranjero, pero se les brinda la oportunidad (a través de un plan de becas) de obtener la cualificación formal noruega.</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -2598,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>docentes actores clave creación contexto aprendizaje crecimiento pueden ayudar establecer entornos aprendizaje efectivos medida avanzamos hacia futuro necesitarán nuevas formas provisión educativa reconozcan papel esencial desempeñan docentes transformación aulas apoyen esfuerzo capítulo explora implicaciones transformación digital sistemas educativos explica cómo docentes responsables políticos pueden trabajar juntos aprovechar potencial</t>
+          <t>Los docentes son actores clave en la creación de este contexto para el aprendizaje y el crecimiento y pueden ayudar a establecer entornos de aprendizaje efectivos. A medida que avanzamos hacia el futuro, se necesitarán nuevas formas de provisión educativa que reconozcan el papel esencial que desempeñan los docentes en la transformación de las aulas y que los apoyen en su esfuerzo. Este capítulo explora las implicaciones de la transformación digital en los sistemas educativos y explica cómo los docentes y los responsables políticos pueden trabajar juntos para aprovechar su potencial.</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -2608,7 +2608,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>longitud total barras indica variación observada índice familiaridad matemáticas variación familiaridad matemáticas cuatro veces mayor liechtenstein españa indonesia países ocde alrededor variación nivel país familiaridad matemáticas puede atribuir diferencias estudiantes asisten misma escuela mientras alrededor puede atribuir diferencias estudiantes asisten diferentes escuelas</t>
+          <t>La longitud total de las barras indica la variación observada en el índice de familiaridad con las matemáticas. La variación en la familiaridad con las matemáticas es más de cuatro veces mayor en Liechtenstein y España que en Indonesia. En los países de la OCDE, alrededor del 86 % de la variación a nivel de país en la familiaridad con las matemáticas se puede atribuir a las diferencias entre los estudiantes que asisten a la misma escuela, mientras que alrededor del 14 % se puede atribuir a las diferencias entre los estudiantes que asisten a diferentes escuelas.</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -2618,7 +2618,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>compromiso ciencia toda vida allá escolarización obligatoria requiere conocimientos habilidades estudiantes aprovecharán máximo conocimientos participarán actividades relacionadas ciencia solo si disposición positiva hacia ciencia supuesto particularmente importante estudiantes aspiran convertirse científicos ingenieros oa trabajar ocupaciones relacionadas ciencia mayoría estudiantes expresaron amplio interés temas científicos reconocieron importante papel desempeña ciencia mundo</t>
+          <t>Pero el compromiso con la ciencia durante toda la vida, más allá de la escolarización obligatoria, requiere más que conocimientos y habilidades; los estudiantes aprovecharán al máximo sus conocimientos y participarán en actividades relacionadas con la ciencia, solo si también tienen una disposición positiva hacia la ciencia. Esto, por supuesto, es particularmente importante para los estudiantes que aspiran a convertirse en científicos o ingenieros, oa trabajar en otras ocupaciones relacionadas con la ciencia. La mayoría de los estudiantes expresaron un amplio interés en los temas científicos y reconocieron el importante papel que desempeña la ciencia en su mundo.</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -2628,7 +2628,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>capítulo cierra revisión impacto importaciones naciones industriales países desarrollo utilizando indicador intensidad pobreza importaciones sección implicaciones políticas analiza medidas nacionales internacionales mejorar situación personas pobres países pobres creen mayor integración comercio mundial sido perjudicial pobres países desarrollo mientras sostienen mayor participación países desarrollo mercados mundiales hecho posible reducción considerable pobreza mundial</t>
+          <t>El capítulo cierra con una revisión del impacto de las importaciones de las naciones industriales para los países en desarrollo utilizando el indicador de Intensidad de Pobreza de las Importaciones. La sección Implicaciones para las políticas analiza las medidas nacionales e internacionales para mejorar la situación de las personas más pobres en los países pobres. Algunos creen que una mayor integración en el comercio mundial ha sido perjudicial para los pobres de los países en desarrollo, mientras que otros sostienen que la mayor participación de los países en desarrollo en los mercados mundiales ha hecho posible una reducción considerable de la pobreza mundial.</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -2638,7 +2638,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>puntos datos círculo promedio indican grupo país bajo escrutinio desempeña mejor promedio ocde datos mostrados simples desviaciones promedio ocde legislación ley atención primaria salud exige municipios cuenten centro salud brinde servicios atención primaria salud</t>
+          <t>Los puntos de datos fuera del círculo promedio indican que el grupo o el país bajo escrutinio se desempeña mejor que el promedio de la OCDE. Los datos mostrados son simples desviaciones del promedio de la OCDE. La legislación (Ley de Atención Primaria de Salud) exige que los municipios cuenten con un centro de salud que brinde servicios de atención primaria de salud.</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -2648,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>salvador paraguay uruguay varios cuales mostraron mayores ganancias fuente reportaron aumentos ingreso promedio perceptor cobertura demás países resultado resultó aumento factor combinado caída ver gráfico marco posible analizar diferentes combinaciones reducción desigualdad crecimiento ingreso promedio podrían producir tasa pobreza particular luego evaluar si condiciones línea tendencias observadas últimos años objetivo poner fin pobreza todas formas mundo establece metas lograrlo meta erradicar pobreza extrema todas personas mundo</t>
+          <t>El Salvador, Paraguay y Uruguay, varios de los cuales mostraron las mayores ganancias en esta fuente, reportaron aumentos tanto en el ingreso promedio por perceptor como en la cobertura. En los demás países, el resultado resultó de un aumento en un factor combinado con una caída en el otro (ver gráfico 11.8). En este marco, es posible analizar diferentes combinaciones de reducción de la desigualdad y crecimiento del ingreso promedio que podrían producir una tasa de pobreza particular, y luego evaluar si esas condiciones están en línea con las tendencias observadas en los últimos años. El Objetivo 1 es poner fin a la pobreza en todas sus formas en todo el mundo y establece metas para lograrlo. La meta 1.1 es erradicar la pobreza extrema para todas las personas en todo el mundo para 2030.</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -2658,7 +2658,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>ejemplo países irlanda reino unido niños suelen ingresar educación primaria años mientras estonia finlandia letonia polonia suecia generalmente ingresan años demás países niños ingresan educación primaria años educación preescolar gasto anual niño entornos públicos privados promedia usd países ocde mientras gasto anual desarrollo educativo primera infancia promedia usd desarrollo educativo primera infancia cine fuentes públicas representan promedio gasto total mientras educación preprimaria cine asciende</t>
+          <t>Por ejemplo, en algunos países, como Irlanda y el Reino Unido, los niños suelen ingresar a la educación primaria a los 5 años, mientras que en Estonia, Finlandia, Letonia, Polonia y Suecia, generalmente ingresan a los 7 años. En todos los demás países, los niños ingresan a la educación primaria a los 6 años. En la educación preescolar, el gasto anual por niño, tanto en entornos públicos como privados, promedia los USD 8 070 en los países de la OCDE, mientras que el gasto anual para el desarrollo educativo de la primera infancia promedia los USD 12 501. En el desarrollo educativo de la primera infancia (CINE 01), las fuentes públicas representan en promedio el 69% del gasto total, mientras que en educación preprimaria (CINE 02), asciende al 83%.</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -2668,7 +2668,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>mayoría admisiones involuntarias salud mental bajo ley salud mental importante destacar ley codificó roles profesionales aquellos poder solicitar detención paciente específicamente poderes trabajador social aprobado asw estipuló capacitación específica personal cualquier persona administre acto rapaport manthorpe ley salud mental otorgó autoridades nuevos poderes personas dadas alta hospital</t>
+          <t>La mayoría de las admisiones involuntarias de salud mental están bajo la Ley de Salud Mental de 1983. Es importante destacar que esta Ley codificó los roles profesionales de aquellos con el poder de solicitar la detención de un paciente, específicamente los poderes que tiene un Trabajador Social Aprobado (ASW), y estipuló capacitación específica del personal para cualquier persona que administre el acto (Rapaport y Manthorpe, 2009). La Ley de Salud Mental de 1995 otorgó a las autoridades nuevos poderes sobre las personas dadas de alta del hospital.</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -2678,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>particular programas deportivos modelos deportivos seguir pueden reforzar educación mensajes salud reducir factores riesgo ent programas deportivos empoderamiento femenino pueden incluir sesiones discuta información salud eduque participantes salud sexual reproductiva vih sida nutrición higiene kay investigación demostrado puede ser efectivo enfoques convencionales mejorar conocimiento actitudes jóvenes través uso comunicación alternativa apoyo líderes pares delvaa et enfoque principal dentro sector sdp especialmente área vih sida</t>
+          <t>En particular, los programas deportivos y los modelos deportivos a seguir pueden reforzar la educación y los mensajes sobre salud para reducir los factores de riesgo de las ENT. Los programas deportivos para el empoderamiento femenino pueden incluir sesiones en las que se discuta información de salud y se eduque a las participantes sobre salud sexual y reproductiva, VIH y SIDA, y nutrición e higiene (Kay 2009). • La investigación ha demostrado que esto puede ser más efectivo que los enfoques convencionales para mejorar el conocimiento y las actitudes entre los jóvenes a través del uso de comunicación alternativa y el apoyo de líderes entre pares (Delvaa et al. También es un enfoque principal dentro del sector SDP, especialmente en el área de VIH y SIDA.</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -2688,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>ejemplo seguro salud obligatorio primas cotizadas comunidad p ej base sistema salud suizo ofrece alto grado distribución riesgos mínima redistribución ingresos presencia fondos seguro social da resultado grupos riesgo fragmentados reduce agrupación riesgo mecanismos ajuste riesgo ejemplo suiza países bajos alemania pueden mitigar problema primas calificadas comunidad permiten mayor grado agrupación riesgos calificadas riesgo últimas permiten reunir únicamente personas aproximadamente mismo nivel riesgo</t>
+          <t>Por ejemplo, el seguro de salud obligatorio con primas cotizadas por la comunidad (p. ej., la base del sistema de salud suizo) ofrece un alto grado de distribución de riesgos con una mínima redistribución de ingresos. La presencia de muchos fondos de seguro social da como resultado grupos de riesgo fragmentados, lo que reduce la agrupación de riesgo, pero los mecanismos de ajuste de riesgo (por ejemplo, Suiza, Países Bajos, Alemania) pueden mitigar este problema. Las primas calificadas de la comunidad permiten un mayor grado de agrupación de riesgos que las calificadas por riesgo, ya que estas últimas permiten reunir únicamente a personas con aproximadamente el mismo nivel de riesgo.</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -2698,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>hallazgos contrastantes deben analizarse cuidadosamente luz contexto nacional pueden deberse explicaciones sugiere continuación primer lugar importante leer hallazgos dentro contexto nacional particular comprender mecanismo existente lugar trabajo nivel nacional ayudar personas enfermedades crónicas hacer frente enfermedades vez diagnosticadas sistema seguridad social políticas ejemplo unidos seguro salud asegura gran medida través contrato trabajo personas enfermedades crónicas fuertes incentivos permanecer empleo puede contribuir explicar resultados positivos enfermedades crónicas empleo</t>
+          <t>Estos hallazgos contrastantes deben analizarse cuidadosamente a la luz del contexto nacional, pero también pueden deberse a otras explicaciones, como se sugiere a continuación. En primer lugar, es importante leer estos hallazgos dentro del contexto nacional, en particular para comprender el mecanismo existente (ya sea en el lugar de trabajo o a nivel nacional) para ayudar a las personas con enfermedades crónicas a hacer frente a enfermedades una vez diagnosticadas, como la sistema de seguridad social y otras políticas. Por ejemplo, en los Estados Unidos, el seguro de salud se asegura en gran medida a través del contrato de trabajo, por lo que las personas con enfermedades crónicas tienen fuertes incentivos para permanecer en el empleo, lo que puede contribuir a explicar algunos resultados positivos de las enfermedades crónicas en el empleo.</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -2708,7 +2708,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>hecho diferentes países muestren patrones diferentes indica países progresando hacia sociedad justa muestra línea tendencia existe correlación significativa dos figura debe leerse junto figura b compara gasto público general protección familias incluidos beneficios efectivo desgravaciones fiscales gasto servicios familias tasas generales pobreza infantil</t>
+          <t>Y el hecho de que diferentes países muestren patrones muy diferentes indica que algunos países están progresando más que otros hacia 'la sociedad justa'. Como muestra la línea de tendencia, existe una correlación significativa entre los dos. Por lo tanto, la Figura 6a debe leerse junto con la Figura 6b, que compara el gasto público general en la protección de las familias (incluidos los beneficios en efectivo, las desgravaciones fiscales y el gasto en servicios para las familias) con las tasas generales de pobreza infantil.</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -2718,7 +2718,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>orientación mejora debe llevarse cabo sectores sistema educativo responsables políticos lituanos deberían centrarse aumentar demanda atención comunidades rurales participación eapi baja desventajas sociales educativas pronunciadas calidad educación atención parece seguir estándares internacionales control garantía calidad inadecuados requieren mejoras</t>
+          <t>Esta orientación a la mejora debe llevarse a cabo en todos los sectores de su sistema educativo. Por lo tanto, los responsables políticos lituanos deberían centrarse en aumentar la demanda de atención en las comunidades rurales, donde la participación en la EAPI es baja y las desventajas sociales y educativas son pronunciadas. La calidad de la educación y la atención parece seguir los estándares internacionales, pero el control y la garantía de la calidad son inadecuados y requieren mejoras.</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -2728,7 +2728,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>además alumnos cursos tarea proyecto obligatoria da oportunidad completar presentar proyecto interdisciplinar proyecto evalúa mediante declaración escrita basada contenido proceso trabajo presentación trabajo final evaluación proyecto puede indicar certificado fin estudios</t>
+          <t xml:space="preserve">Además, los alumnos de los cursos 9º y 10º tienen una tarea de proyecto obligatoria que les da la oportunidad de completar y presentar un proyecto interdisciplinar. El proyecto se evalúa mediante una declaración escrita basada en el contenido, el proceso de trabajo y la presentación del trabajo final. La evaluación del proyecto se puede indicar en el certificado de fin de estudios. </t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -2738,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>argumento puede ser menos aplicable zonas rurales asia central cuatro países datos trabajadores pobres representan parte importante total pobres aunque niños familias padres trabajan suelen mejor situación si progenitor estudios superiores proporción trabajadores pobres sigue siendo significativa debido bajos salarios sectores especialmente agricultura sector público salarios suficientes sacar familias pobreza baschieri falkingham uzbekistán pobres trabajan sector público empleados mal pagados autónomos unicef kirguistán pobres viven hogar cuyo cabeza familia empleado banco mundial próxima publicación</t>
+          <t>El argumento puede ser menos aplicable a las zonas rurales de Asia Central. En los cuatro países de los que tenemos datos, los trabajadores pobres representan una parte importante del total de pobres. Aunque los niños de familias con padres que trabajan suelen estar en mejor situación, sobre todo si el progenitor tiene estudios superiores, la proporción de trabajadores pobres sigue siendo significativa debido a los bajos salarios en muchos sectores, especialmente en la agricultura y el sector público. Los salarios no son suficientes para sacar a las familias de la pobreza (Baschieri y Falkingham, 2007). En Uzbekistán, el 50% de los pobres trabajan en el sector público, son empleados mal pagados o autónomos (UNICEF 2009a). En Kirguistán, el 70% de los pobres viven en un hogar cuyo cabeza de familia está empleado (Banco Mundial, de próxima publicación).</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -2748,7 +2748,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>escuelas independientes observar reflexionar actuar adaptan específicamente necesidades cultura niños indígenas cuentan apoyo promoción unión europea unicef pma cuenta elaboración estrategia nacional educación aunque mejoras tasas acceso servicios pueblos indígenas dos tres veces inferiores grupos tasa matriculación escolar mientras tasa registro civil fondo naciones unidas infancia embargo aunque reconocen idiomas khoe san idiomas oficiales poca financiación gubernamental disponible desarrollo</t>
+          <t>Las escuelas independientes de "observar, reflexionar, actuar", que se adaptan específicamente a las necesidades y la cultura de los niños indígenas y cuentan con el apoyo y la promoción de la Unión Europea, el UNICEF y el PMA, se tuvieron en cuenta en la elaboración de la estrategia nacional de educación. Aunque ha habido algunas mejoras, las tasas de acceso a los servicios de los pueblos indígenas son dos o tres veces inferiores a las de otros grupos: su tasa de matriculación escolar es del 44%, mientras que su tasa de registro civil es del 32% (Fondo de las Naciones Unidas para la Infancia , 2013). Sin embargo, aunque se reconocen los idiomas khoe y san, no son idiomas oficiales y, por lo tanto, hay poca financiación gubernamental disponible para su desarrollo.</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -2758,7 +2758,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>médicos benefician tener capacidad comparar desempeño pares movimiento coherente enfoque ascendente escocia mejorar calidad renuencia utilizar incentivos financieros promover calidad atención médica juntas especiales nhs brindan atención directa paciente devuelven ahorros reciclen fondos generales disponibles apoyar atención paciente espera gran parte ahorros obtengan mediante mejoras calidad atención ejemplo reducir hospitalizaciones innecesarias readmisiones planificadas eventos adversos</t>
+          <t>Los médicos se benefician al tener la capacidad de comparar su desempeño con el de sus pares. Este es un movimiento coherente con el enfoque ascendente de Escocia para mejorar la calidad y la renuencia a utilizar incentivos financieros para promover la calidad de la atención médica. Las juntas especiales del NHS que no brindan atención directa al paciente devuelven sus ahorros para que se reciclen en los fondos generales disponibles para apoyar la atención del paciente. Se espera que gran parte de estos ahorros se obtengan mediante mejoras en la calidad de la atención, por ejemplo, al reducir las hospitalizaciones innecesarias, las readmisiones no planificadas y los eventos adversos.</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -2768,7 +2768,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>línea pobreza adicional basa ingreso medio medido año referencia ingresos luego eleva inflación años intermedios umbrales pobreza contemporáneos sensibles cambios repentinos distribución ingreso ingreso familiar medio puede caer recesión económica reduce umbral pobreza da resultado tasa pobreza infantil artificialmente baja incluso si número niños pobres sigue siendo mismo anclar línea pobreza términos reales ayuda eludir limitación mantener umbral fijo momento tiempo lugar permitir mueva distribución ingreso actual</t>
+          <t>Una línea de pobreza adicional se basa en el 60% del ingreso medio medido en 2005 (año de referencia de ingresos 2004) y luego se eleva con la inflación para todos los años intermedios. Los umbrales de pobreza contemporáneos son sensibles a cambios repentinos en la distribución del ingreso: el ingreso familiar medio puede caer durante una recesión económica, lo que reduce el umbral de pobreza y da como resultado una tasa de pobreza infantil artificialmente más baja, incluso si el número de niños pobres sigue siendo el mismo. "Anclar" la línea de pobreza en 2005 (en términos reales) ayuda a eludir esta limitación al mantener el umbral fijo en un momento en el tiempo en lugar de permitir que se mueva con la distribución del ingreso actual.</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -2778,7 +2778,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>canal importante intercambio conocimientos sistema pasantías empleado varias universidades pasantías brindan punto entrada fuerza laboral estudiantes continúan trabajando socio industria después pasantía consulte capítulo ejemplo programa best to industries departamento ciencias computación colegio académico tel hai brinda ejemplo colaboración sistemática industria local alta tecnología mejora resultados aprendizaje estudiantes fortalece vínculos educación superior industria ayuda atraer desarrollar industrias alta tecnología parte septentrional país véase capítulo recuadro esquema asociación transferencia conocimiento reino unido funcionando éxito anteriormente esquemas empresas enseñanza década</t>
+          <t>Un canal importante de intercambio de conocimientos es el sistema de pasantías empleado por varias universidades.8 Las pasantías brindan un punto de entrada a la fuerza laboral cuando los estudiantes continúan trabajando para el socio de la industria después de la pasantía (consulte también el Capítulo 2). Por ejemplo, el Programa Best to Industries del Departamento de Ciencias de la Computación del Colegio Académico de Tel Hai brinda un ejemplo de colaboración sistemática con la industria local de alta tecnología que mejora los resultados de aprendizaje de los estudiantes, fortalece los vínculos entre la educación superior y la industria y ayuda a atraer y desarrollar industrias de alta tecnología en la parte más septentrional del país (véase el Capítulo 2, Recuadro 2.5). El Esquema de Asociación de Transferencia de Conocimiento en el Reino Unido ha estado funcionando con éxito (anteriormente como Esquemas de Empresas de Enseñanza) desde la década de 1970.</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -2788,7 +2788,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>dejan claro escuelas desfavorecidas necesitan apoyo puedan comenzar considerar diferencias étnicas recurso aprendizaje lugar obstáculo aprendizaje ocde b identificar relación educación preescolar desempeño escolar posterior desafío asistencia educación preescolar menudo correlaciona ventaja socioeconómica niños desfavorecidos ingresan preescolar van zaga niños favorecidos probable menos oportunidades jugar casa explorar patrones formas relaciones espaciales comparar magnitudes contar objetos</t>
+          <t>También dejan en claro que las escuelas desfavorecidas necesitan más apoyo para que puedan comenzar a considerar las diferencias étnicas como un recurso para el aprendizaje, en lugar de un obstáculo para el aprendizaje (OCDE, 2015b). Identificar la relación entre la educación preescolar y el desempeño escolar posterior es un desafío, porque la asistencia a la educación preescolar a menudo se correlaciona con la ventaja socioeconómica. Cuando los niños desfavorecidos ingresan al preescolar, ya van a la zaga de los niños favorecidos porque es probable que hayan tenido menos oportunidades de jugar en casa para explorar patrones, formas y relaciones espaciales, comparar magnitudes y contar objetos.</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -2798,7 +2798,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>revisar años estudios hta reino unido raftery powell afirman mitad indican nuevas tecnologías mejores tradicionales embargo corto plazo probable hta aumente costos gestión administración salud hecho maisonneuve et</t>
+          <t>Al revisar 20 años de estudios de HTA en el Reino Unido, Raftery y Powell (2013) afirman que más de la mitad de ellos indican que las nuevas tecnologías no son mejores que las tradicionales. Sin embargo, a corto plazo, es probable que HTA aumente los costos de gestión y administración de la salud. De hecho, de la Maisonneuve et al. (</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -2808,7 +2808,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>aunque número considerable artículos libros internacionales evaluación asistido programa det pudieron acceder literatura internacional mismos trabajo sector educación superior noruega área publicaron pocos artículos investigación noruegos maestros creían situación mejorado momento inició afl apoyo disponible investigación noruega</t>
+          <t>Aunque había un número considerable de artículos y libros internacionales sobre evaluación y habían asistido al programa DET, no pudieron acceder a esta literatura internacional por sí mismos. Hubo poco trabajo en el sector de la educación superior en Noruega en esta área, por lo que se publicaron muy pocos artículos de investigación noruegos. Los maestros creían que la situación había mejorado mucho en el momento en que se inició AfL, con más apoyo disponible de la investigación noruega.</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -2818,7 +2818,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>sistemas escolares públicos empezaron bastante tarde primero escuelas primarias luego enseñanza secundaria hacia década universidades australianas establecieron primera vez mediados siglo xix mientras educación infantil aparte servicios ofrecidos guarderías comunitarias proveedores privados mejora relativamente reciente oferta educativa australiana duodécimo curso último enseñanza secundaria estudios suelen orientarse obtención título estatal territorial reconocido todas universidades instituciones formación profesional australianas así universidades internacionales</t>
+          <t>Los sistemas escolares públicos no empezaron hasta bastante más tarde, primero las escuelas primarias y luego la enseñanza secundaria, hacia la década de 1880. Las universidades australianas se establecieron por primera vez a mediados del siglo XIX, mientras que la educación infantil (aparte de los servicios ofrecidos por guarderías comunitarias y proveedores privados) es una mejora relativamente reciente de la oferta educativa australiana. En el duodécimo curso, el último de la enseñanza secundaria, los estudios suelen orientarse a la obtención de un título estatal o territorial reconocido por todas las universidades e instituciones de formación profesional australianas, así como por universidades internacionales.</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -2828,7 +2828,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>cursos suelen ser noche incluyen temas generales gestión temas teóricos prácticos formación profesional suiza abierto fachhochschulen graduados sistema aprendizaje dual través creación examen matriculación profesional específico berufsmaturitat debe completarse paralelo programa aprendizaje proporcionando acceso educación terciaria alrededor aprendices graduados obtienen berufsmaturitat representan mitad estudiantes fachhochschulen fazekas field acceso fachhochschulen posible mediante reconocimiento aprendizaje previo</t>
+          <t>Los cursos suelen ser por la noche e incluyen temas generales, de gestión y temas teóricos y prácticos de formación profesional. Suiza ha abierto las Fachhochschulen a los graduados del sistema de aprendizaje dual a través de la creación de un examen de matriculación profesional específico (el Berufsmaturitat), que debe completarse en paralelo a un programa de aprendizaje, y proporcionando acceso a la educación terciaria: alrededor del 12 % de todos los aprendices graduados obtienen la Berufsmaturitat y representan la mitad de los estudiantes de las Fachhochschulen (Fazekas y Field, 2013a). (El acceso a Fachhochschulen también es posible mediante el reconocimiento del aprendizaje previo).</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -2838,7 +2838,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>dichos análisis ayudan comprender cómo evolucionaron formas nocivas consumo alcohol largo tiempo identificar grupos población probabilidades involucrarse cuáles ven afectados consumo ocasional alcohol peligroso excesivo trabajo contribuye diseño estrategias políticas apropiadas reducir consumo nocivo alcohol alcohol alcohol efecto consumo alcohol ingresos</t>
+          <t>Dichos análisis ayudan a comprender cómo evolucionaron las formas nocivas de consumo de alcohol a lo largo del tiempo, y a identificar qué grupos de población tienen más probabilidades de involucrarse y cuáles se ven más afectados por el consumo ocasional de alcohol peligroso y excesivo. Este trabajo contribuye al diseño de estrategias políticas apropiadas para reducir el consumo nocivo de alcohol. Alcohol Alcohol 44:229-43. El efecto del consumo de alcohol en los ingresos.</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -2848,7 +2848,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>promedio países ocde después tener cuenta perfil socioeconómico escuelas puede identificar asociación porcentaje estudiantes inmigrantes asisten escuela probabilidad estudiantes asisten escuela alcancen niveles básicos competencia académica después tener cuenta perfil socioeconómico escuelas alta concentración estudiantes inmigrantes asoció desempeño bajo alemania eslovenia españa suiza eslovenia único país estudiantes asisten escuelas cada cuatro estudiantes origen inmigrante menos probabilidades alcanzar niveles básicos competencia después tener cuenta perfil socioeconómico escuela</t>
+          <t>En promedio en los países de la OCDE, y después de tener en cuenta el perfil socioeconómico de las escuelas, no se puede identificar una asociación entre el porcentaje de estudiantes inmigrantes que asisten a una escuela y la probabilidad de que los estudiantes que asisten a esa escuela alcancen los niveles básicos de competencia académica. Después de tener en cuenta el perfil socioeconómico de las escuelas, una alta concentración de estudiantes inmigrantes se asoció con un desempeño más bajo en Alemania, Eslovenia, España y Suiza. Eslovenia fue el único país donde los estudiantes que asisten a escuelas en las que más de uno de cada cuatro estudiantes tiene un origen inmigrante tienen menos probabilidades de alcanzar los niveles básicos de competencia, después de tener en cuenta el perfil socioeconómico de la escuela.</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -2858,7 +2858,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>difícil contemplar especialmente afecta niños embargo incluso aparentemente bien alimentados aquellos reciben suficientes calorías alimentar actividades diarias pueden sufrir hambre oculta desnutrición micronutrientes deficiencias elementos esenciales vitamina hierro zinc frutas verduras pescado carne muchas consecuencias corto largo plazo incluido retraso desarrollo mental mayor riesgo enfermedades infecciosas susceptibilidad enfermedades crónicas vida adulta países bajos ingresos probable desnutrición infantil consecuencia pobreza caracterizada bajo nivel familiar ingresos medio ambiente vivienda deficientes acceso inadecuado alimentos agua potable orientación atención salud menos cuarta parte niños urbanos menores años presentaban retraso crecimiento indica desnutridos algún tiempo ingresos factor importante</t>
+          <t>Es difícil de contemplar, especialmente cuando afecta a los niños. Sin embargo, incluso los que aparentemente están bien alimentados (aquellos que reciben suficientes calorías para alimentar sus actividades diarias) pueden sufrir el "hambre oculta" de la desnutrición de micronutrientes: deficiencias de elementos esenciales como la vitamina A, el hierro o el zinc de frutas, verduras, pescado o carne. Tiene muchas consecuencias a corto y largo plazo, incluido un retraso en el desarrollo mental, un mayor riesgo de enfermedades infecciosas y susceptibilidad a enfermedades crónicas en la vida adulta.20 En los países de bajos ingresos, es probable que la desnutrición infantil sea una consecuencia de la pobreza, caracterizada como es por el bajo nivel familiar y los ingresos, el medio ambiente y la vivienda deficientes, y el acceso inadecuado a los alimentos, el agua potable, la orientación y la atención de la salud. Al menos una cuarta parte de los niños urbanos menores de 5 años presentaban retraso en el crecimiento, lo que indica que habían estado desnutridos durante algún tiempo. Los ingresos fueron un factor importante.</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -2868,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>pocas excepciones ejemplo países ocde lista establecida nivel nacional define medicamentos cubiertos planes seguro seguro secundario juega papel casi sistemas salud ocde particular interés dadas similitudes estructurales méxico seguro secundario israel común</t>
+          <t>Con pocas excepciones, por ejemplo, todos los países de la OCDE tienen una lista establecida a nivel nacional que define qué medicamentos están cubiertos por sus planes de seguro. El seguro secundario juega un papel en casi todos los sistemas de salud de la OCDE. De particular interés dadas las similitudes estructurales con México, el seguro secundario en Israel es muy común.</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -2878,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>parte modernización proceso efecto hacer personas dependieran sistema podía ajustarse respuesta fallas burocráticas mercado kohli moon sorensen grecia ejemplo reciente cómo gobernanza sistema fallado punto pobres salido calles protestar proceso similar alienación económica intensificado muchas partes mundo introducción políticas económicas neoliberales</t>
+          <t>Como parte de la modernización, el proceso tuvo el efecto de hacer que las personas dependieran más de un sistema que podía ajustarse en respuesta a fallas burocráticas o del mercado (Kohli, Moon y Sorensen, 2003). Grecia es un ejemplo reciente de cómo la gobernanza del sistema ha fallado hasta el punto de que los pobres han salido a las calles a protestar. Un proceso similar de alienación económica se ha intensificado en muchas partes del mundo desde la introducción de las políticas económicas neoliberales.</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -2888,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>acuerdo aviso alerta temprana unodc costa rica continuó reportando sustancias grupos fenetilaminas piperazinas sustancias uso sustancias puede tener consecuencias graves salud efectos dichas sustancias cuerpo humano conocen completo entendido conocido además tráfico sustancias crea desafíos adicionales autoridades reguladoras aplicación patrones tendencias uso indebido cannabis región mantenido bastante estables prevalencia uso indebido cocaína américa central caribe sigue siendo superior media mundial prevalencia anual media estimada ambas subregiones cuanto uso opioides centroamérica unodc estimado prevalencia anual debajo promedio mundial</t>
+          <t>De acuerdo con el aviso de alerta temprana de la UNODC, Costa Rica continuó reportando sustancias en los grupos de fenetilaminas, piperazinas y otras sustancias en 2015. El uso de esas sustancias puede tener consecuencias graves para la salud, ya que los efectos de dichas sustancias en el cuerpo humano no se conocen por completo. entendido o conocido. Además, el tráfico de esas sustancias crea desafíos adicionales para las autoridades reguladoras y de aplicación. Los patrones y tendencias del uso indebido de cannabis en la región se han mantenido bastante estables. La prevalencia del uso indebido de cocaína en América Central y el Caribe sigue siendo superior a la media mundial30, con una prevalencia anual media estimada del 0,6% para ambas subregiones. En cuanto al uso de opioides en Centroamérica, la UNODC ha estimado una prevalencia anual del 0,2%, por debajo del promedio mundial.</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>casi niños años matriculados educación infantil encima promedio ocde clase preescolar año niños años objetivo garantizar transición fluida educación preescolar primaria preparar niños programa educativo escuela dinamarca educación integral años años incluye año clase preescolar nueve años educación primaria secundaria inferior integrados sola estructura décimo año voluntario</t>
+          <t>Casi todos los niños de 4 años están matriculados en educación infantil (98 % en 2011, por encima del promedio de la OCDE del 82 %). Una clase de preescolar de un año (para niños de 6 años) tiene como objetivo garantizar una transición fluida de la educación preescolar a la primaria y preparar a los niños para el programa educativo en la escuela. Dinamarca tiene una educación integral desde los 6-7 años hasta los 16 años, que incluye un año de clase preescolar, nueve años de educación primaria y secundaria inferior integrados en una sola estructura y un décimo año voluntario.</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>primer paso formulación presupuesto consiste elaborar lista personal escuela basa número clases consolidadas número clases determina tipo número delegados escolares número horas enseñanza tareas relacionadas asignarán número tipo personal apoyo escuela ver anexo número total horas lectivas utiliza determinar número docentes necesarios así carga trabajo docente vez asignado nueve horas lectivas cada líder escolar</t>
+          <t>El primer paso de la formulación del presupuesto consiste en elaborar la lista de personal de la escuela, que se basa en el número de clases consolidadas. El número de clases determina el tipo y número de delegados escolares, el número de horas de enseñanza y tareas relacionadas que se asignarán, y el número y tipo de personal de apoyo de la escuela (ver Anexo 4.A1). El número total de horas lectivas se utiliza para determinar el número de docentes necesarios, así como su carga de trabajo docente, una vez que se han asignado hasta nueve horas lectivas a cada líder escolar.</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>muertes mujeres hombres alrededor ciento muertes ocurrieron poblaciones urbanas mientras ciento produjeron poblaciones rurales alrededor tercio muertes ciento relacionadas síntomas signos hallazgos clínicos laboratorio anormales clasificados origen específico</t>
+          <t>En 2012, el 48,4% de las muertes fueron de mujeres y el 51,6% de hombres. Alrededor del 52,3 por ciento de las muertes ocurrieron en poblaciones urbanas, mientras que el 47,7 por ciento se produjeron en poblaciones rurales. Alrededor de un tercio de las muertes (33,8 por ciento) están relacionadas con síntomas, signos y hallazgos clínicos y de laboratorio anormales que no están clasificados por un origen específico.</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>plantea entonces segunda cuestión trato niños inapropiado aplicar cálculo anualidad ciclo vida completo niños hogar así adultos espera abandonen hogar establezcan cuenta asume hijos comparten riqueza hogar alcanzan mayoría edad considera momento años</t>
+          <t>Esto plantea entonces la segunda cuestión: el trato de los niños. Sería inapropiado aplicar un cálculo de anualidad de ciclo de vida completo a los niños en un hogar así como a los adultos, ya que se espera que abandonen el hogar y se establezcan por su cuenta. Por lo tanto, se asume que los hijos comparten la riqueza del hogar hasta que alcanzan la mayoría de edad (que se considera por el momento como 18 años).</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -2938,7 +2938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>pacto internacional derechos económicos sociales culturales treaty series vol mejorando protección social reduciendo vulnerabilidad mundo globalizado ecn consultado httpwwwicsworgunnewspdfscsdsocprotectpdf octubre human informe desarrollo nueva york oxford</t>
+          <t>Pacto internacional de derechos económicos, sociales y culturales", Treaty Series, vol. Mejorando la protección social y reduciendo la vulnerabilidad en un mundo globalizado" (E/CN.5/2001), consultado en http://www.icsw.org/un-news/pdfs/csdsocprotect.PDF el 5 de octubre de 2010. Human Informe de Desarrollo, 2010 (Nueva York, Oxford).</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -2948,7 +2948,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>sistemas educativos pueden considerar posibilidad ofrecer incentivos económicos centros exceso matrícula matriculen alumnos inmigrantes field et ejemplo financiación centros puede ponderarse función características sociodemográficas población estudiantil idea buenas escuelas tratarán matricular alumnos inmigrantes procedentes entornos socioeconómicos bajos saben dinero adicional proporcionado podrán ofrecer apoyo adicional niño muestre tendencias mejora alcance niveles rendimiento hoxby</t>
+          <t>Los sistemas educativos también pueden considerar la posibilidad de ofrecer incentivos económicos a los centros con exceso de matrícula para que matriculen a alumnos inmigrantes (Field et al., Por ejemplo, la financiación de los centros puede ponderarse en función de las características sociodemográficas de la población estudiantil. La idea es que las buenas escuelas tratarán de matricular a alumnos inmigrantes procedentes de entornos socioeconómicos bajos porque saben que con el dinero adicional proporcionado podrán ofrecer apoyo adicional para que el niño muestre tendencias de mejora y alcance niveles de rendimiento (Hoxby, 2001).</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>índice igual cepal consideran privados energía hogares energía eléctrica aquellos utilizan combustibles tóxicos cocinar si bien información bienes duraderos suele disponible encuestas nacionales región sido particularmente utilizada mediciones multidimensionales pobreza decidió incluir indicador privación bienes duraderos índice indicador duradero nivel vida hogares</t>
+          <t>En este índice, al igual que en CEPAL (2013), se consideran privados de energía los hogares sin energía eléctrica y aquellos que utilizan combustibles tóxicos para cocinar. Si bien la información sobre bienes duraderos suele estar disponible en las encuestas nacionales de la región, no ha sido particularmente utilizada en las mediciones multidimensionales de la pobreza. Por lo tanto, se decidió incluir un indicador de privación de bienes duraderos en el índice, como un indicador más duradero del nivel de vida de los hogares.</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>dicha información esencial orientar políticas integradas mientras tablero tradicional indicadores monetarios refleja privaciones todas personas ricas pobres informa tablero coordinado subíndices consistentes revelan ipm enfoca pobres ipm estadísticas asociadas pueden informar línea pobreza corte</t>
+          <t>Dicha información es esencial para orientar las políticas integradas. Mientras que el tablero tradicional de indicadores no monetarios refleja las privaciones de todas las personas, ricas y pobres (y también se informa), el tablero coordinado de subíndices consistentes que revelan el IPM se enfoca en los pobres. El IPM y sus estadísticas asociadas se pueden informar para más de una línea de pobreza o corte.</t>
         </is>
       </c>
       <c r="B254" t="n">
